--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -340,11 +340,423 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PicDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Ekimmara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Ekimmara.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who would think overgrown bats would have a tatse for gaudy jewelry?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Fleder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Fleder.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Garkain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Garkain.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood-drinkers and corpse-eaters so foul their very ugliness paralyses foes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Katakan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Katakan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drinking blood of the Continent since the Conjunction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolves aren't as bad as they say.  Werewolves, though - they're worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyvern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagin a cross between a winged snake and a nightmare.  Wyverns are worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangedCombat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher vampires embrace their victims.  Fleders rip them to shreds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Finoa Elen Riannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Finoa Elen Riannon 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Know when fairy tales cease to be tales?  When people start believing in them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion, you're a cynic, a lecher, a whoremonger, a liar - and my best friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitHorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Men, the polite ones, at least, would call me a monster.  A blood-drinking freak.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaunter O'Dimm: Darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaunter O'Dimm Darkness 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear not the shadows, but the light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt of Rivia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt of Rivia 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If that's what it takes to save the world, it's better to let that world die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious Elf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious Elf 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You humans have... Unusual tastes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triss Merigold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triss Merigold 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can take care of myself.  Trust me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vesemir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vesemir 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you're to be hanged, ask for water.  Anything can happen before they fetch it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villentretenmerth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villentretenmerth 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also calls himself Borkh Three Jackdaws... he's not the best at names.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitScorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yennefer of Vengerberg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yennefer of Vengerberg 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic is Chaos, Art and Science.  It is a curse, ablessing and a progression.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoltan Chivay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoltan Chivay 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life without old mates and booze is like a woman without a rump.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullULevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Frost 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best part about frost - bodies of the fallen don't rot so quickly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullUType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitingFrost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitingFrost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Weather 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sun's shinin.  Dromle!  The sun's shinin'!  Maybe there's hope left after all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearWeather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impenetrablr Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impenetrablr Fog 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good commander's dream... a bad one's horror.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrential Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrential Rain 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even the rain in the land smells like piss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander's Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander's Horn 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus one to morale, minus three to hearing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellHorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you run out of peasants, decoys also make decent arrow fodder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillars of flame turn the mightiest to ash.  All others tremble in shock and awe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellScorch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,32 +1126,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="71.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="5.75" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2232,6 +2647,15 @@
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
       <c r="E36">
         <v>1</v>
       </c>
@@ -2242,7 +2666,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -2257,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2267,6 +2691,15 @@
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
       <c r="E37">
         <v>1</v>
       </c>
@@ -2277,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
@@ -2292,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2302,6 +2735,15 @@
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
@@ -2312,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -2327,7 +2769,7 @@
         <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2337,6 +2779,15 @@
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
       <c r="E39">
         <v>1</v>
       </c>
@@ -2347,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -2362,7 +2813,7 @@
         <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2372,6 +2823,12 @@
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
       <c r="E40">
         <v>1</v>
       </c>
@@ -2382,7 +2839,7 @@
         <v>15</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -2407,6 +2864,12 @@
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
       <c r="E41">
         <v>1</v>
       </c>
@@ -2417,10 +2880,10 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2442,6 +2905,15 @@
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
       <c r="E42">
         <v>1</v>
       </c>
@@ -2449,16 +2921,16 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s">
         <v>18</v>
@@ -2477,6 +2949,15 @@
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -2484,10 +2965,10 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -2502,7 +2983,7 @@
         <v>19</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2512,6 +2993,15 @@
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -2519,10 +3009,10 @@
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -2547,20 +3037,29 @@
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2572,7 +3071,7 @@
         <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2582,6 +3081,15 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
@@ -2589,16 +3097,16 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
         <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="K46" t="s">
         <v>18</v>
@@ -2617,6 +3125,15 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
       <c r="E47">
         <v>1</v>
       </c>
@@ -2624,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2633,7 +3150,7 @@
         <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
         <v>18</v>
@@ -2642,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2652,163 +3169,638 @@
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="s">
+        <v>102</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" t="s">
+        <v>161</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" t="s">
+        <v>149</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" t="s">
+        <v>165</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" t="s">
+        <v>176</v>
+      </c>
+      <c r="L53" t="s">
+        <v>177</v>
+      </c>
+      <c r="M53" t="s">
+        <v>178</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" t="s">
+        <v>176</v>
+      </c>
+      <c r="L54" t="s">
+        <v>182</v>
+      </c>
+      <c r="M54" t="s">
+        <v>182</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" t="s">
+        <v>176</v>
+      </c>
+      <c r="L55" t="s">
+        <v>186</v>
+      </c>
+      <c r="M55" t="s">
+        <v>187</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" t="s">
+        <v>170</v>
+      </c>
+      <c r="K56" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56" t="s">
+        <v>191</v>
+      </c>
+      <c r="M56" t="s">
+        <v>192</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" t="s">
+        <v>170</v>
+      </c>
+      <c r="K57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>175</v>
+      </c>
+      <c r="J58" t="s">
+        <v>170</v>
+      </c>
+      <c r="K58" t="s">
+        <v>201</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="s">
+        <v>202</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" t="s">
+        <v>170</v>
+      </c>
+      <c r="K59" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" t="s">
+        <v>207</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1124,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3915,6 +3915,421 @@
         <v>100</v>
       </c>
     </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junce\Source\Repos\GwentCore\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\GwentCore\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -764,6 +764,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,11 +806,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,28 +1141,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
     <col min="12" max="12" width="5.75" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B1" t="s">
@@ -1159,7 +1176,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -1168,7 +1185,7 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -1186,12 +1203,12 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1203,7 +1220,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -1212,7 +1229,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" t="s">
@@ -1230,12 +1247,12 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="b">
+      <c r="N2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1247,7 +1264,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -1256,7 +1273,7 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -1274,12 +1291,12 @@
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="b">
+      <c r="N3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1291,7 +1308,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -1300,7 +1317,7 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
       <c r="I4" t="s">
@@ -1318,12 +1335,12 @@
       <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1335,7 +1352,7 @@
       <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1344,7 +1361,7 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1362,14 +1379,14 @@
       <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="1" t="b">
+      <c r="N5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1381,7 +1398,7 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" t="s">
@@ -1390,7 +1407,7 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="I6" t="s">
@@ -1408,12 +1425,12 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="b">
+      <c r="N6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1425,7 +1442,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" t="s">
@@ -1434,7 +1451,7 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" t="s">
@@ -1452,12 +1469,12 @@
       <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" t="b">
+      <c r="N7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1469,7 +1486,7 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -1478,7 +1495,7 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -1496,12 +1513,12 @@
       <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="b">
+      <c r="N8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1513,7 +1530,7 @@
       <c r="D9" t="s">
         <v>93</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -1522,7 +1539,7 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>6</v>
       </c>
       <c r="I9" t="s">
@@ -1540,12 +1557,12 @@
       <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" t="b">
+      <c r="N9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1557,7 +1574,7 @@
       <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" t="s">
@@ -1566,7 +1583,7 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>6</v>
       </c>
       <c r="I10" t="s">
@@ -1584,12 +1601,12 @@
       <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" t="b">
+      <c r="N10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1601,7 +1618,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" t="s">
@@ -1610,7 +1627,7 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>6</v>
       </c>
       <c r="I11" t="s">
@@ -1628,12 +1645,12 @@
       <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" t="b">
+      <c r="N11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1645,7 +1662,7 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" t="s">
@@ -1654,7 +1671,7 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
       <c r="I12" t="s">
@@ -1672,12 +1689,12 @@
       <c r="M12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" t="b">
+      <c r="N12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1689,7 +1706,7 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" t="s">
@@ -1698,7 +1715,7 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
       <c r="I13" t="s">
@@ -1716,12 +1733,12 @@
       <c r="M13" t="s">
         <v>29</v>
       </c>
-      <c r="N13" t="b">
+      <c r="N13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1730,7 +1747,7 @@
       <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" t="s">
@@ -1739,7 +1756,7 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" t="s">
@@ -1757,12 +1774,12 @@
       <c r="M14" t="s">
         <v>29</v>
       </c>
-      <c r="N14" t="b">
+      <c r="N14" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1771,7 +1788,7 @@
       <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" t="s">
@@ -1780,7 +1797,7 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>6</v>
       </c>
       <c r="I15" t="s">
@@ -1798,12 +1815,12 @@
       <c r="M15" t="s">
         <v>29</v>
       </c>
-      <c r="N15" t="b">
+      <c r="N15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1812,7 +1829,7 @@
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" t="s">
@@ -1821,7 +1838,7 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>6</v>
       </c>
       <c r="I16" t="s">
@@ -1839,12 +1856,12 @@
       <c r="M16" t="s">
         <v>29</v>
       </c>
-      <c r="N16" t="b">
+      <c r="N16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1853,7 +1870,7 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" t="s">
@@ -1862,7 +1879,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>2</v>
       </c>
       <c r="I17" t="s">
@@ -1880,12 +1897,12 @@
       <c r="M17" t="s">
         <v>29</v>
       </c>
-      <c r="N17" t="b">
+      <c r="N17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1894,7 +1911,7 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" t="s">
@@ -1903,7 +1920,7 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>5</v>
       </c>
       <c r="I18" t="s">
@@ -1921,12 +1938,12 @@
       <c r="M18" t="s">
         <v>29</v>
       </c>
-      <c r="N18" t="b">
+      <c r="N18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1935,7 +1952,7 @@
       <c r="D19" t="s">
         <v>96</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -1944,7 +1961,7 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>5</v>
       </c>
       <c r="I19" t="s">
@@ -1962,12 +1979,12 @@
       <c r="M19" t="s">
         <v>29</v>
       </c>
-      <c r="N19" t="b">
+      <c r="N19" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1976,7 +1993,7 @@
       <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" t="s">
@@ -1985,7 +2002,7 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>2</v>
       </c>
       <c r="I20" t="s">
@@ -2003,12 +2020,12 @@
       <c r="M20" t="s">
         <v>29</v>
       </c>
-      <c r="N20" t="b">
+      <c r="N20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2020,7 +2037,7 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -2029,7 +2046,7 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" t="s">
@@ -2047,12 +2064,12 @@
       <c r="M21" t="s">
         <v>20</v>
       </c>
-      <c r="N21" t="b">
+      <c r="N21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -2064,7 +2081,7 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -2073,7 +2090,7 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" t="s">
@@ -2091,12 +2108,12 @@
       <c r="M22" t="s">
         <v>20</v>
       </c>
-      <c r="N22" t="b">
+      <c r="N22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -2108,7 +2125,7 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -2117,7 +2134,7 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" t="s">
@@ -2135,12 +2152,12 @@
       <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="N23" t="b">
+      <c r="N23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -2149,7 +2166,7 @@
       <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -2158,7 +2175,7 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>5</v>
       </c>
       <c r="I24" t="s">
@@ -2176,12 +2193,12 @@
       <c r="M24" t="s">
         <v>29</v>
       </c>
-      <c r="N24" t="b">
+      <c r="N24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -2190,7 +2207,7 @@
       <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -2199,7 +2216,7 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>5</v>
       </c>
       <c r="I25" t="s">
@@ -2217,12 +2234,12 @@
       <c r="M25" t="s">
         <v>29</v>
       </c>
-      <c r="N25" t="b">
+      <c r="N25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -2231,7 +2248,7 @@
       <c r="D26" t="s">
         <v>99</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -2240,7 +2257,7 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" t="s">
@@ -2258,12 +2275,12 @@
       <c r="M26" t="s">
         <v>34</v>
       </c>
-      <c r="N26" t="b">
+      <c r="N26" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -2272,7 +2289,7 @@
       <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -2281,7 +2298,7 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>6</v>
       </c>
       <c r="I27" t="s">
@@ -2299,12 +2316,12 @@
       <c r="M27" t="s">
         <v>29</v>
       </c>
-      <c r="N27" t="b">
+      <c r="N27" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -2313,7 +2330,7 @@
       <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" t="s">
@@ -2322,7 +2339,7 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>10</v>
       </c>
       <c r="I28" t="s">
@@ -2340,12 +2357,12 @@
       <c r="M28" t="s">
         <v>29</v>
       </c>
-      <c r="N28" t="b">
+      <c r="N28" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -2354,7 +2371,7 @@
       <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" t="s">
@@ -2363,7 +2380,7 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>8</v>
       </c>
       <c r="I29" t="s">
@@ -2381,12 +2398,12 @@
       <c r="M29" t="s">
         <v>100</v>
       </c>
-      <c r="N29" t="b">
+      <c r="N29" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -2395,7 +2412,7 @@
       <c r="D30" t="s">
         <v>80</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" t="s">
@@ -2404,7 +2421,7 @@
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>10</v>
       </c>
       <c r="I30" t="s">
@@ -2422,12 +2439,12 @@
       <c r="M30" t="s">
         <v>29</v>
       </c>
-      <c r="N30" t="b">
+      <c r="N30" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -2439,7 +2456,7 @@
       <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" t="s">
@@ -2448,7 +2465,7 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>2</v>
       </c>
       <c r="I31" t="s">
@@ -2466,12 +2483,12 @@
       <c r="M31" t="s">
         <v>20</v>
       </c>
-      <c r="N31" t="b">
+      <c r="N31" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -2483,7 +2500,7 @@
       <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" t="s">
@@ -2492,7 +2509,7 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>2</v>
       </c>
       <c r="I32" t="s">
@@ -2510,12 +2527,12 @@
       <c r="M32" t="s">
         <v>20</v>
       </c>
-      <c r="N32" t="b">
+      <c r="N32" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -2527,7 +2544,7 @@
       <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -2536,7 +2553,7 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>2</v>
       </c>
       <c r="I33" t="s">
@@ -2554,12 +2571,12 @@
       <c r="M33" t="s">
         <v>20</v>
       </c>
-      <c r="N33" t="b">
+      <c r="N33" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -2568,7 +2585,7 @@
       <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" t="s">
@@ -2577,7 +2594,7 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>5</v>
       </c>
       <c r="I34" t="s">
@@ -2595,12 +2612,12 @@
       <c r="M34" t="s">
         <v>29</v>
       </c>
-      <c r="N34" t="b">
+      <c r="N34" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -2612,7 +2629,7 @@
       <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2621,7 +2638,7 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>4</v>
       </c>
       <c r="I35" t="s">
@@ -2639,12 +2656,12 @@
       <c r="M35" t="s">
         <v>20</v>
       </c>
-      <c r="N35" t="b">
+      <c r="N35" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2656,7 +2673,7 @@
       <c r="D36" t="s">
         <v>106</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2665,7 +2682,7 @@
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>4</v>
       </c>
       <c r="I36" t="s">
@@ -2683,12 +2700,12 @@
       <c r="M36" t="s">
         <v>107</v>
       </c>
-      <c r="N36" t="b">
+      <c r="N36" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2700,7 +2717,7 @@
       <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2709,7 +2726,7 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>4</v>
       </c>
       <c r="I37" t="s">
@@ -2727,12 +2744,12 @@
       <c r="M37" t="s">
         <v>110</v>
       </c>
-      <c r="N37" t="b">
+      <c r="N37" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -2744,7 +2761,7 @@
       <c r="D38" t="s">
         <v>113</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2753,7 +2770,7 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>4</v>
       </c>
       <c r="I38" t="s">
@@ -2771,12 +2788,12 @@
       <c r="M38" t="s">
         <v>107</v>
       </c>
-      <c r="N38" t="b">
+      <c r="N38" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -2788,7 +2805,7 @@
       <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2797,7 +2814,7 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>5</v>
       </c>
       <c r="I39" t="s">
@@ -2815,12 +2832,12 @@
       <c r="M39" t="s">
         <v>118</v>
       </c>
-      <c r="N39" t="b">
+      <c r="N39" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -2829,7 +2846,7 @@
       <c r="D40" t="s">
         <v>120</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2838,7 +2855,7 @@
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>5</v>
       </c>
       <c r="I40" t="s">
@@ -2856,12 +2873,12 @@
       <c r="M40" t="s">
         <v>102</v>
       </c>
-      <c r="N40" t="b">
+      <c r="N40" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -2870,7 +2887,7 @@
       <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2879,7 +2896,7 @@
       <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>2</v>
       </c>
       <c r="I41" t="s">
@@ -2897,12 +2914,12 @@
       <c r="M41" t="s">
         <v>102</v>
       </c>
-      <c r="N41" t="b">
+      <c r="N41" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -2914,7 +2931,7 @@
       <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2923,7 +2940,7 @@
       <c r="G42" t="s">
         <v>128</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>15</v>
       </c>
       <c r="I42" t="s">
@@ -2941,12 +2958,12 @@
       <c r="M42" t="s">
         <v>102</v>
       </c>
-      <c r="N42" t="b">
+      <c r="N42" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -2958,7 +2975,7 @@
       <c r="D43" t="s">
         <v>132</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2967,7 +2984,7 @@
       <c r="G43" t="s">
         <v>133</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>2</v>
       </c>
       <c r="I43" t="s">
@@ -2985,12 +3002,12 @@
       <c r="M43" t="s">
         <v>134</v>
       </c>
-      <c r="N43" t="b">
+      <c r="N43" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -3002,7 +3019,7 @@
       <c r="D44" t="s">
         <v>137</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3011,7 +3028,7 @@
       <c r="G44" t="s">
         <v>133</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>5</v>
       </c>
       <c r="I44" t="s">
@@ -3029,12 +3046,12 @@
       <c r="M44" t="s">
         <v>102</v>
       </c>
-      <c r="N44" t="b">
+      <c r="N44" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -3046,7 +3063,7 @@
       <c r="D45" t="s">
         <v>140</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3055,7 +3072,7 @@
       <c r="G45" t="s">
         <v>133</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>4</v>
       </c>
       <c r="I45" t="s">
@@ -3073,12 +3090,12 @@
       <c r="M45" t="s">
         <v>141</v>
       </c>
-      <c r="N45" t="b">
+      <c r="N45" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -3090,7 +3107,7 @@
       <c r="D46" t="s">
         <v>144</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3099,7 +3116,7 @@
       <c r="G46" t="s">
         <v>133</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>15</v>
       </c>
       <c r="I46" t="s">
@@ -3117,12 +3134,12 @@
       <c r="M46" t="s">
         <v>102</v>
       </c>
-      <c r="N46" t="b">
+      <c r="N46" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -3134,7 +3151,7 @@
       <c r="D47" t="s">
         <v>148</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3143,7 +3160,7 @@
       <c r="G47" t="s">
         <v>133</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" t="s">
@@ -3161,12 +3178,12 @@
       <c r="M47" t="s">
         <v>150</v>
       </c>
-      <c r="N47" t="b">
+      <c r="N47" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -3178,7 +3195,7 @@
       <c r="D48" t="s">
         <v>153</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3187,7 +3204,7 @@
       <c r="G48" t="s">
         <v>133</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>7</v>
       </c>
       <c r="I48" t="s">
@@ -3205,12 +3222,12 @@
       <c r="M48" t="s">
         <v>102</v>
       </c>
-      <c r="N48" t="b">
+      <c r="N48" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -3222,7 +3239,7 @@
       <c r="D49" t="s">
         <v>156</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3231,7 +3248,7 @@
       <c r="G49" t="s">
         <v>133</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>6</v>
       </c>
       <c r="I49" t="s">
@@ -3249,12 +3266,12 @@
       <c r="M49" t="s">
         <v>102</v>
       </c>
-      <c r="N49" t="b">
+      <c r="N49" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -3266,7 +3283,7 @@
       <c r="D50" t="s">
         <v>160</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -3275,7 +3292,7 @@
       <c r="G50" t="s">
         <v>133</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>7</v>
       </c>
       <c r="I50" t="s">
@@ -3293,12 +3310,12 @@
       <c r="M50" t="s">
         <v>161</v>
       </c>
-      <c r="N50" t="b">
+      <c r="N50" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -3310,7 +3327,7 @@
       <c r="D51" t="s">
         <v>164</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3319,7 +3336,7 @@
       <c r="G51" t="s">
         <v>133</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>7</v>
       </c>
       <c r="I51" t="s">
@@ -3337,12 +3354,12 @@
       <c r="M51" t="s">
         <v>165</v>
       </c>
-      <c r="N51" t="b">
+      <c r="N51" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -3354,7 +3371,7 @@
       <c r="D52" t="s">
         <v>168</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3363,7 +3380,7 @@
       <c r="G52" t="s">
         <v>133</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>5</v>
       </c>
       <c r="I52" t="s">
@@ -3381,12 +3398,12 @@
       <c r="M52" t="s">
         <v>102</v>
       </c>
-      <c r="N52" t="b">
+      <c r="N52" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -3398,7 +3415,7 @@
       <c r="D53" t="s">
         <v>174</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3407,7 +3424,7 @@
       <c r="G53" t="s">
         <v>133</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>-1</v>
       </c>
       <c r="I53" t="s">
@@ -3425,12 +3442,12 @@
       <c r="M53" t="s">
         <v>178</v>
       </c>
-      <c r="N53" t="b">
+      <c r="N53" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -3442,7 +3459,7 @@
       <c r="D54" t="s">
         <v>181</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3451,7 +3468,7 @@
       <c r="G54" t="s">
         <v>133</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
@@ -3469,12 +3486,12 @@
       <c r="M54" t="s">
         <v>182</v>
       </c>
-      <c r="N54" t="b">
+      <c r="N54" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -3486,7 +3503,7 @@
       <c r="D55" t="s">
         <v>185</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3495,7 +3512,7 @@
       <c r="G55" t="s">
         <v>133</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
@@ -3513,12 +3530,12 @@
       <c r="M55" t="s">
         <v>187</v>
       </c>
-      <c r="N55" t="b">
+      <c r="N55" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -3530,7 +3547,7 @@
       <c r="D56" t="s">
         <v>190</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3539,7 +3556,7 @@
       <c r="G56" t="s">
         <v>133</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
@@ -3557,12 +3574,12 @@
       <c r="M56" t="s">
         <v>192</v>
       </c>
-      <c r="N56" t="b">
+      <c r="N56" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -3574,7 +3591,7 @@
       <c r="D57" t="s">
         <v>195</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -3583,7 +3600,7 @@
       <c r="G57" t="s">
         <v>133</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
@@ -3601,12 +3618,12 @@
       <c r="M57" t="s">
         <v>197</v>
       </c>
-      <c r="N57" t="b">
+      <c r="N57" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -3618,7 +3635,7 @@
       <c r="D58" t="s">
         <v>200</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -3627,7 +3644,7 @@
       <c r="G58" t="s">
         <v>133</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" t="s">
@@ -3645,12 +3662,12 @@
       <c r="M58" t="s">
         <v>202</v>
       </c>
-      <c r="N58" t="b">
+      <c r="N58" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -3662,7 +3679,7 @@
       <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3671,7 +3688,7 @@
       <c r="G59" t="s">
         <v>133</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>-1</v>
       </c>
       <c r="I59" t="s">
@@ -3689,644 +3706,644 @@
       <c r="M59" t="s">
         <v>207</v>
       </c>
-      <c r="N59" t="b">
+      <c r="N59" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>183</v>
       </c>
     </row>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\GwentCore\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junce\Source\Repos\GwentCore\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="225">
   <si>
     <t>Name</t>
   </si>
@@ -757,6 +757,60 @@
   </si>
   <si>
     <t>SpellScorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endrega.png</t>
+  </si>
+  <si>
+    <t>Fiend.png</t>
+  </si>
+  <si>
+    <t>Fire Elemental.png</t>
+  </si>
+  <si>
+    <t>Foglet.png</t>
+  </si>
+  <si>
+    <t>Forktail.png</t>
+  </si>
+  <si>
+    <t>Frightener.png</t>
+  </si>
+  <si>
+    <t>Gargoyle.png</t>
+  </si>
+  <si>
+    <t>Grave Hag.png</t>
+  </si>
+  <si>
+    <t>Griffin.png</t>
+  </si>
+  <si>
+    <t>Harpy.png</t>
+  </si>
+  <si>
+    <t>Ice Giant.png</t>
+  </si>
+  <si>
+    <t>Imlerith.png</t>
+  </si>
+  <si>
+    <t>Kayran.png</t>
+  </si>
+  <si>
+    <t>Leshen.png</t>
+  </si>
+  <si>
+    <t>Plague Maiden.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyvern.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1208,7 @@
     <col min="5" max="5" width="2.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
@@ -1339,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1744,6 +1798,9 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1785,6 +1842,9 @@
       <c r="B15" t="s">
         <v>55</v>
       </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
@@ -1825,6 +1885,9 @@
       </c>
       <c r="B16" t="s">
         <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1867,6 +1930,9 @@
       <c r="B17" t="s">
         <v>58</v>
       </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -1908,6 +1974,9 @@
       <c r="B18" t="s">
         <v>60</v>
       </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
       <c r="D18" t="s">
         <v>61</v>
       </c>
@@ -1949,6 +2018,9 @@
       <c r="B19" t="s">
         <v>62</v>
       </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="s">
         <v>96</v>
       </c>
@@ -1989,6 +2061,9 @@
       </c>
       <c r="B20" t="s">
         <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
       </c>
       <c r="D20" t="s">
         <v>97</v>
@@ -2163,6 +2238,9 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="s">
         <v>70</v>
       </c>
@@ -2204,6 +2282,9 @@
       <c r="B25" t="s">
         <v>71</v>
       </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="s">
         <v>98</v>
       </c>
@@ -2245,6 +2326,9 @@
       <c r="B26" t="s">
         <v>72</v>
       </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="s">
         <v>99</v>
       </c>
@@ -2286,6 +2370,9 @@
       <c r="B27" t="s">
         <v>73</v>
       </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="s">
         <v>74</v>
       </c>
@@ -2327,6 +2414,9 @@
       <c r="B28" t="s">
         <v>75</v>
       </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="s">
         <v>76</v>
       </c>
@@ -2368,6 +2458,9 @@
       <c r="B29" t="s">
         <v>77</v>
       </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
       <c r="D29" t="s">
         <v>78</v>
       </c>
@@ -2409,6 +2502,9 @@
       <c r="B30" t="s">
         <v>79</v>
       </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
       <c r="D30" t="s">
         <v>80</v>
       </c>
@@ -2582,6 +2678,9 @@
       <c r="B34" t="s">
         <v>85</v>
       </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
       <c r="D34" t="s">
         <v>86</v>
       </c>
@@ -2843,6 +2942,9 @@
       <c r="B40" t="s">
         <v>119</v>
       </c>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
       <c r="D40" t="s">
         <v>120</v>
       </c>
@@ -2883,6 +2985,9 @@
       </c>
       <c r="B41" t="s">
         <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
       </c>
       <c r="D41" t="s">
         <v>122</v>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -811,6 +811,46 @@
   </si>
   <si>
     <t>Wyvern.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCard.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must read a wrong card!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Card!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullCTyoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullCSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullUType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullULevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullSType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullEType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,40 +1306,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -1313,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1357,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1398,88 +1435,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="b">
+      <c r="N5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="4" t="b">
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1488,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1506,10 +1543,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1521,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4" t="b">
         <v>0</v>
@@ -1532,13 +1569,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1553,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1565,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N8" s="4" t="b">
         <v>0</v>
@@ -1576,13 +1613,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1594,10 +1631,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1609,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N9" s="4" t="b">
         <v>0</v>
@@ -1620,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1664,13 +1701,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1708,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1726,13 +1763,13 @@
         <v>15</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
@@ -1741,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N12" s="4" t="b">
         <v>0</v>
@@ -1752,13 +1789,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1770,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="H13" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -1796,13 +1833,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1814,10 +1851,10 @@
         <v>15</v>
       </c>
       <c r="H14" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1840,13 +1877,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1858,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1884,13 +1921,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1905,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1928,13 +1965,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1946,10 +1983,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1972,13 +2009,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1990,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -2016,13 +2053,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2060,13 +2097,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -2078,10 +2115,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -2104,13 +2141,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2122,10 +2159,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -2137,7 +2174,7 @@
         <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N21" s="4" t="b">
         <v>0</v>
@@ -2151,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -2195,7 +2232,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -2236,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2254,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2269,7 +2306,7 @@
         <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N24" s="4" t="b">
         <v>0</v>
@@ -2280,13 +2317,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2301,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2324,13 +2361,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2342,10 +2379,10 @@
         <v>15</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -2357,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N26" s="4" t="b">
         <v>0</v>
@@ -2368,13 +2405,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2386,10 +2423,10 @@
         <v>15</v>
       </c>
       <c r="H27" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2401,7 +2438,7 @@
         <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N27" s="4" t="b">
         <v>0</v>
@@ -2412,13 +2449,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2430,13 +2467,13 @@
         <v>15</v>
       </c>
       <c r="H28" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
@@ -2456,13 +2493,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2474,10 +2511,10 @@
         <v>15</v>
       </c>
       <c r="H29" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
@@ -2489,7 +2526,7 @@
         <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N29" s="4" t="b">
         <v>0</v>
@@ -2500,13 +2537,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2518,10 +2555,10 @@
         <v>15</v>
       </c>
       <c r="H30" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>50</v>
@@ -2533,7 +2570,7 @@
         <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -2544,13 +2581,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2562,13 +2599,13 @@
         <v>15</v>
       </c>
       <c r="H31" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s">
         <v>18</v>
@@ -2577,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N31" s="4" t="b">
         <v>0</v>
@@ -2591,7 +2628,7 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
         <v>90</v>
@@ -2635,10 +2672,10 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2676,13 +2713,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2694,7 +2731,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
         <v>16</v>
@@ -2709,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -2720,25 +2757,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
@@ -2753,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N35" s="4" t="b">
         <v>0</v>
@@ -2764,13 +2801,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -2797,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -2808,13 +2845,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -2841,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="M37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -2852,13 +2889,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2885,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -2896,13 +2933,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -2914,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -2929,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -2940,13 +2977,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -2973,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -2984,13 +3021,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3002,10 +3039,10 @@
         <v>15</v>
       </c>
       <c r="H41" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -3028,13 +3065,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3043,16 +3080,16 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="H42" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
         <v>18</v>
@@ -3072,13 +3109,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3087,16 +3124,16 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H43" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s">
         <v>18</v>
@@ -3105,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="N43" s="4" t="b">
         <v>0</v>
@@ -3116,13 +3153,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -3134,7 +3171,7 @@
         <v>133</v>
       </c>
       <c r="H44" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -3149,7 +3186,7 @@
         <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -3160,16 +3197,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
@@ -3178,10 +3215,10 @@
         <v>133</v>
       </c>
       <c r="H45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -3193,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="N45" s="4" t="b">
         <v>0</v>
@@ -3204,16 +3241,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -3222,13 +3259,13 @@
         <v>133</v>
       </c>
       <c r="H46" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
         <v>18</v>
@@ -3237,7 +3274,7 @@
         <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -3248,13 +3285,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -3266,13 +3303,13 @@
         <v>133</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K47" t="s">
         <v>18</v>
@@ -3281,7 +3318,7 @@
         <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="N47" s="4" t="b">
         <v>0</v>
@@ -3292,13 +3329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -3310,7 +3347,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
@@ -3325,7 +3362,7 @@
         <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -3336,13 +3373,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3354,13 +3391,13 @@
         <v>133</v>
       </c>
       <c r="H49" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s">
         <v>18</v>
@@ -3380,13 +3417,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -3398,7 +3435,7 @@
         <v>133</v>
       </c>
       <c r="H50" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -3413,7 +3450,7 @@
         <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="N50" s="4" t="b">
         <v>0</v>
@@ -3424,13 +3461,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -3445,10 +3482,10 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K51" t="s">
         <v>18</v>
@@ -3457,7 +3494,7 @@
         <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -3468,13 +3505,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -3486,13 +3523,13 @@
         <v>133</v>
       </c>
       <c r="H52" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K52" t="s">
         <v>18</v>
@@ -3501,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -3512,40 +3549,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
         <v>133</v>
       </c>
       <c r="H53" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="M53" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="N53" s="4" t="b">
         <v>0</v>
@@ -3556,13 +3593,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
@@ -3586,10 +3623,10 @@
         <v>176</v>
       </c>
       <c r="L54" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -3600,13 +3637,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -3630,10 +3667,10 @@
         <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -3644,13 +3681,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -3674,10 +3711,10 @@
         <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M56" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -3688,13 +3725,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
@@ -3715,13 +3752,13 @@
         <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="M57" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -3732,13 +3769,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -3750,7 +3787,7 @@
         <v>133</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I58" t="s">
         <v>175</v>
@@ -3759,13 +3796,13 @@
         <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s">
         <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -3776,13 +3813,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -3794,7 +3831,7 @@
         <v>133</v>
       </c>
       <c r="H59" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>175</v>
@@ -3803,13 +3840,13 @@
         <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L59" t="s">
         <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -3819,7 +3856,45 @@
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" t="s">
+        <v>206</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2">

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junce\Source\Repos\GwentCore\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\GwentCore\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="394">
   <si>
     <t>Name</t>
   </si>
@@ -38,820 +38,1366 @@
     <t>CardType</t>
   </si>
   <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>UnitLevel</t>
+  </si>
+  <si>
+    <t>SpellType</t>
+  </si>
+  <si>
+    <t>WeatherType</t>
+  </si>
+  <si>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>Arachas</t>
+  </si>
+  <si>
+    <t>Arachas 1.png</t>
+  </si>
+  <si>
+    <t>Ugly - nature's way of saying: Stay the fuck away.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>CloseCombat</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>NullSType</t>
+  </si>
+  <si>
+    <t>NullWType</t>
+  </si>
+  <si>
+    <t>Muster</t>
+  </si>
+  <si>
+    <t>Arachas 2.png</t>
+  </si>
+  <si>
+    <t>Arachas 3.png</t>
+  </si>
+  <si>
+    <t>Arachas: Behemoth</t>
+  </si>
+  <si>
+    <t>Arachas Behemoth.png</t>
+  </si>
+  <si>
+    <t>Seige</t>
+  </si>
+  <si>
+    <t>Botchling</t>
+  </si>
+  <si>
+    <t>Botchling.png</t>
+  </si>
+  <si>
+    <t>Admit your mistakes and bury them proper - else they'll come back to haunt you.</t>
+  </si>
+  <si>
+    <t>NullEType</t>
+  </si>
+  <si>
+    <t>Celaeno Harpy</t>
+  </si>
+  <si>
+    <t>Celaeno Harpy.png</t>
+  </si>
+  <si>
+    <t>Common Harpies feed on carrion. Celaeno harpies… they feed on dreams.</t>
+  </si>
+  <si>
+    <t>CloseRangedCombat</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Cockatrice</t>
+  </si>
+  <si>
+    <t>Cockatrice.png</t>
+  </si>
+  <si>
+    <t>Born of an egg laid by a cockerel... if you believe such peasant drivel.</t>
+  </si>
+  <si>
+    <t>RangedCombat</t>
+  </si>
+  <si>
+    <t>Crone: Brewess</t>
+  </si>
+  <si>
+    <t>Crone Brewess.png</t>
+  </si>
+  <si>
+    <t>Crone: Weavess</t>
+  </si>
+  <si>
+    <t>Crone Weavess.png</t>
+  </si>
+  <si>
+    <t>I sense your pain.  I see your fear...</t>
+  </si>
+  <si>
+    <t>Crone: Whispess</t>
+  </si>
+  <si>
+    <t>Crone Whispess.png</t>
+  </si>
+  <si>
+    <t>I'd be your best - and last.</t>
+  </si>
+  <si>
+    <t>Draug</t>
+  </si>
+  <si>
+    <t>Draug.png</t>
+  </si>
+  <si>
+    <t>Some men connot admit defeat.  Some keept fighting from beyond the grave.</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Earth Elemental</t>
+  </si>
+  <si>
+    <t>Earth Elemental.png</t>
+  </si>
+  <si>
+    <t>How to fight an earth elemental? You don't.  You run.  Fast as you can.</t>
+  </si>
+  <si>
+    <t>Endrega</t>
+  </si>
+  <si>
+    <t>Fiend</t>
+  </si>
+  <si>
+    <t>Fire Elemental</t>
+  </si>
+  <si>
+    <t>Fire is so delightful.</t>
+  </si>
+  <si>
+    <t>Foglet</t>
+  </si>
+  <si>
+    <t>Fog creeps on little cat feet.  Foglets creep over the bodies of their victims.</t>
+  </si>
+  <si>
+    <t>Forktail</t>
+  </si>
+  <si>
+    <t>Fork tails...  Bah!  Fucker's tails're more like cleavers.</t>
+  </si>
+  <si>
+    <t>Frightener</t>
+  </si>
+  <si>
+    <t>Gargoyle</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Ghoul 1.png</t>
+  </si>
+  <si>
+    <t>If ghouls are part of the Circle of Life...  Then it's a damn vicious circle.</t>
+  </si>
+  <si>
+    <t>Ghoul 2.png</t>
+  </si>
+  <si>
+    <t>Ghoul 3.png</t>
+  </si>
+  <si>
+    <t>Grave Hag</t>
+  </si>
+  <si>
+    <t>Their long tongues're for slurping marrow - and whipping prey.</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Harpy</t>
+  </si>
+  <si>
+    <t>Ice Giant</t>
+  </si>
+  <si>
+    <t>Fled one time in my life.  From the Ice Giant.  And I'm not a bit ashamed.</t>
+  </si>
+  <si>
+    <t>Imlerith</t>
+  </si>
+  <si>
+    <t>Ladd nahw!  Kill them!  Litter the earth with their entrails!</t>
+  </si>
+  <si>
+    <t>Kayran</t>
+  </si>
+  <si>
+    <t>Kill a kayran?  Simple.  Take your best sword...  Then sell it and hire a witcher.</t>
+  </si>
+  <si>
+    <t>Leshen</t>
+  </si>
+  <si>
+    <t>We never hut in there woods.  Not even if it means the whole village straves</t>
+  </si>
+  <si>
+    <t>Nekker</t>
+  </si>
+  <si>
+    <t>Nekker 1.png</t>
+  </si>
+  <si>
+    <t>Nekker 2.png</t>
+  </si>
+  <si>
+    <t>Nekker 3.png</t>
+  </si>
+  <si>
+    <t>Plague Maiden</t>
+  </si>
+  <si>
+    <t>The sick rave about a boil-pocked woman surrounded by herds of rabid rats...</t>
+  </si>
+  <si>
+    <t>Vampire: Bruxa</t>
+  </si>
+  <si>
+    <t>Vampire Bruxa.png</t>
+  </si>
+  <si>
+    <t>A vile, bloodthirsty, man-eating hag.  Kind of like my mother-in-law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damn things are almost cute, if you ignore the whole vicious killer aspect.</t>
+  </si>
+  <si>
+    <t>Damn things are almost cute, if you ignore the whole vicious killer aspect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like a cross between a crab, a spider... and a ploughin' mountain.</t>
+  </si>
+  <si>
+    <t>We'll cut you up, boy.  A fine broth you will make.</t>
+  </si>
+  <si>
+    <t>The nest!  Take out the nest, or the bastards'll just keep coming!</t>
+  </si>
+  <si>
+    <t>A fiend looks a bit like a deer.  An enormous, evil deer.</t>
+  </si>
+  <si>
+    <t>What have I done?  The mage cried out, fritened of his own creation.</t>
+  </si>
+  <si>
+    <t>Ancient sculptors' nightmarish fantasies, brought to life by bored mages.</t>
+  </si>
+  <si>
+    <t>Griffins like to toy with their prey.  Eat'em alive, piece by piece.</t>
+  </si>
+  <si>
+    <t>There are many species of harpy, and all are kleptomaniacs.</t>
+  </si>
+  <si>
+    <t>Agile, MoraleBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullEType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Ekimmara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Ekimmara.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who would think overgrown bats would have a tatse for gaudy jewelry?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Fleder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Fleder.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Garkain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Garkain.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood-drinkers and corpse-eaters so foul their very ugliness paralyses foes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: Katakan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Katakan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drinking blood of the Continent since the Conjunction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolves aren't as bad as they say.  Werewolves, though - they're worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyvern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagin a cross between a winged snake and a nightmare.  Wyverns are worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher vampires embrace their victims.  Fleders rip them to shreds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Finoa Elen Riannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Finoa Elen Riannon 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Know when fairy tales cease to be tales?  When people start believing in them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dandelion, you're a cynic, a lecher, a whoremonger, a liar - and my best friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitHorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Men, the polite ones, at least, would call me a monster.  A blood-drinking freak.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaunter O'Dimm: Darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaunter O'Dimm Darkness 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear not the shadows, but the light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt of Rivia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt of Rivia 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If that's what it takes to save the world, it's better to let that world die.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious Elf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious Elf 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You humans have... Unusual tastes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triss Merigold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triss Merigold 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can take care of myself.  Trust me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vesemir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vesemir 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you're to be hanged, ask for water.  Anything can happen before they fetch it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villentretenmerth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villentretenmerth 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also calls himself Borkh Three Jackdaws... he's not the best at names.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitScorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yennefer of Vengerberg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yennefer of Vengerberg 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic is Chaos, Art and Science.  It is a curse, ablessing and a progression.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoltan Chivay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoltan Chivay 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life without old mates and booze is like a woman without a rump.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullULevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Frost 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best part about frost - bodies of the fallen don't rot so quickly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullUType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitingFrost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitingFrost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Weather 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sun's shinin.  Dromle!  The sun's shinin'!  Maybe there's hope left after all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearWeather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impenetrablr Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impenetrablr Fog 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good commander's dream... a bad one's horror.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrential Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrential Rain 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even the rain in the land smells like piss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander's Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander's Horn 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus one to morale, minus three to hearing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellHorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you run out of peasants, decoys also make decent arrow fodder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pillars of flame turn the mightiest to ash.  All others tremble in shock and awe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellScorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endrega.png</t>
+  </si>
+  <si>
+    <t>Fiend.png</t>
+  </si>
+  <si>
+    <t>Fire Elemental.png</t>
+  </si>
+  <si>
+    <t>Foglet.png</t>
+  </si>
+  <si>
+    <t>Forktail.png</t>
+  </si>
+  <si>
+    <t>Frightener.png</t>
+  </si>
+  <si>
+    <t>Gargoyle.png</t>
+  </si>
+  <si>
+    <t>Grave Hag.png</t>
+  </si>
+  <si>
+    <t>Griffin.png</t>
+  </si>
+  <si>
+    <t>Harpy.png</t>
+  </si>
+  <si>
+    <t>Ice Giant.png</t>
+  </si>
+  <si>
+    <t>Imlerith.png</t>
+  </si>
+  <si>
+    <t>Kayran.png</t>
+  </si>
+  <si>
+    <t>Leshen.png</t>
+  </si>
+  <si>
+    <t>Plague Maiden.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyvern.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCard.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must read a wrong card!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Card!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullCTyoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullCSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullUType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullULevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullSType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullEType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CardSet</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>UnitLevel</t>
-  </si>
-  <si>
-    <t>SpellType</t>
-  </si>
-  <si>
-    <t>WeatherType</t>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>Arachas</t>
-  </si>
-  <si>
-    <t>Arachas 1.png</t>
-  </si>
-  <si>
-    <t>Ugly - nature's way of saying: Stay the fuck away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albrich</t>
+  </si>
+  <si>
+    <t>Nilfgaarian</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assire var Anahid</t>
+  </si>
+  <si>
+    <t>Black Infantry Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cahir Mawr Dyffryn aep Ceallach</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Etolian Auxiliary Archers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medice</t>
+  </si>
+  <si>
+    <t>Fringilla Vigo</t>
+  </si>
+  <si>
+    <t>NullEType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Zerrikanian Fire Scorpion</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>Impera Brigade Guard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TightBonde</t>
+  </si>
+  <si>
+    <t>Letho of Gulet</t>
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menno Coehoorn</t>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morteisen</t>
+  </si>
+  <si>
+    <t>Morvran Voorhis</t>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puttkammer</t>
+  </si>
+  <si>
+    <t>Rainfarn</t>
+  </si>
+  <si>
+    <t>Renuald aep Matsen</t>
+  </si>
+  <si>
+    <t>Rotten Mangonel</t>
+  </si>
+  <si>
+    <t>Shilard Fitz-Oesterlen</t>
+  </si>
+  <si>
+    <t>Spye</t>
+  </si>
+  <si>
+    <t>Siege Engineer</t>
+  </si>
+  <si>
+    <t>Siege Technician</t>
+  </si>
+  <si>
+    <t>Stefan Skellen</t>
+  </si>
+  <si>
+    <t>Sweers</t>
+  </si>
+  <si>
+    <t>Tibor Eggebracht</t>
+  </si>
+  <si>
+    <t>Vanhemar</t>
+  </si>
+  <si>
+    <t>Vattier de Rideaux</t>
+  </si>
+  <si>
+    <t>Vreemde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Emissary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CloseCombat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zerrikanian Fire Scorpion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siege</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albrich.png</t>
+  </si>
+  <si>
+    <t>Assire var Anahid.png</t>
   </si>
   <si>
     <t>Ordinary</t>
-  </si>
-  <si>
-    <t>NullSType</t>
-  </si>
-  <si>
-    <t>NullWType</t>
-  </si>
-  <si>
-    <t>Muster</t>
-  </si>
-  <si>
-    <t>Arachas 2.png</t>
-  </si>
-  <si>
-    <t>Arachas 3.png</t>
-  </si>
-  <si>
-    <t>Arachas: Behemoth</t>
-  </si>
-  <si>
-    <t>Arachas Behemoth.png</t>
-  </si>
-  <si>
-    <t>Seige</t>
-  </si>
-  <si>
-    <t>Botchling</t>
-  </si>
-  <si>
-    <t>Botchling.png</t>
-  </si>
-  <si>
-    <t>Admit your mistakes and bury them proper - else they'll come back to haunt you.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cahir Mawr Dyffryn aep Ceallach.png</t>
+  </si>
+  <si>
+    <t>Cynthia.png</t>
+  </si>
+  <si>
+    <t>Etolian Auxiliary Archers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fringilla Vigo.png</t>
   </si>
   <si>
     <t>NullEType</t>
-  </si>
-  <si>
-    <t>Celaeno Harpy</t>
-  </si>
-  <si>
-    <t>Celaeno Harpy.png</t>
-  </si>
-  <si>
-    <t>Common Harpies feed on carrion. Celaeno harpies… they feed on dreams.</t>
-  </si>
-  <si>
-    <t>CloseRangedCombat</t>
-  </si>
-  <si>
-    <t>Agile</t>
-  </si>
-  <si>
-    <t>Cockatrice</t>
-  </si>
-  <si>
-    <t>Cockatrice.png</t>
-  </si>
-  <si>
-    <t>Born of an egg laid by a cockerel... if you believe such peasant drivel.</t>
-  </si>
-  <si>
-    <t>RangedCombat</t>
-  </si>
-  <si>
-    <t>Crone: Brewess</t>
-  </si>
-  <si>
-    <t>Crone Brewess.png</t>
-  </si>
-  <si>
-    <t>Crone: Weavess</t>
-  </si>
-  <si>
-    <t>Crone Weavess.png</t>
-  </si>
-  <si>
-    <t>I sense your pain.  I see your fear...</t>
-  </si>
-  <si>
-    <t>Crone: Whispess</t>
-  </si>
-  <si>
-    <t>Crone Whispess.png</t>
-  </si>
-  <si>
-    <t>I'd be your best - and last.</t>
-  </si>
-  <si>
-    <t>Draug</t>
-  </si>
-  <si>
-    <t>Draug.png</t>
-  </si>
-  <si>
-    <t>Some men connot admit defeat.  Some keept fighting from beyond the grave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Zerrikanian Fire Scorpion.png</t>
+  </si>
+  <si>
+    <t>Impera Brigade Guard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letho of Gulet.png</t>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menno Coehoorn.png</t>
+  </si>
+  <si>
+    <t>Morteisen.png</t>
+  </si>
+  <si>
+    <t>Morvran Voorhis.png</t>
   </si>
   <si>
     <t>Hero</t>
-  </si>
-  <si>
-    <t>Earth Elemental</t>
-  </si>
-  <si>
-    <t>Earth Elemental.png</t>
-  </si>
-  <si>
-    <t>How to fight an earth elemental? You don't.  You run.  Fast as you can.</t>
-  </si>
-  <si>
-    <t>Endrega</t>
-  </si>
-  <si>
-    <t>Fiend</t>
-  </si>
-  <si>
-    <t>Fire Elemental</t>
-  </si>
-  <si>
-    <t>Fire is so delightful.</t>
-  </si>
-  <si>
-    <t>Foglet</t>
-  </si>
-  <si>
-    <t>Fog creeps on little cat feet.  Foglets creep over the bodies of their victims.</t>
-  </si>
-  <si>
-    <t>Forktail</t>
-  </si>
-  <si>
-    <t>Fork tails...  Bah!  Fucker's tails're more like cleavers.</t>
-  </si>
-  <si>
-    <t>Frightener</t>
-  </si>
-  <si>
-    <t>Gargoyle</t>
-  </si>
-  <si>
-    <t>Ghoul</t>
-  </si>
-  <si>
-    <t>Ghoul 1.png</t>
-  </si>
-  <si>
-    <t>If ghouls are part of the Circle of Life...  Then it's a damn vicious circle.</t>
-  </si>
-  <si>
-    <t>Ghoul 2.png</t>
-  </si>
-  <si>
-    <t>Ghoul 3.png</t>
-  </si>
-  <si>
-    <t>Grave Hag</t>
-  </si>
-  <si>
-    <t>Their long tongues're for slurping marrow - and whipping prey.</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>Harpy</t>
-  </si>
-  <si>
-    <t>Ice Giant</t>
-  </si>
-  <si>
-    <t>Fled one time in my life.  From the Ice Giant.  And I'm not a bit ashamed.</t>
-  </si>
-  <si>
-    <t>Imlerith</t>
-  </si>
-  <si>
-    <t>Ladd nahw!  Kill them!  Litter the earth with their entrails!</t>
-  </si>
-  <si>
-    <t>Kayran</t>
-  </si>
-  <si>
-    <t>Kill a kayran?  Simple.  Take your best sword...  Then sell it and hire a witcher.</t>
-  </si>
-  <si>
-    <t>Leshen</t>
-  </si>
-  <si>
-    <t>We never hut in there woods.  Not even if it means the whole village straves</t>
-  </si>
-  <si>
-    <t>Nekker</t>
-  </si>
-  <si>
-    <t>Nekker 1.png</t>
-  </si>
-  <si>
-    <t>Nekker 2.png</t>
-  </si>
-  <si>
-    <t>Nekker 3.png</t>
-  </si>
-  <si>
-    <t>Plague Maiden</t>
-  </si>
-  <si>
-    <t>The sick rave about a boil-pocked woman surrounded by herds of rabid rats...</t>
-  </si>
-  <si>
-    <t>Vampire: Bruxa</t>
-  </si>
-  <si>
-    <t>Vampire Bruxa.png</t>
-  </si>
-  <si>
-    <t>A vile, bloodthirsty, man-eating hag.  Kind of like my mother-in-law.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damn things are almost cute, if you ignore the whole vicious killer aspect.</t>
-  </si>
-  <si>
-    <t>Damn things are almost cute, if you ignore the whole vicious killer aspect.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like a cross between a crab, a spider... and a ploughin' mountain.</t>
-  </si>
-  <si>
-    <t>We'll cut you up, boy.  A fine broth you will make.</t>
-  </si>
-  <si>
-    <t>The nest!  Take out the nest, or the bastards'll just keep coming!</t>
-  </si>
-  <si>
-    <t>A fiend looks a bit like a deer.  An enormous, evil deer.</t>
-  </si>
-  <si>
-    <t>What have I done?  The mage cried out, fritened of his own creation.</t>
-  </si>
-  <si>
-    <t>Ancient sculptors' nightmarish fantasies, brought to life by bored mages.</t>
-  </si>
-  <si>
-    <t>Griffins like to toy with their prey.  Eat'em alive, piece by piece.</t>
-  </si>
-  <si>
-    <t>There are many species of harpy, and all are kleptomaniacs.</t>
-  </si>
-  <si>
-    <t>Agile, MoraleBoost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nilfgaarian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puttkammer.png</t>
+  </si>
+  <si>
+    <t>Rainfarn.png</t>
+  </si>
+  <si>
+    <t>Renuald aep Matsen.png</t>
+  </si>
+  <si>
+    <t>Rotten Mangonel.png</t>
+  </si>
+  <si>
+    <t>Shilard Fitz-Oesterlen.png</t>
+  </si>
+  <si>
+    <t>Siege Engineer.png</t>
+  </si>
+  <si>
+    <t>Siege Technician.png</t>
+  </si>
+  <si>
+    <t>Stefan Skellen.png</t>
+  </si>
+  <si>
+    <t>Sweers.png</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tibor Eggebracht.png</t>
+  </si>
+  <si>
+    <t>Vanhemar.png</t>
+  </si>
+  <si>
+    <t>Vattier de Rideaux.png</t>
+  </si>
+  <si>
+    <t>Vreemde.png</t>
+  </si>
+  <si>
+    <t>Zerrikanian Fire Scorpion.png</t>
+  </si>
+  <si>
+    <t>Black Infantry Archer 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Infantry Archer 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Emissary 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Emissary 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impera Brigade Guard 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impera Brigade Guard 2.png</t>
+  </si>
+  <si>
+    <t>Impera Brigade Guard 3.png</t>
+  </si>
+  <si>
+    <t>Impera Brigade Guard 4.png</t>
+  </si>
+  <si>
+    <t>Etolian Auxiliary Archers 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etolian Auxiliary Archers 2.png</t>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider 1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider 2.png</t>
+  </si>
+  <si>
+    <t>Nausicaa Cavalry Rider 3.png</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ballista 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Blue Stripes Commando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Stripes Commando 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Stripes Commando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Stripes Commando 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Stripes Commando 3.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catapult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catapult 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catapult 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crinfrid Reavers Dragon Hunter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crinfrid Reavers Dragon Hunter 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crinfrid Reavers Dragon Hunter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crinfrid Reavers Dragon Hunter 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crinfrid Reavers Dragon Hunter 3.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dethmold</t>
+  </si>
+  <si>
+    <t>Dethmold.png</t>
+  </si>
+  <si>
+    <t>Dun Banner Medic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dun Banner Medic.png</t>
+  </si>
+  <si>
+    <t>Esterad Thyssen</t>
+  </si>
+  <si>
+    <t>Esterad Thyssen.png</t>
   </si>
   <si>
     <t>NullEType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire: Ekimmara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire Ekimmara.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Who would think overgrown bats would have a tatse for gaudy jewelry?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire: Fleder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire Fleder.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire: Garkain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire Garkain.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood-drinkers and corpse-eaters so foul their very ugliness paralyses foes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire: Katakan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire Katakan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drinking blood of the Continent since the Conjunction.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Werewolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolves aren't as bad as they say.  Werewolves, though - they're worse.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wyvern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imagin a cross between a winged snake and a nightmare.  Wyverns are worse.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangedCombat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Higher vampires embrace their victims.  Fleders rip them to shreds.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cirilla Finoa Elen Riannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cirilla Finoa Elen Riannon 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Know when fairy tales cease to be tales?  When people start believing in them.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dandelion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dandelion 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dandelion, you're a cynic, a lecher, a whoremonger, a liar - and my best friend.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitHorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emiel Regis Rohellec Terzieff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emiel Regis Rohellec Terzieff 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Men, the polite ones, at least, would call me a monster.  A blood-drinking freak.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaunter O'Dimm: Darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaunter O'Dimm Darkness 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fear not the shadows, but the light.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geralt of Rivia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geralt of Rivia 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If that's what it takes to save the world, it's better to let that world die.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mysterious Elf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mysterious Elf 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You humans have... Unusual tastes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triss Merigold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triss Merigold 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can take care of myself.  Trust me.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vesemir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vesemir 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you're to be hanged, ask for water.  Anything can happen before they fetch it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ordinary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villentretenmerth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villentretenmerth 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also calls himself Borkh Three Jackdaws... he's not the best at names.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitScorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yennefer of Vengerberg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yennefer of Vengerberg 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic is Chaos, Art and Science.  It is a curse, ablessing and a progression.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zoltan Chivay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zoltan Chivay 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Life without old mates and booze is like a woman without a rump.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ordinary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullULevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biting Frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biting Frost 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best part about frost - bodies of the fallen don't rot so quickly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullUType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitingFrost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitingFrost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear Weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear Weather 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The sun's shinin.  Dromle!  The sun's shinin'!  Maybe there's hope left after all.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearWeather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impenetrablr Fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impenetrablr Fog 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A good commander's dream... a bad one's horror.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torrential Rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Torrential Rain 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Even the rain in the land smells like piss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commander's Horn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commander's Horn 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plus one to morale, minus three to hearing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellHorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decoy 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you run out of peasants, decoys also make decent arrow fodder.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorch 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pillars of flame turn the mightiest to ash.  All others tremble in shock and awe.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellScorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endrega.png</t>
-  </si>
-  <si>
-    <t>Fiend.png</t>
-  </si>
-  <si>
-    <t>Fire Elemental.png</t>
-  </si>
-  <si>
-    <t>Foglet.png</t>
-  </si>
-  <si>
-    <t>Forktail.png</t>
-  </si>
-  <si>
-    <t>Frightener.png</t>
-  </si>
-  <si>
-    <t>Gargoyle.png</t>
-  </si>
-  <si>
-    <t>Grave Hag.png</t>
-  </si>
-  <si>
-    <t>Griffin.png</t>
-  </si>
-  <si>
-    <t>Harpy.png</t>
-  </si>
-  <si>
-    <t>Ice Giant.png</t>
-  </si>
-  <si>
-    <t>Imlerith.png</t>
-  </si>
-  <si>
-    <t>Kayran.png</t>
-  </si>
-  <si>
-    <t>Leshen.png</t>
-  </si>
-  <si>
-    <t>Plague Maiden.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Werewolf.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wyvern.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErrorCard.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You must read a wrong card!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Card!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullCTyoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullCSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullUType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullULevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullSType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullWType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullEType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Natalis</t>
+  </si>
+  <si>
+    <t>John Natalis.png</t>
+  </si>
+  <si>
+    <t>Kaedweni Siege Expert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaedweni Siege Expert 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoraleBooste</t>
+  </si>
+  <si>
+    <t>Kaedweni Siege Expert 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaedweni Siege Expert 3.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keira Metz</t>
+  </si>
+  <si>
+    <t>Keira Metz.png</t>
+  </si>
+  <si>
+    <t>Philippa Eilhart</t>
+  </si>
+  <si>
+    <t>Philippa Eilhart.png</t>
+  </si>
+  <si>
+    <t>Poor Fucking Infantry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Fucking Infantry 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Fucking Infantry 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Fucking Infantry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Fucking Infantry 3.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prince Stennis</t>
+  </si>
+  <si>
+    <t>Prince Stennis.png</t>
+  </si>
+  <si>
+    <t>Redanian Foot Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redanian Foot Soldier 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redanian Foot Soldier 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabrina Glevissig</t>
+  </si>
+  <si>
+    <t>Sabrina Glevissig.png</t>
+  </si>
+  <si>
+    <t>Sheldon Skaggs</t>
+  </si>
+  <si>
+    <t>Sheldon Skaggs.png</t>
+  </si>
+  <si>
+    <t>Siege Tower</t>
+  </si>
+  <si>
+    <t>Siege Tower 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siege Tower 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siegfried of Denesle</t>
+  </si>
+  <si>
+    <t>Siegfried of Denesle.png</t>
+  </si>
+  <si>
+    <t>Sigismund Dijkstra</t>
+  </si>
+  <si>
+    <t>Sigismund Dijkstra.png</t>
+  </si>
+  <si>
+    <t>Síle de Tansarville</t>
+  </si>
+  <si>
+    <t>Síle de Tansarville.png</t>
+  </si>
+  <si>
+    <t>Thaler</t>
+  </si>
+  <si>
+    <t>Thaler.png</t>
+  </si>
+  <si>
+    <t>Trebuchet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trebuchet 1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trebuchet 2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vernon Roche</t>
+  </si>
+  <si>
+    <t>Vernon Roche.png</t>
+  </si>
+  <si>
+    <t>Ves</t>
+  </si>
+  <si>
+    <t>Ves.png</t>
+  </si>
+  <si>
+    <t>Yarpen Zigrin</t>
+  </si>
+  <si>
+    <t>Yarpen Zigrin.png</t>
   </si>
 </sst>
 </file>
@@ -861,7 +1407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +1420,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -900,7 +1453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +1472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,37 +1789,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="5.75" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1277,28 +1831,28 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1306,37 +1860,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" t="s">
         <v>230</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>231</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>232</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>234</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -1347,40 +1901,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
       </c>
       <c r="N3" s="4" t="b">
         <v>0</v>
@@ -1391,40 +1945,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
       </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="4" t="b">
         <v>0</v>
@@ -1435,40 +1989,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
       </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
       </c>
       <c r="N5" s="4" t="b">
         <v>0</v>
@@ -1481,40 +2035,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="3">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N6" s="5" t="b">
         <v>0</v>
@@ -1525,40 +2079,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="4" t="b">
         <v>0</v>
@@ -1569,40 +2123,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
       </c>
       <c r="N8" s="4" t="b">
         <v>0</v>
@@ -1613,40 +2167,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4" t="b">
         <v>0</v>
@@ -1657,40 +2211,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>
       </c>
       <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
       </c>
       <c r="N10" s="4" t="b">
         <v>0</v>
@@ -1701,40 +2255,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>6</v>
       </c>
       <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
       </c>
       <c r="N11" s="4" t="b">
         <v>0</v>
@@ -1745,40 +2299,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
       </c>
       <c r="H12" s="2">
         <v>6</v>
       </c>
       <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
       </c>
       <c r="N12" s="4" t="b">
         <v>0</v>
@@ -1789,40 +2343,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N13" s="4" t="b">
         <v>0</v>
@@ -1833,40 +2387,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
       </c>
       <c r="H14" s="2">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>18</v>
       </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" s="4" t="b">
         <v>0</v>
@@ -1877,40 +2431,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
       </c>
       <c r="H15" s="2">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>18</v>
       </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="4" t="b">
         <v>0</v>
@@ -1921,40 +2475,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
       </c>
       <c r="H16" s="2">
         <v>6</v>
       </c>
       <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>18</v>
       </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16" s="4" t="b">
         <v>0</v>
@@ -1965,40 +2519,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>18</v>
       </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" s="4" t="b">
         <v>0</v>
@@ -2009,40 +2563,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
       </c>
       <c r="H18" s="2">
         <v>2</v>
       </c>
       <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>18</v>
       </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N18" s="4" t="b">
         <v>0</v>
@@ -2053,40 +2607,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
       </c>
       <c r="H19" s="2">
         <v>5</v>
       </c>
       <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N19" s="4" t="b">
         <v>0</v>
@@ -2097,40 +2651,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
         <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
       </c>
       <c r="H20" s="2">
         <v>5</v>
       </c>
       <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>18</v>
       </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N20" s="4" t="b">
         <v>0</v>
@@ -2141,40 +2695,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
         <v>17</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>18</v>
       </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N21" s="4" t="b">
         <v>0</v>
@@ -2185,40 +2739,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
       </c>
       <c r="N22" s="4" t="b">
         <v>0</v>
@@ -2229,40 +2783,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>19</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
       </c>
       <c r="N23" s="4" t="b">
         <v>0</v>
@@ -2273,40 +2827,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>18</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>19</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
       </c>
       <c r="N24" s="4" t="b">
         <v>0</v>
@@ -2317,40 +2871,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
       </c>
       <c r="H25" s="2">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" t="s">
-        <v>19</v>
-      </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N25" s="4" t="b">
         <v>0</v>
@@ -2361,40 +2915,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
         <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
       </c>
       <c r="H26" s="2">
         <v>5</v>
       </c>
       <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="s">
-        <v>19</v>
-      </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N26" s="4" t="b">
         <v>0</v>
@@ -2405,40 +2959,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
         <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
       </c>
       <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
         <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" t="s">
-        <v>34</v>
       </c>
       <c r="N27" s="4" t="b">
         <v>0</v>
@@ -2449,40 +3003,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
       </c>
       <c r="H28" s="2">
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>17</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>18</v>
       </c>
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N28" s="4" t="b">
         <v>0</v>
@@ -2493,40 +3047,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
         <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
       </c>
       <c r="H29" s="2">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
         <v>18</v>
       </c>
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" s="4" t="b">
         <v>0</v>
@@ -2537,40 +3091,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
         <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
       </c>
       <c r="H30" s="2">
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
         <v>18</v>
       </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -2581,40 +3135,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
         <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
       </c>
       <c r="H31" s="2">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
         <v>18</v>
       </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31" s="4" t="b">
         <v>0</v>
@@ -2625,40 +3179,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
         <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
       </c>
       <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>18</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>19</v>
-      </c>
-      <c r="M32" t="s">
-        <v>20</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -2669,40 +3223,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
         <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
       </c>
       <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
         <v>16</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>18</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>19</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -2713,40 +3267,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
         <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
       </c>
       <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
         <v>16</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>17</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>18</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>19</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -2757,40 +3311,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
         <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
       </c>
       <c r="H35" s="2">
         <v>5</v>
       </c>
       <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
         <v>16</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>18</v>
       </c>
-      <c r="L35" t="s">
-        <v>19</v>
-      </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35" s="4" t="b">
         <v>0</v>
@@ -2801,40 +3355,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
         <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
       </c>
       <c r="H36" s="2">
         <v>4</v>
       </c>
       <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>18</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>19</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -2845,40 +3399,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
         <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
       </c>
       <c r="H37" s="2">
         <v>4</v>
       </c>
       <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>18</v>
       </c>
-      <c r="L37" t="s">
-        <v>19</v>
-      </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -2889,40 +3443,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
         <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
       </c>
       <c r="H38" s="2">
         <v>4</v>
       </c>
       <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
         <v>16</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>18</v>
       </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
       <c r="M38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -2933,40 +3487,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>112</v>
       </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
         <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
       </c>
       <c r="H39" s="2">
         <v>4</v>
       </c>
       <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
         <v>16</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>17</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>18</v>
       </c>
-      <c r="L39" t="s">
-        <v>19</v>
-      </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -2977,40 +3531,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
         <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
       </c>
       <c r="H40" s="2">
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" t="s">
         <v>17</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>18</v>
       </c>
-      <c r="L40" t="s">
-        <v>19</v>
-      </c>
       <c r="M40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -3021,40 +3575,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
         <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
       </c>
       <c r="H41" s="2">
         <v>5</v>
       </c>
       <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
         <v>16</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>17</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>18</v>
       </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" s="4" t="b">
         <v>0</v>
@@ -3065,40 +3619,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" t="s">
-        <v>122</v>
-      </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
         <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
         <v>17</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>18</v>
       </c>
-      <c r="L42" t="s">
-        <v>19</v>
-      </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N42" s="4" t="b">
         <v>0</v>
@@ -3109,40 +3663,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>128</v>
       </c>
       <c r="H43" s="2">
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
         <v>18</v>
       </c>
-      <c r="L43" t="s">
-        <v>19</v>
-      </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N43" s="4" t="b">
         <v>0</v>
@@ -3153,40 +3707,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
       </c>
       <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
         <v>16</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>17</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>18</v>
       </c>
-      <c r="L44" t="s">
-        <v>19</v>
-      </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -3197,40 +3751,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H45" s="2">
         <v>5</v>
       </c>
       <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>17</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>18</v>
       </c>
-      <c r="L45" t="s">
-        <v>19</v>
-      </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N45" s="4" t="b">
         <v>0</v>
@@ -3241,40 +3795,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
         <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>18</v>
       </c>
-      <c r="L46" t="s">
-        <v>19</v>
-      </c>
       <c r="M46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -3285,40 +3839,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
         <v>142</v>
       </c>
-      <c r="C47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H47" s="2">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" t="s">
         <v>18</v>
       </c>
-      <c r="L47" t="s">
-        <v>19</v>
-      </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N47" s="4" t="b">
         <v>0</v>
@@ -3329,40 +3883,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
         <v>146</v>
       </c>
-      <c r="C48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" t="s">
-        <v>148</v>
-      </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
         <v>18</v>
       </c>
-      <c r="L48" t="s">
-        <v>19</v>
-      </c>
       <c r="M48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -3373,40 +3927,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
         <v>151</v>
       </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H49" s="2">
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
         <v>18</v>
       </c>
-      <c r="L49" t="s">
-        <v>19</v>
-      </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N49" s="4" t="b">
         <v>0</v>
@@ -3417,40 +3971,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
         <v>154</v>
       </c>
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" t="s">
-        <v>156</v>
-      </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
         <v>18</v>
       </c>
-      <c r="L50" t="s">
-        <v>19</v>
-      </c>
       <c r="M50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N50" s="4" t="b">
         <v>0</v>
@@ -3461,40 +4015,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
         <v>158</v>
       </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>160</v>
-      </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" s="2">
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
         <v>18</v>
       </c>
-      <c r="L51" t="s">
-        <v>19</v>
-      </c>
       <c r="M51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -3505,40 +4059,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
         <v>162</v>
       </c>
-      <c r="C52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H52" s="2">
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
         <v>18</v>
       </c>
-      <c r="L52" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -3549,40 +4103,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
         <v>166</v>
       </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" t="s">
-        <v>168</v>
-      </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H53" s="2">
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
         <v>18</v>
       </c>
-      <c r="L53" t="s">
-        <v>19</v>
-      </c>
       <c r="M53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N53" s="4" t="b">
         <v>0</v>
@@ -3593,40 +4147,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
         <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" t="s">
-        <v>174</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" t="s">
+        <v>168</v>
+      </c>
+      <c r="K54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" t="s">
         <v>175</v>
       </c>
-      <c r="J54" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="M54" t="s">
         <v>176</v>
-      </c>
-      <c r="L54" t="s">
-        <v>177</v>
-      </c>
-      <c r="M54" t="s">
-        <v>178</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -3637,40 +4191,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" t="s">
-        <v>181</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -3681,40 +4235,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" t="s">
-        <v>185</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -3725,40 +4279,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
         <v>188</v>
-      </c>
-      <c r="C57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" t="s">
-        <v>190</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -3769,40 +4323,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
         <v>193</v>
-      </c>
-      <c r="C58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -3813,40 +4367,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" t="s">
         <v>198</v>
-      </c>
-      <c r="C59" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" t="s">
-        <v>200</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -3857,40 +4411,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
         <v>203</v>
-      </c>
-      <c r="C60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" t="s">
-        <v>205</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -3900,424 +4454,2625 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="B61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H61" s="6">
+        <v>2</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="B62" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H62" s="6">
+        <v>6</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="B63" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H63" s="6">
+        <v>10</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" s="6">
+        <v>10</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="6">
+        <v>6</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="6">
+        <v>4</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="6">
+        <v>6</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" s="6">
+        <v>10</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="6">
+        <v>3</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="6">
+        <v>3</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" s="6">
+        <v>3</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H74" s="6">
+        <v>3</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="6">
+        <v>10</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="6">
+        <v>10</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" s="6">
+        <v>3</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" s="6">
+        <v>10</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="6">
+        <v>2</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" s="6">
+        <v>2</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H81" s="6">
+        <v>2</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="6">
+        <v>4</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="6">
+        <v>5</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="6">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H86" s="6">
+        <v>7</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" s="6">
+        <v>6</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H89" s="6">
+        <v>9</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H90" s="6">
+        <v>2</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H91" s="6">
+        <v>10</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H92" s="6">
+        <v>4</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H93" s="6">
+        <v>4</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H94" s="6">
+        <v>2</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H95" s="6">
+        <v>5</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H96" s="6">
+        <v>5</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H97" s="6">
+        <v>5</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H98" s="6">
+        <v>6</v>
+      </c>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H99" s="6">
+        <v>6</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H100" s="6">
+        <v>4</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H101" s="6">
+        <v>4</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H102" s="6">
+        <v>4</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H103" s="6">
+        <v>8</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" s="6">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H105" s="6">
+        <v>5</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H106" s="6">
+        <v>5</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" s="6">
+        <v>5</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H108" s="6">
+        <v>6</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H109" s="6">
+        <v>5</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H110" s="6">
+        <v>10</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" s="6">
+        <v>10</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H115" s="6">
+        <v>5</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H116" s="6">
+        <v>10</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H120" s="6">
+        <v>5</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H123" s="6">
+        <v>4</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6">
+        <v>1</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H124" s="6">
+        <v>4</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H125" s="6">
+        <v>6</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H126" s="6">
+        <v>6</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H127" s="6">
+        <v>5</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H128" s="6">
+        <v>4</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H129" s="6">
+        <v>5</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H130" s="6">
+        <v>1</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H131" s="6">
+        <v>6</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6">
+        <v>1</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H132" s="6">
+        <v>6</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H133" s="6">
+        <v>10</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6">
+        <v>1</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H134" s="6">
+        <v>5</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H135" s="6">
+        <v>2</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>142</v>
       </c>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$185</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="463">
   <si>
     <t>Name</t>
   </si>
@@ -325,10 +328,6 @@
     <t>There are many species of harpy, and all are kleptomaniacs.</t>
   </si>
   <si>
-    <t>Agile, MoraleBoost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vampire: Fleder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vampire: Garkain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Werewolf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitHorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Emiel Regis Rohellec Terzieff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Muster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Geralt of Rivia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Triss Merigold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitScorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yennefer of Vengerberg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BitingFrost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Clear Weather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Torrential Rain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,10 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Commander's Horn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpellHorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decoy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Decoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scorch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,10 +697,6 @@
   </si>
   <si>
     <t>Scorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellScorch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,22 +935,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Albrich.png</t>
-  </si>
-  <si>
-    <t>Assire var Anahid.png</t>
-  </si>
-  <si>
     <t>Ordinary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cahir Mawr Dyffryn aep Ceallach.png</t>
-  </si>
-  <si>
-    <t>Cynthia.png</t>
-  </si>
-  <si>
     <t>Etolian Auxiliary Archers</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1012,16 +947,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fringilla Vigo.png</t>
-  </si>
-  <si>
     <t>NullEType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Heavy Zerrikanian Fire Scorpion.png</t>
-  </si>
-  <si>
     <t>Impera Brigade Guard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1030,22 +959,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Letho of Gulet.png</t>
-  </si>
-  <si>
     <t>Unit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Menno Coehoorn.png</t>
-  </si>
-  <si>
-    <t>Morteisen.png</t>
-  </si>
-  <si>
-    <t>Morvran Voorhis.png</t>
-  </si>
-  <si>
     <t>Hero</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1066,106 +983,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Puttkammer.png</t>
-  </si>
-  <si>
-    <t>Rainfarn.png</t>
-  </si>
-  <si>
-    <t>Renuald aep Matsen.png</t>
-  </si>
-  <si>
-    <t>Rotten Mangonel.png</t>
-  </si>
-  <si>
-    <t>Shilard Fitz-Oesterlen.png</t>
-  </si>
-  <si>
-    <t>Siege Engineer.png</t>
-  </si>
-  <si>
-    <t>Siege Technician.png</t>
-  </si>
-  <si>
-    <t>Stefan Skellen.png</t>
-  </si>
-  <si>
-    <t>Sweers.png</t>
-  </si>
-  <si>
     <t>Ordinary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tibor Eggebracht.png</t>
-  </si>
-  <si>
-    <t>Vanhemar.png</t>
-  </si>
-  <si>
-    <t>Vattier de Rideaux.png</t>
-  </si>
-  <si>
-    <t>Vreemde.png</t>
-  </si>
-  <si>
-    <t>Zerrikanian Fire Scorpion.png</t>
-  </si>
-  <si>
-    <t>Black Infantry Archer 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Infantry Archer 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Young Emissary 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Young Emissary 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impera Brigade Guard 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impera Brigade Guard 2.png</t>
-  </si>
-  <si>
-    <t>Impera Brigade Guard 3.png</t>
-  </si>
-  <si>
-    <t>Impera Brigade Guard 4.png</t>
-  </si>
-  <si>
-    <t>Etolian Auxiliary Archers 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etolian Auxiliary Archers 2.png</t>
-  </si>
-  <si>
-    <t>Nausicaa Cavalry Rider 1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nausicaa Cavalry Rider 2.png</t>
-  </si>
-  <si>
-    <t>Nausicaa Cavalry Rider 3.png</t>
-  </si>
-  <si>
     <t>Ballista</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ballista 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Northern</t>
   </si>
   <si>
@@ -1173,22 +998,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Blue Stripes Commando 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Blue Stripes Commando</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Blue Stripes Commando 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue Stripes Commando 3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ordinary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1197,51 +1010,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Catapult 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catapult 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Crinfrid Reavers Dragon Hunter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Crinfrid Reavers Dragon Hunter 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Crinfrid Reavers Dragon Hunter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Crinfrid Reavers Dragon Hunter 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crinfrid Reavers Dragon Hunter 3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dethmold</t>
-  </si>
-  <si>
-    <t>Dethmold.png</t>
   </si>
   <si>
     <t>Dun Banner Medic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dun Banner Medic.png</t>
-  </si>
-  <si>
     <t>Esterad Thyssen</t>
-  </si>
-  <si>
-    <t>Esterad Thyssen.png</t>
   </si>
   <si>
     <t>NullEType</t>
@@ -1251,153 +1035,572 @@
     <t>John Natalis</t>
   </si>
   <si>
-    <t>John Natalis.png</t>
-  </si>
-  <si>
     <t>Kaedweni Siege Expert</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kaedweni Siege Expert 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MoraleBooste</t>
   </si>
   <si>
-    <t>Kaedweni Siege Expert 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaedweni Siege Expert 3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Keira Metz</t>
   </si>
   <si>
-    <t>Keira Metz.png</t>
-  </si>
-  <si>
     <t>Philippa Eilhart</t>
-  </si>
-  <si>
-    <t>Philippa Eilhart.png</t>
   </si>
   <si>
     <t>Poor Fucking Infantry</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Fucking Infantry 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poor Fucking Infantry 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Poor Fucking Infantry</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Fucking Infantry 3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Prince Stennis</t>
-  </si>
-  <si>
-    <t>Prince Stennis.png</t>
   </si>
   <si>
     <t>Redanian Foot Soldier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Redanian Foot Soldier 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redanian Foot Soldier 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sabrina Glevissig</t>
   </si>
   <si>
-    <t>Sabrina Glevissig.png</t>
-  </si>
-  <si>
     <t>Sheldon Skaggs</t>
   </si>
   <si>
-    <t>Sheldon Skaggs.png</t>
-  </si>
-  <si>
     <t>Siege Tower</t>
   </si>
   <si>
-    <t>Siege Tower 1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siege Tower 2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Siegfried of Denesle</t>
   </si>
   <si>
-    <t>Siegfried of Denesle.png</t>
-  </si>
-  <si>
     <t>Sigismund Dijkstra</t>
   </si>
   <si>
-    <t>Sigismund Dijkstra.png</t>
-  </si>
-  <si>
     <t>Síle de Tansarville</t>
   </si>
   <si>
-    <t>Síle de Tansarville.png</t>
-  </si>
-  <si>
     <t>Thaler</t>
-  </si>
-  <si>
-    <t>Thaler.png</t>
   </si>
   <si>
     <t>Trebuchet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Trebuchet 1.png</t>
+    <t>Vernon Roche</t>
+  </si>
+  <si>
+    <t>Ves</t>
+  </si>
+  <si>
+    <t>Yarpen Zigrin</t>
+  </si>
+  <si>
+    <t>NullSType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullSType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile, MoraleBooste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mustere</t>
+  </si>
+  <si>
+    <t>Mustere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mustere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitHorne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitScorche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitingFroste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearWeathere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellHorne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellScorche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseRangedCombat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barclay Els</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Trebuchet 2.png</t>
+    <t xml:space="preserve">Barclay Els.png </t>
+  </si>
+  <si>
+    <t>Scoiateal</t>
+  </si>
+  <si>
+    <t>Ciaran aep Easnillien</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vernon Roche</t>
-  </si>
-  <si>
-    <t>Vernon Roche.png</t>
-  </si>
-  <si>
-    <t>Ves</t>
-  </si>
-  <si>
-    <t>Ves.png</t>
-  </si>
-  <si>
-    <t>Yarpen Zigrin</t>
-  </si>
-  <si>
-    <t>Yarpen Zigrin.png</t>
+    <t xml:space="preserve">Ciaran aep Easnillien.png </t>
+  </si>
+  <si>
+    <t>Dennis Cranmer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Cranmer.png </t>
+  </si>
+  <si>
+    <t>Dol Blathanna Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dol Blathanna Archer.png </t>
+  </si>
+  <si>
+    <t>Dol Blathanna Scout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dol Blathanna Scout 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dol Blathanna Scout 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dol Blathanna Scout 3.png </t>
+  </si>
+  <si>
+    <t>Dwarven Skirmisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarven Skirmisher 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarven Skirmisher 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarven Skirmisher 3.png </t>
+  </si>
+  <si>
+    <t>Eithné</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Eithné.png </t>
+  </si>
+  <si>
+    <t>Elven Skirmisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Elven Skirmisher 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elven Skirmisher 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elven Skirmisher 3.png </t>
+  </si>
+  <si>
+    <t>Filavandrel aen Fidhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filavandrel aen Fidhail.png </t>
+  </si>
+  <si>
+    <t>Havekar Healer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Healer 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Healer 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Healer 3.png </t>
+  </si>
+  <si>
+    <t>Havekar Smuggler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Smuggler 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Smuggler 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havekar Smuggler 3.png </t>
+  </si>
+  <si>
+    <t>Ida Emean aep Sivney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ida Emean aep Sivney.png </t>
+  </si>
+  <si>
+    <t>Iorveth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Iorveth.png </t>
+  </si>
+  <si>
+    <t>Isengrim Faoiltiarna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Isengrim Faolitarna.png </t>
+  </si>
+  <si>
+    <t>Mahakaman Defender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakaman Defender 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakaman Defender 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakaman Defender 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakaman Defender 4.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakaman Defender 5.png </t>
+  </si>
+  <si>
+    <t>Milva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milva.png </t>
+  </si>
+  <si>
+    <t>Riordain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riordain.png </t>
+  </si>
+  <si>
+    <t>Schirru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schirru.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitScorche</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saesenthessis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saesenthessis.png </t>
+  </si>
+  <si>
+    <t>Toruviel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toruviel.png </t>
+  </si>
+  <si>
+    <t>Vrihedd Brigade Recruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrihedd Brigade Recruit.png </t>
+  </si>
+  <si>
+    <t>Vrihedd Brigade Veteran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrihedd Brigade Veteran 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrihedd Brigade Veteran 2.png </t>
+  </si>
+  <si>
+    <t>Yaevinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaevinn.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albrich.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assire var Anahid.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Infantry Archer 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Infantry Archer 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cahir Mawr Dyffryn aep Ceallach.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etolian Auxiliary Archers 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etolian Auxiliary Archers 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fringilla Vigo.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Zerrikanian Fire Scorpion.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impera Brigade Guard 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impera Brigade Guard 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impera Brigade Guard 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impera Brigade Guard 4.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letho of Gulet.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menno Coehoorn.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morteisen.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morvran Voorhis.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausicaa Cavalry Rider 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausicaa Cavalry Rider 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausicaa Cavalry Rider 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puttkammer.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainfarn.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renuald aep Matsen.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotten Mangonel.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shilard Fitz-Oesterlen.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siege Engineer.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siege Technician.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Skellen.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweers.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibor Eggebracht.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanhemar.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vattier de Rideaux.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vreemde.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Emissary 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Emissary 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zerrikanian Fire Scorpion.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballista 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballista 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Stripes Commando 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Stripes Commando 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Stripes Commando 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catapult 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catapult 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crinfrid Reavers Dragon Hunter 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crinfrid Reavers Dragon Hunter 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crinfrid Reavers Dragon Hunter 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dethmold.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dun Banner Medic.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esterad Thyssen.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Natalis.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaedweni Siege Expert 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaedweni Siege Expert 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaedweni Siege Expert 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keira Metz.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippa Eilhart.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Fucking Infantry 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Fucking Infantry 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Fucking Infantry 3.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Stennis.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redanian Foot Soldier 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redanian Foot Soldier 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina Glevissig.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelden Skaggs.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siege Tower 1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siege Tower 2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siegfried of Denesle.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigismund Dijkstra.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sile de Tansarville.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaler.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trebuchet  1.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trebuchet  2.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernon Roche.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ves.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarpen Zigrin.png </t>
+  </si>
+  <si>
+    <t>Defualt Meseage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1453,7 +1656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,6 +1676,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1787,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q185"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:M135"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1798,13 +2002,13 @@
     <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.25" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="17.375" customWidth="1"/>
@@ -1813,13 +2017,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1831,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -1852,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1860,37 +2064,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -1909,7 +2113,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -1953,7 +2157,7 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -1997,7 +2201,7 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -2043,7 +2247,7 @@
       <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2087,7 +2291,7 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" t="s">
@@ -2131,7 +2335,7 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -2175,7 +2379,7 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -2219,7 +2423,7 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" t="s">
@@ -2263,7 +2467,7 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" t="s">
@@ -2307,7 +2511,7 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" t="s">
@@ -2351,7 +2555,7 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" t="s">
@@ -2395,7 +2599,7 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" t="s">
@@ -2434,12 +2638,12 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" t="s">
@@ -2478,12 +2682,12 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" t="s">
@@ -2522,12 +2726,12 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" t="s">
@@ -2566,12 +2770,12 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" t="s">
@@ -2610,12 +2814,12 @@
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -2654,12 +2858,12 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" t="s">
@@ -2698,12 +2902,12 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -2747,7 +2951,7 @@
       <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -2791,7 +2995,7 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -2835,7 +3039,7 @@
       <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -2874,12 +3078,12 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -2918,12 +3122,12 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -2962,12 +3166,12 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -3006,12 +3210,12 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" t="s">
@@ -3050,12 +3254,12 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" t="s">
@@ -3094,12 +3298,12 @@
         <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" t="s">
@@ -3112,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
@@ -3124,7 +3328,7 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -3138,12 +3342,12 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" t="s">
@@ -3187,7 +3391,7 @@
       <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" t="s">
@@ -3212,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -3231,7 +3435,7 @@
       <c r="D33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -3256,7 +3460,7 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -3275,7 +3479,7 @@
       <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" t="s">
@@ -3300,7 +3504,7 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -3314,12 +3518,12 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" t="s">
@@ -3338,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
@@ -3363,7 +3567,7 @@
       <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3388,7 +3592,7 @@
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -3399,15 +3603,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>104</v>
       </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3432,7 +3636,7 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -3443,15 +3647,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="2">
+        <v>118</v>
+      </c>
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3476,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -3487,15 +3691,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="2">
+        <v>109</v>
+      </c>
+      <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3520,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -3531,15 +3735,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
         <v>113</v>
       </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3555,7 +3759,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -3564,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -3575,15 +3779,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="2">
+        <v>115</v>
+      </c>
+      <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -3608,7 +3812,7 @@
         <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41" s="4" t="b">
         <v>0</v>
@@ -3619,15 +3823,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="2">
+        <v>117</v>
+      </c>
+      <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3652,7 +3856,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N42" s="4" t="b">
         <v>0</v>
@@ -3663,22 +3867,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="2">
+        <v>121</v>
+      </c>
+      <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H43" s="2">
         <v>15</v>
@@ -3687,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -3696,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N43" s="4" t="b">
         <v>0</v>
@@ -3707,22 +3911,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="2">
+        <v>126</v>
+      </c>
+      <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -3740,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -3751,22 +3955,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="2">
+        <v>130</v>
+      </c>
+      <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H45" s="2">
         <v>5</v>
@@ -3781,10 +3985,10 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N45" s="4" t="b">
         <v>0</v>
@@ -3795,22 +3999,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="2">
+        <v>133</v>
+      </c>
+      <c r="E46" s="4">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
@@ -3828,7 +4032,7 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -3839,22 +4043,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="2">
+        <v>136</v>
+      </c>
+      <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H47" s="2">
         <v>15</v>
@@ -3863,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -3872,7 +4076,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N47" s="4" t="b">
         <v>0</v>
@@ -3883,22 +4087,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="2">
+        <v>140</v>
+      </c>
+      <c r="E48" s="4">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3907,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -3916,7 +4120,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -3927,22 +4131,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="2">
+        <v>144</v>
+      </c>
+      <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H49" s="2">
         <v>7</v>
@@ -3951,7 +4155,7 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -3960,7 +4164,7 @@
         <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N49" s="4" t="b">
         <v>0</v>
@@ -3971,22 +4175,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="2">
+        <v>147</v>
+      </c>
+      <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
@@ -3995,7 +4199,7 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -4004,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N50" s="4" t="b">
         <v>0</v>
@@ -4015,22 +4219,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="2">
+        <v>151</v>
+      </c>
+      <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H51" s="2">
         <v>7</v>
@@ -4039,7 +4243,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -4048,7 +4252,7 @@
         <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -4059,22 +4263,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="2">
+        <v>154</v>
+      </c>
+      <c r="E52" s="4">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H52" s="2">
         <v>7</v>
@@ -4083,7 +4287,7 @@
         <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -4092,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -4103,22 +4307,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="2">
+        <v>158</v>
+      </c>
+      <c r="E53" s="4">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H53" s="2">
         <v>5</v>
@@ -4127,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -4136,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N53" s="4" t="b">
         <v>0</v>
@@ -4147,40 +4351,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="2">
+        <v>164</v>
+      </c>
+      <c r="E54" s="4">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M54" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -4191,40 +4395,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="2">
+        <v>170</v>
+      </c>
+      <c r="E55" s="4">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -4235,40 +4439,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="2">
+        <v>174</v>
+      </c>
+      <c r="E56" s="4">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J56" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M56" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -4279,40 +4483,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="2">
+        <v>178</v>
+      </c>
+      <c r="E57" s="4">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K57" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M57" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -4323,40 +4527,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="2">
+        <v>182</v>
+      </c>
+      <c r="E58" s="4">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K58" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -4367,40 +4571,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
-      </c>
-      <c r="E59" s="2">
+        <v>186</v>
+      </c>
+      <c r="E59" s="4">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K59" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -4411,40 +4615,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="2">
+        <v>190</v>
+      </c>
+      <c r="E60" s="4">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -4455,19 +4659,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E61" s="6">
+        <v>387</v>
+      </c>
+      <c r="D61" t="s">
+        <v>462</v>
+      </c>
+      <c r="E61" s="7">
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H61" s="6">
         <v>2</v>
@@ -4476,12 +4683,19 @@
         <v>37</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M61" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="N61" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4489,19 +4703,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E62" s="6">
+        <v>388</v>
+      </c>
+      <c r="D62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E62" s="7">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -4510,12 +4727,19 @@
         <v>37</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M62" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="N62" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4523,19 +4747,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E63" s="6">
+        <v>389</v>
+      </c>
+      <c r="D63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E63" s="7">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H63" s="6">
         <v>10</v>
@@ -4544,12 +4771,19 @@
         <v>37</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M63" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="N63" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4557,19 +4791,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E64" s="6">
+        <v>390</v>
+      </c>
+      <c r="D64" t="s">
+        <v>462</v>
+      </c>
+      <c r="E64" s="7">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H64" s="6">
         <v>10</v>
@@ -4578,32 +4815,42 @@
         <v>37</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M64" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" s="6">
+        <v>391</v>
+      </c>
+      <c r="D65" t="s">
+        <v>462</v>
+      </c>
+      <c r="E65" s="7">
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H65" s="6">
         <v>6</v>
@@ -4612,32 +4859,42 @@
         <v>15</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M65" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="6">
+        <v>392</v>
+      </c>
+      <c r="D66" t="s">
+        <v>462</v>
+      </c>
+      <c r="E66" s="7">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H66" s="6">
         <v>4</v>
@@ -4646,32 +4903,42 @@
         <v>37</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M66" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67" s="6">
+        <v>393</v>
+      </c>
+      <c r="D67" t="s">
+        <v>462</v>
+      </c>
+      <c r="E67" s="7">
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -4680,32 +4947,42 @@
         <v>37</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M67" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E68" s="6">
+        <v>394</v>
+      </c>
+      <c r="D68" t="s">
+        <v>462</v>
+      </c>
+      <c r="E68" s="7">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H68" s="6">
         <v>1</v>
@@ -4714,32 +4991,42 @@
         <v>37</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M68" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" s="6">
+        <v>395</v>
+      </c>
+      <c r="D69" t="s">
+        <v>462</v>
+      </c>
+      <c r="E69" s="7">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H69" s="6">
         <v>6</v>
@@ -4748,66 +5035,86 @@
         <v>37</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M69" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="N69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="6">
+        <v>396</v>
+      </c>
+      <c r="D70" t="s">
+        <v>462</v>
+      </c>
+      <c r="E70" s="7">
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H70" s="6">
         <v>10</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M70" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E71" s="6">
+        <v>397</v>
+      </c>
+      <c r="D71" t="s">
+        <v>462</v>
+      </c>
+      <c r="E71" s="7">
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H71" s="6">
         <v>3</v>
@@ -4816,32 +5123,42 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M71" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E72" s="6">
+        <v>398</v>
+      </c>
+      <c r="D72" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="7">
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H72" s="6">
         <v>3</v>
@@ -4850,32 +5167,42 @@
         <v>15</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M72" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73" s="6">
+        <v>399</v>
+      </c>
+      <c r="D73" t="s">
+        <v>462</v>
+      </c>
+      <c r="E73" s="7">
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H73" s="6">
         <v>3</v>
@@ -4884,32 +5211,42 @@
         <v>15</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M73" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="6">
+        <v>400</v>
+      </c>
+      <c r="D74" t="s">
+        <v>462</v>
+      </c>
+      <c r="E74" s="7">
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H74" s="6">
         <v>3</v>
@@ -4918,32 +5255,42 @@
         <v>15</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M74" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E75" s="6">
+        <v>401</v>
+      </c>
+      <c r="D75" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -4952,32 +5299,42 @@
         <v>15</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M75" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="N75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E76" s="6">
+        <v>402</v>
+      </c>
+      <c r="D76" t="s">
+        <v>462</v>
+      </c>
+      <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H76" s="6">
         <v>10</v>
@@ -4986,32 +5343,42 @@
         <v>15</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M76" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E77" s="6">
+        <v>403</v>
+      </c>
+      <c r="D77" t="s">
+        <v>462</v>
+      </c>
+      <c r="E77" s="7">
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H77" s="6">
         <v>3</v>
@@ -5020,66 +5387,86 @@
         <v>15</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M77" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E78" s="6">
+        <v>404</v>
+      </c>
+      <c r="D78" t="s">
+        <v>462</v>
+      </c>
+      <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M78" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="N78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E79" s="6">
+        <v>405</v>
+      </c>
+      <c r="D79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="7">
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H79" s="6">
         <v>2</v>
@@ -5088,32 +5475,42 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+        <v>269</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M79" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N79" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E80" s="6">
+        <v>406</v>
+      </c>
+      <c r="D80" t="s">
+        <v>462</v>
+      </c>
+      <c r="E80" s="7">
         <v>1</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H80" s="6">
         <v>2</v>
@@ -5122,32 +5519,42 @@
         <v>15</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M80" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" s="6">
+        <v>407</v>
+      </c>
+      <c r="D81" t="s">
+        <v>462</v>
+      </c>
+      <c r="E81" s="7">
         <v>1</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="H81" s="6">
         <v>2</v>
@@ -5156,32 +5563,42 @@
         <v>15</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M81" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N81" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E82" s="6">
+        <v>408</v>
+      </c>
+      <c r="D82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E82" s="7">
         <v>1</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H82" s="6">
         <v>3</v>
@@ -5190,32 +5607,42 @@
         <v>37</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M82" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" s="6">
+        <v>409</v>
+      </c>
+      <c r="D83" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="7">
         <v>1</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H83" s="6">
         <v>4</v>
@@ -5224,32 +5651,42 @@
         <v>15</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M83" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" s="6">
+        <v>410</v>
+      </c>
+      <c r="D84" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" s="7">
         <v>1</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H84" s="6">
         <v>5</v>
@@ -5258,66 +5695,86 @@
         <v>37</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M84" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E85" s="6">
+        <v>411</v>
+      </c>
+      <c r="D85" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="7">
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H85" s="6">
         <v>3</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M85" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="6">
+        <v>412</v>
+      </c>
+      <c r="D86" t="s">
+        <v>462</v>
+      </c>
+      <c r="E86" s="7">
         <v>1</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H86" s="6">
         <v>7</v>
@@ -5326,100 +5783,130 @@
         <v>15</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M86" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N86" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E87" s="6">
+        <v>413</v>
+      </c>
+      <c r="D87" t="s">
+        <v>462</v>
+      </c>
+      <c r="E87" s="7">
         <v>1</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H87" s="6">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M87" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E88" s="6">
+        <v>414</v>
+      </c>
+      <c r="D88" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="7">
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H88" s="6">
         <v>0</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M88" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N88" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E89" s="6">
+        <v>415</v>
+      </c>
+      <c r="D89" t="s">
+        <v>462</v>
+      </c>
+      <c r="E89" s="7">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H89" s="6">
         <v>9</v>
@@ -5428,32 +5915,42 @@
         <v>15</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M89" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N89" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E90" s="6">
+        <v>416</v>
+      </c>
+      <c r="D90" t="s">
+        <v>462</v>
+      </c>
+      <c r="E90" s="7">
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H90" s="6">
         <v>2</v>
@@ -5462,32 +5959,42 @@
         <v>37</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M90" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E91" s="6">
+        <v>417</v>
+      </c>
+      <c r="D91" t="s">
+        <v>462</v>
+      </c>
+      <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H91" s="6">
         <v>10</v>
@@ -5496,32 +6003,42 @@
         <v>37</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M91" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N91" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E92" s="6">
+        <v>418</v>
+      </c>
+      <c r="D92" t="s">
+        <v>462</v>
+      </c>
+      <c r="E92" s="7">
         <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H92" s="6">
         <v>4</v>
@@ -5530,32 +6047,42 @@
         <v>37</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M92" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E93" s="6">
+        <v>419</v>
+      </c>
+      <c r="D93" t="s">
+        <v>462</v>
+      </c>
+      <c r="E93" s="7">
         <v>1</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H93" s="6">
         <v>4</v>
@@ -5564,32 +6091,42 @@
         <v>15</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M93" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N93" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E94" s="6">
+        <v>420</v>
+      </c>
+      <c r="D94" t="s">
+        <v>462</v>
+      </c>
+      <c r="E94" s="7">
         <v>1</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H94" s="6">
         <v>2</v>
@@ -5598,199 +6135,256 @@
         <v>15</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M94" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E95" s="6">
+        <v>421</v>
+      </c>
+      <c r="D95" t="s">
+        <v>462</v>
+      </c>
+      <c r="E95" s="7">
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H95" s="6">
         <v>5</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M95" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N95" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E96" s="6">
+        <v>422</v>
+      </c>
+      <c r="D96" t="s">
+        <v>462</v>
+      </c>
+      <c r="E96" s="7">
         <v>1</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M96" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N96" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="6">
+        <v>423</v>
+      </c>
+      <c r="D97" t="s">
+        <v>462</v>
+      </c>
+      <c r="E97" s="7">
         <v>1</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M97" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6">
+        <v>424</v>
+      </c>
+      <c r="D98" t="s">
+        <v>462</v>
+      </c>
+      <c r="E98" s="7">
         <v>1</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H98" s="6">
         <v>6</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="K98" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M98" s="6"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6">
+        <v>425</v>
+      </c>
+      <c r="D99" t="s">
+        <v>462</v>
+      </c>
+      <c r="E99" s="7">
         <v>1</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H99" s="6">
         <v>6</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M99" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6">
+        <v>426</v>
+      </c>
+      <c r="D100" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100" s="7">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H100" s="6">
         <v>4</v>
@@ -5799,33 +6393,42 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M100" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N100" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6">
+        <v>427</v>
+      </c>
+      <c r="D101" t="s">
+        <v>462</v>
+      </c>
+      <c r="E101" s="7">
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H101" s="6">
         <v>4</v>
@@ -5834,33 +6437,42 @@
         <v>15</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M101" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N101" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6">
+        <v>428</v>
+      </c>
+      <c r="D102" t="s">
+        <v>462</v>
+      </c>
+      <c r="E102" s="7">
         <v>1</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H102" s="6">
         <v>4</v>
@@ -5869,103 +6481,130 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M102" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N102" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6">
+        <v>429</v>
+      </c>
+      <c r="D103" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" s="7">
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H103" s="6">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M103" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N103" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6">
+        <v>430</v>
+      </c>
+      <c r="D104" t="s">
+        <v>462</v>
+      </c>
+      <c r="E104" s="7">
         <v>1</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H104" s="6">
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M104" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N104" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6">
+        <v>431</v>
+      </c>
+      <c r="D105" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="7">
         <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H105" s="6">
         <v>5</v>
@@ -5974,33 +6613,42 @@
         <v>37</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M105" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6">
+        <v>432</v>
+      </c>
+      <c r="D106" t="s">
+        <v>462</v>
+      </c>
+      <c r="E106" s="7">
         <v>1</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
@@ -6009,33 +6657,42 @@
         <v>37</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M106" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N106" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6">
+        <v>433</v>
+      </c>
+      <c r="D107" t="s">
+        <v>462</v>
+      </c>
+      <c r="E107" s="7">
         <v>1</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
@@ -6044,33 +6701,42 @@
         <v>37</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M107" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N107" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6">
+        <v>434</v>
+      </c>
+      <c r="D108" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" s="7">
         <v>1</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H108" s="6">
         <v>6</v>
@@ -6079,68 +6745,86 @@
         <v>37</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M108" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N108" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6">
+        <v>435</v>
+      </c>
+      <c r="D109" t="s">
+        <v>462</v>
+      </c>
+      <c r="E109" s="7">
         <v>1</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H109" s="6">
         <v>5</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M109" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N109" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6">
+        <v>436</v>
+      </c>
+      <c r="D110" t="s">
+        <v>462</v>
+      </c>
+      <c r="E110" s="7">
         <v>1</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H110" s="6">
         <v>10</v>
@@ -6149,33 +6833,42 @@
         <v>15</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M110" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="N110" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6">
+        <v>437</v>
+      </c>
+      <c r="D111" t="s">
+        <v>462</v>
+      </c>
+      <c r="E111" s="7">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H111" s="6">
         <v>10</v>
@@ -6184,138 +6877,174 @@
         <v>15</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M111" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N111" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6">
+        <v>438</v>
+      </c>
+      <c r="D112" t="s">
+        <v>462</v>
+      </c>
+      <c r="E112" s="7">
         <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H112" s="6">
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M112" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="N112" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6">
+        <v>439</v>
+      </c>
+      <c r="D113" t="s">
+        <v>462</v>
+      </c>
+      <c r="E113" s="7">
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M113" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="N113" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6">
+        <v>440</v>
+      </c>
+      <c r="D114" t="s">
+        <v>462</v>
+      </c>
+      <c r="E114" s="7">
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M114" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="N114" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6">
+        <v>441</v>
+      </c>
+      <c r="D115" t="s">
+        <v>462</v>
+      </c>
+      <c r="E115" s="7">
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H115" s="6">
         <v>5</v>
@@ -6324,33 +7053,42 @@
         <v>37</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M115" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6">
+        <v>442</v>
+      </c>
+      <c r="D116" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" s="7">
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H116" s="6">
         <v>10</v>
@@ -6359,33 +7097,42 @@
         <v>37</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M116" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="N116" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6">
+        <v>443</v>
+      </c>
+      <c r="D117" t="s">
+        <v>462</v>
+      </c>
+      <c r="E117" s="7">
         <v>1</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -6394,33 +7141,42 @@
         <v>15</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M117" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N117" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6">
+        <v>444</v>
+      </c>
+      <c r="D118" t="s">
+        <v>462</v>
+      </c>
+      <c r="E118" s="7">
         <v>1</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -6429,33 +7185,42 @@
         <v>15</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M118" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N118" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6">
+        <v>445</v>
+      </c>
+      <c r="D119" t="s">
+        <v>462</v>
+      </c>
+      <c r="E119" s="7">
         <v>2</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -6464,33 +7229,42 @@
         <v>15</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M119" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="N119" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6">
+        <v>446</v>
+      </c>
+      <c r="D120" t="s">
+        <v>462</v>
+      </c>
+      <c r="E120" s="7">
         <v>1</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H120" s="6">
         <v>5</v>
@@ -6499,33 +7273,42 @@
         <v>15</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M120" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N120" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6">
+        <v>447</v>
+      </c>
+      <c r="D121" t="s">
+        <v>462</v>
+      </c>
+      <c r="E121" s="7">
         <v>1</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -6534,33 +7317,42 @@
         <v>15</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M121" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6">
+        <v>448</v>
+      </c>
+      <c r="D122" t="s">
+        <v>462</v>
+      </c>
+      <c r="E122" s="7">
         <v>1</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -6569,33 +7361,42 @@
         <v>15</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M122" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N122" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6">
+        <v>449</v>
+      </c>
+      <c r="D123" t="s">
+        <v>462</v>
+      </c>
+      <c r="E123" s="7">
         <v>1</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H123" s="6">
         <v>4</v>
@@ -6604,33 +7405,42 @@
         <v>37</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M123" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6">
+        <v>450</v>
+      </c>
+      <c r="D124" t="s">
+        <v>462</v>
+      </c>
+      <c r="E124" s="7">
         <v>1</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H124" s="6">
         <v>4</v>
@@ -6639,103 +7449,130 @@
         <v>37</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M124" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6">
+        <v>451</v>
+      </c>
+      <c r="D125" t="s">
+        <v>462</v>
+      </c>
+      <c r="E125" s="7">
         <v>1</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H125" s="6">
         <v>6</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M125" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6">
+        <v>452</v>
+      </c>
+      <c r="D126" t="s">
+        <v>462</v>
+      </c>
+      <c r="E126" s="7">
         <v>1</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H126" s="6">
         <v>6</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M126" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="N126" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6">
+        <v>453</v>
+      </c>
+      <c r="D127" t="s">
+        <v>462</v>
+      </c>
+      <c r="E127" s="7">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H127" s="6">
         <v>5</v>
@@ -6744,33 +7581,42 @@
         <v>15</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M127" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6">
+        <v>454</v>
+      </c>
+      <c r="D128" t="s">
+        <v>462</v>
+      </c>
+      <c r="E128" s="7">
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H128" s="6">
         <v>4</v>
@@ -6779,33 +7625,42 @@
         <v>15</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M128" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N128" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6">
+        <v>455</v>
+      </c>
+      <c r="D129" t="s">
+        <v>462</v>
+      </c>
+      <c r="E129" s="7">
         <v>1</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H129" s="6">
         <v>5</v>
@@ -6814,138 +7669,174 @@
         <v>37</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M129" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6">
+        <v>456</v>
+      </c>
+      <c r="D130" t="s">
+        <v>462</v>
+      </c>
+      <c r="E130" s="7">
         <v>1</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M130" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="N130" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6">
+        <v>457</v>
+      </c>
+      <c r="D131" t="s">
+        <v>462</v>
+      </c>
+      <c r="E131" s="7">
         <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H131" s="6">
         <v>6</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M131" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6">
+        <v>458</v>
+      </c>
+      <c r="D132" t="s">
+        <v>462</v>
+      </c>
+      <c r="E132" s="7">
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H132" s="6">
         <v>6</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M132" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N132" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6">
+        <v>459</v>
+      </c>
+      <c r="D133" t="s">
+        <v>462</v>
+      </c>
+      <c r="E133" s="7">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H133" s="6">
         <v>10</v>
@@ -6954,33 +7845,42 @@
         <v>15</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M133" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="N133" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6">
+        <v>460</v>
+      </c>
+      <c r="D134" t="s">
+        <v>462</v>
+      </c>
+      <c r="E134" s="7">
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H134" s="6">
         <v>5</v>
@@ -6989,33 +7889,42 @@
         <v>15</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M134" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6">
+        <v>461</v>
+      </c>
+      <c r="D135" t="s">
+        <v>462</v>
+      </c>
+      <c r="E135" s="7">
         <v>1</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
@@ -7024,262 +7933,1691 @@
         <v>15</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="M135" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" t="s">
+        <v>462</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H136" s="6">
+        <v>6</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N136" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" t="s">
+        <v>462</v>
+      </c>
+      <c r="E137" s="7">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H137" s="6">
+        <v>3</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N137" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D138" t="s">
+        <v>462</v>
+      </c>
+      <c r="E138" s="7">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H138" s="6">
+        <v>6</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N138" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D139" t="s">
+        <v>462</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H139" s="6">
+        <v>4</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N139" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" t="s">
+        <v>462</v>
+      </c>
+      <c r="E140" s="7">
+        <v>1</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H140" s="6">
+        <v>6</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N140" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" t="s">
+        <v>462</v>
+      </c>
+      <c r="E141" s="7">
+        <v>1</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H141" s="6">
+        <v>6</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" t="s">
+        <v>462</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H142" s="6">
+        <v>6</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N142" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D143" t="s">
+        <v>462</v>
+      </c>
+      <c r="E143" s="7">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H143" s="6">
+        <v>3</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N143" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" t="s">
+        <v>462</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H144" s="6">
+        <v>3</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N144" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D145" t="s">
+        <v>462</v>
+      </c>
+      <c r="E145" s="7">
+        <v>1</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H145" s="6">
+        <v>3</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N145" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D146" t="s">
+        <v>462</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H146" s="6">
+        <v>10</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N146" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" t="s">
+        <v>462</v>
+      </c>
+      <c r="E147" s="7">
+        <v>1</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H147" s="6">
+        <v>2</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N147" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D148" t="s">
+        <v>462</v>
+      </c>
+      <c r="E148" s="7">
+        <v>1</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H148" s="6">
+        <v>2</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N148" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" t="s">
+        <v>462</v>
+      </c>
+      <c r="E149" s="7">
+        <v>1</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H149" s="6">
+        <v>2</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N149" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" s="7">
+        <v>1</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H150" s="6">
+        <v>6</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N150" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" t="s">
+        <v>462</v>
+      </c>
+      <c r="E151" s="7">
+        <v>1</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N151" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D152" t="s">
+        <v>462</v>
+      </c>
+      <c r="E152" s="7">
+        <v>1</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N152" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D153" t="s">
+        <v>462</v>
+      </c>
+      <c r="E153" s="7">
+        <v>1</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H153" s="6">
+        <v>0</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N153" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D154" t="s">
+        <v>462</v>
+      </c>
+      <c r="E154" s="7">
+        <v>1</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H154" s="6">
+        <v>5</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N154" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D155" t="s">
+        <v>462</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H155" s="6">
+        <v>5</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N155" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D156" t="s">
+        <v>462</v>
+      </c>
+      <c r="E156" s="7">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H156" s="6">
+        <v>5</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M156" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N156" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D157" t="s">
+        <v>462</v>
+      </c>
+      <c r="E157" s="7">
+        <v>1</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H157" s="6">
+        <v>6</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M157" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N157" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D158" t="s">
+        <v>462</v>
+      </c>
+      <c r="E158" s="7">
+        <v>1</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H158" s="6">
+        <v>10</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N158" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D159" t="s">
+        <v>462</v>
+      </c>
+      <c r="E159" s="7">
+        <v>1</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H159" s="6">
+        <v>10</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N159" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D160" t="s">
+        <v>462</v>
+      </c>
+      <c r="E160" s="7">
+        <v>1</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H160" s="6">
+        <v>5</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N160" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D161" t="s">
+        <v>462</v>
+      </c>
+      <c r="E161" s="7">
+        <v>1</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H161" s="6">
+        <v>5</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N161" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D162" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162" s="7">
+        <v>1</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H162" s="6">
+        <v>5</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N162" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D163" t="s">
+        <v>462</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H163" s="6">
+        <v>5</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D164" t="s">
+        <v>462</v>
+      </c>
+      <c r="E164" s="7">
+        <v>1</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="6">
+        <v>5</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N164" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" t="s">
+        <v>462</v>
+      </c>
+      <c r="E165" s="7">
+        <v>1</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H165" s="6">
+        <v>10</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N165" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D166" t="s">
+        <v>462</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H166" s="6">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N166" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D167" t="s">
+        <v>462</v>
+      </c>
+      <c r="E167" s="7">
+        <v>1</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H167" s="6">
+        <v>8</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="N167" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D168" t="s">
+        <v>462</v>
+      </c>
+      <c r="E168" s="7">
+        <v>1</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H168" s="6">
+        <v>10</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M168" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N168" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D169" t="s">
+        <v>462</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H169" s="6">
+        <v>2</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L169" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M169" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N169" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D170" t="s">
+        <v>462</v>
+      </c>
+      <c r="E170" s="7">
+        <v>1</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H170" s="6">
+        <v>4</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M170" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D171" t="s">
+        <v>462</v>
+      </c>
+      <c r="E171" s="7">
+        <v>1</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H171" s="6">
+        <v>5</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N171" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D172" t="s">
+        <v>462</v>
+      </c>
+      <c r="E172" s="7">
+        <v>1</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H172" s="6">
+        <v>5</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N172" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>183</v>
+      <c r="B173" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" t="s">
+        <v>462</v>
+      </c>
+      <c r="E173" s="7">
+        <v>1</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H173" s="6">
+        <v>6</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N173" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="538">
   <si>
     <t>Name</t>
   </si>
@@ -1599,8 +1599,233 @@
     <t xml:space="preserve">Yarpen Zigrin.png </t>
   </si>
   <si>
-    <t>Defualt Meseage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>A fireball? Of course. Whatever Your Imperial Majesty wishes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niflgaardian mages do have a choice: servile submission, or the gallows.</t>
+  </si>
+  <si>
+    <t>I aim for the knee. Always.</t>
+  </si>
+  <si>
+    <t>His eyes flashed under his winged helmet. Fire gleamed from his sword's blade.</t>
+  </si>
+  <si>
+    <t>Cynthia's talents can be deadly. She needs a thight leash.</t>
+  </si>
+  <si>
+    <t>Double or nothing, aim for his cock.</t>
+  </si>
+  <si>
+    <t>Magic is the highest good. It transcends all borders and divisions.</t>
+  </si>
+  <si>
+    <t>Not the best for taking cities, but great for razing them to the ground.</t>
+  </si>
+  <si>
+    <t>The Impera Brigade never surrenders. Ever.</t>
+  </si>
+  <si>
+    <t>Witchers never die in their beds.</t>
+  </si>
+  <si>
+    <t>I'll take an attentive reconnaissance unit over a fine cavalry brigade any day.</t>
+  </si>
+  <si>
+    <t>No Nordling pikemen or dwarven spearbearers can hope to best trained cavalry.</t>
+  </si>
+  <si>
+    <t>Summer sun reflecting in the quiet waters of the Alba - that's Nilfgaard to me.</t>
+  </si>
+  <si>
+    <t>The Emperor will teach the North discipline.</t>
+  </si>
+  <si>
+    <t>Learned a lot at Braibant Military Academy. How to scrub potatoes, for instance.</t>
+  </si>
+  <si>
+    <t>You 'll die a painfully as that pathetic traitor Windhalm did.</t>
+  </si>
+  <si>
+    <t>They say the Impera fear nothing. Untrue. Renuald scares them shitless.</t>
+  </si>
+  <si>
+    <t>The rotten smell brings back childhood memories.</t>
+  </si>
+  <si>
+    <t>Warfare is mere sound and fury diplomacy is what truly shapes·history.</t>
+  </si>
+  <si>
+    <t>Wielded correctly, a protractor can be a deadly weapon.</t>
+  </si>
+  <si>
+    <t>I never miss twice.</t>
+  </si>
+  <si>
+    <t>My mark scars the face of our future empress. That is my proudest achievement.</t>
+  </si>
+  <si>
+    <t>And hands off the girl! Whatever we may be, we're not savages.</t>
+  </si>
+  <si>
+    <t>Albaaaa! Forward!! Alba! Long live the Emperor!</t>
+  </si>
+  <si>
+    <t>For a fire mage , he's not very ... flamboyant.</t>
+  </si>
+  <si>
+    <t>There's never been a problem a well-planned assassination couldn't solve.</t>
+  </si>
+  <si>
+    <t>Discipline is the Empire's deadliest weapon.</t>
+  </si>
+  <si>
+    <t>If I acquit myself well, perhaps next they' ll post me somewhere civilized.</t>
+  </si>
+  <si>
+    <t>The Zerrikanian Desert used to be a lush garden. Then these came along.</t>
+  </si>
+  <si>
+    <t>Usually we give 'em female nanes. -Like Jenny? -More like Bertha.</t>
+  </si>
+  <si>
+    <t>I'd anyhing for Temeria. Mostly, though, 1 kill for her.</t>
+  </si>
+  <si>
+    <t>The gods help those who have better catapults.</t>
+  </si>
+  <si>
+    <t>Haven't had much luck with monsters of late, -so we enlisted.</t>
+  </si>
+  <si>
+    <t>I once made a prisoner vomit his own entrails. . . Ah, good times. . .</t>
+  </si>
+  <si>
+    <t>Stitch red to red, white to white, and everything will be all right.</t>
+  </si>
+  <si>
+    <t>Like all Thyssen men, he was tall, powerfully built and criminally handsome.</t>
+  </si>
+  <si>
+    <t>Thlat square should bear the names of my soldiers, of the dead. Not mine.</t>
+  </si>
+  <si>
+    <t>You gota recalihrate the arm hy five degrees. - Do what by the what now?</t>
+  </si>
+  <si>
+    <t>If I'm to die today, I wish to look smashing for the occasion.</t>
+  </si>
+  <si>
+    <t>Soon the power of kings will wither，and the Lodge shall seize its rightful place.</t>
+  </si>
+  <si>
+    <t>I's a war veteran! ... spare me a crown?</t>
+  </si>
+  <si>
+    <t>He ploughin' wears golden armor. Golden. Course he's an arsehole.</t>
+  </si>
+  <si>
+    <t>I've bled for Redania! I've killed for Redania. .. Dammit, I've even raped for Redania!</t>
+  </si>
+  <si>
+    <t>The Daughter of the Kaedweni Wilderness.</t>
+  </si>
+  <si>
+    <t>I was there， on the front lines! Right where the fightin' was the thickest!</t>
+  </si>
+  <si>
+    <t>I love the clamor of siege towers in the morning. Sounds like victory.</t>
+  </si>
+  <si>
+    <t>We're on the same side, witcher. You'll realize this one day.</t>
+  </si>
+  <si>
+    <t>Gwent's like politics, just more honest.</t>
+  </si>
+  <si>
+    <t>The Lodge lacks humility: Our lust for power may yet be our undoing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuck off! We aren't all ploughin'philanderers. Some of us have depth. . . </t>
+  </si>
+  <si>
+    <t>Castle won't batter itself down, now will it? Get them trebuchets rollin'!</t>
+  </si>
+  <si>
+    <t>A patriot... and a real son of a bitch.</t>
+  </si>
+  <si>
+    <t>Better to live one day as a king than a whole life as a beggar.</t>
+  </si>
+  <si>
+    <t>The world belongs to whoever's best at crackin' skulls and impregnatin' lasses.</t>
+  </si>
+  <si>
+    <t>Our mead smells like piss, do it? Easy to fix - I'll break your fuckin' nose!</t>
+  </si>
+  <si>
+    <t>The path to freedom is paved in blood, not ink.</t>
+  </si>
+  <si>
+    <t>I know how to carry out orders, so you can shove you advice up your coal chute.</t>
+  </si>
+  <si>
+    <t>Take another step, dh'oine. You a look better with an arrow between your eyes.</t>
+  </si>
+  <si>
+    <t>They track like hounds, run like deer and kill like cold -hearted bastards.</t>
+  </si>
+  <si>
+    <t>Worked a pickaxe all me life. Battleaxe won't be any trouble.</t>
+  </si>
+  <si>
+    <t>The dryad queen has eyes of molten silver, and a heart of cold -forged steel.</t>
+  </si>
+  <si>
+    <t>No matter what you may have heard, elves don't take human scalps. Too much lice.</t>
+  </si>
+  <si>
+    <t>Though we are now few and scattered, our hearts burn brighter than ever.</t>
+  </si>
+  <si>
+    <t>Sure, I'll patch you up. Gonna cost you, though.</t>
+  </si>
+  <si>
+    <t>I fight for whoever's paying the best. Or whoever's easiest to rob.</t>
+  </si>
+  <si>
+    <t>I am a Sage. My power lies in possessing knowledge. Not sharing it.</t>
+  </si>
+  <si>
+    <t>King or beggar, what's the difference? One dh'oine less.</t>
+  </si>
+  <si>
+    <t>It dawns on them once they notice my scar: a realization of imminent death.</t>
+  </si>
+  <si>
+    <t>I'm telling ye, we're born fer battle - we slash straight at their knees!</t>
+  </si>
+  <si>
+    <t>With each arrow I loose, I think of my da. Heli be proud. I think.</t>
+  </si>
+  <si>
+    <t>Stare into their eyes , feast on their terror. Then go in for the kill.</t>
+  </si>
+  <si>
+    <t>Beautiful, pure, fierce - the perfect icon for a rebellion.</t>
+  </si>
+  <si>
+    <t>Time to look death in the face.</t>
+  </si>
+  <si>
+    <t>I'd gladly kill you from up close, stare in your eyes ... But you reek, human.</t>
+  </si>
+  <si>
+    <t>Vrihedd? What's that mean? - Trouble.</t>
+  </si>
+  <si>
+    <t>We are the drops of rain that together make a ferocious storm.</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M173" sqref="M173"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2003,8 +2228,8 @@
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="4.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
@@ -4709,7 +4934,7 @@
         <v>388</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4753,7 +4978,7 @@
         <v>389</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -4797,7 +5022,7 @@
         <v>390</v>
       </c>
       <c r="D64" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -4841,7 +5066,7 @@
         <v>391</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -4885,7 +5110,7 @@
         <v>392</v>
       </c>
       <c r="D66" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -4929,7 +5154,7 @@
         <v>393</v>
       </c>
       <c r="D67" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -4973,7 +5198,7 @@
         <v>394</v>
       </c>
       <c r="D68" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
@@ -5017,7 +5242,7 @@
         <v>395</v>
       </c>
       <c r="D69" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -5061,7 +5286,7 @@
         <v>396</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5105,7 +5330,7 @@
         <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -5149,7 +5374,7 @@
         <v>398</v>
       </c>
       <c r="D72" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -5193,7 +5418,7 @@
         <v>399</v>
       </c>
       <c r="D73" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -5237,7 +5462,7 @@
         <v>400</v>
       </c>
       <c r="D74" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -5281,7 +5506,7 @@
         <v>401</v>
       </c>
       <c r="D75" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
@@ -5325,7 +5550,7 @@
         <v>402</v>
       </c>
       <c r="D76" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
@@ -5369,7 +5594,7 @@
         <v>403</v>
       </c>
       <c r="D77" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -5413,7 +5638,7 @@
         <v>404</v>
       </c>
       <c r="D78" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
@@ -5457,7 +5682,7 @@
         <v>405</v>
       </c>
       <c r="D79" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -5501,7 +5726,7 @@
         <v>406</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -5545,7 +5770,7 @@
         <v>407</v>
       </c>
       <c r="D81" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
@@ -5589,7 +5814,7 @@
         <v>408</v>
       </c>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -5633,7 +5858,7 @@
         <v>409</v>
       </c>
       <c r="D83" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -5677,7 +5902,7 @@
         <v>410</v>
       </c>
       <c r="D84" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -5721,7 +5946,7 @@
         <v>411</v>
       </c>
       <c r="D85" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -5765,7 +5990,7 @@
         <v>412</v>
       </c>
       <c r="D86" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -5809,7 +6034,7 @@
         <v>413</v>
       </c>
       <c r="D87" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -5853,7 +6078,7 @@
         <v>414</v>
       </c>
       <c r="D88" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -5897,7 +6122,7 @@
         <v>415</v>
       </c>
       <c r="D89" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -5941,7 +6166,7 @@
         <v>416</v>
       </c>
       <c r="D90" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -5985,7 +6210,7 @@
         <v>417</v>
       </c>
       <c r="D91" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
@@ -6029,7 +6254,7 @@
         <v>418</v>
       </c>
       <c r="D92" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -6073,7 +6298,7 @@
         <v>419</v>
       </c>
       <c r="D93" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -6117,7 +6342,7 @@
         <v>420</v>
       </c>
       <c r="D94" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -6161,7 +6386,7 @@
         <v>421</v>
       </c>
       <c r="D95" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -6205,7 +6430,7 @@
         <v>422</v>
       </c>
       <c r="D96" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -6249,7 +6474,7 @@
         <v>423</v>
       </c>
       <c r="D97" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6293,7 +6518,7 @@
         <v>424</v>
       </c>
       <c r="D98" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6331,7 +6556,7 @@
         <v>425</v>
       </c>
       <c r="D99" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6375,7 +6600,7 @@
         <v>426</v>
       </c>
       <c r="D100" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6419,7 +6644,7 @@
         <v>427</v>
       </c>
       <c r="D101" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6463,10 +6688,10 @@
         <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="E102" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>13</v>
@@ -6507,7 +6732,7 @@
         <v>429</v>
       </c>
       <c r="D103" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6551,7 +6776,7 @@
         <v>430</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6595,7 +6820,7 @@
         <v>431</v>
       </c>
       <c r="D105" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6639,7 +6864,7 @@
         <v>432</v>
       </c>
       <c r="D106" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6683,7 +6908,7 @@
         <v>433</v>
       </c>
       <c r="D107" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6727,7 +6952,7 @@
         <v>434</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6771,7 +6996,7 @@
         <v>435</v>
       </c>
       <c r="D109" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -6815,7 +7040,7 @@
         <v>436</v>
       </c>
       <c r="D110" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -6859,7 +7084,7 @@
         <v>437</v>
       </c>
       <c r="D111" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -6903,7 +7128,7 @@
         <v>438</v>
       </c>
       <c r="D112" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -6947,7 +7172,7 @@
         <v>439</v>
       </c>
       <c r="D113" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -6991,7 +7216,7 @@
         <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -7035,7 +7260,7 @@
         <v>441</v>
       </c>
       <c r="D115" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -7079,7 +7304,7 @@
         <v>442</v>
       </c>
       <c r="D116" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -7123,7 +7348,7 @@
         <v>443</v>
       </c>
       <c r="D117" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -7167,7 +7392,7 @@
         <v>444</v>
       </c>
       <c r="D118" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -7211,7 +7436,7 @@
         <v>445</v>
       </c>
       <c r="D119" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="E119" s="7">
         <v>2</v>
@@ -7255,7 +7480,7 @@
         <v>446</v>
       </c>
       <c r="D120" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -7299,7 +7524,7 @@
         <v>447</v>
       </c>
       <c r="D121" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -7343,7 +7568,7 @@
         <v>448</v>
       </c>
       <c r="D122" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -7387,7 +7612,7 @@
         <v>449</v>
       </c>
       <c r="D123" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -7431,7 +7656,7 @@
         <v>450</v>
       </c>
       <c r="D124" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -7475,7 +7700,7 @@
         <v>451</v>
       </c>
       <c r="D125" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -7519,7 +7744,7 @@
         <v>452</v>
       </c>
       <c r="D126" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -7563,7 +7788,7 @@
         <v>453</v>
       </c>
       <c r="D127" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -7607,7 +7832,7 @@
         <v>454</v>
       </c>
       <c r="D128" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -7651,7 +7876,7 @@
         <v>455</v>
       </c>
       <c r="D129" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -7695,7 +7920,7 @@
         <v>456</v>
       </c>
       <c r="D130" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -7739,7 +7964,7 @@
         <v>457</v>
       </c>
       <c r="D131" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -7783,7 +8008,7 @@
         <v>458</v>
       </c>
       <c r="D132" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -7827,7 +8052,7 @@
         <v>459</v>
       </c>
       <c r="D133" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
@@ -7871,7 +8096,7 @@
         <v>460</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -7915,7 +8140,7 @@
         <v>461</v>
       </c>
       <c r="D135" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -7959,7 +8184,7 @@
         <v>325</v>
       </c>
       <c r="D136" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="E136" s="7">
         <v>1</v>
@@ -8003,7 +8228,7 @@
         <v>328</v>
       </c>
       <c r="D137" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -8047,7 +8272,7 @@
         <v>330</v>
       </c>
       <c r="D138" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -8091,7 +8316,7 @@
         <v>332</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -8135,7 +8360,7 @@
         <v>334</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -8179,7 +8404,7 @@
         <v>335</v>
       </c>
       <c r="D141" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -8223,7 +8448,7 @@
         <v>336</v>
       </c>
       <c r="D142" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -8267,7 +8492,7 @@
         <v>338</v>
       </c>
       <c r="D143" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -8311,7 +8536,7 @@
         <v>339</v>
       </c>
       <c r="D144" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -8355,7 +8580,7 @@
         <v>340</v>
       </c>
       <c r="D145" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -8399,7 +8624,7 @@
         <v>342</v>
       </c>
       <c r="D146" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -8443,7 +8668,7 @@
         <v>344</v>
       </c>
       <c r="D147" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -8487,7 +8712,7 @@
         <v>345</v>
       </c>
       <c r="D148" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -8531,7 +8756,7 @@
         <v>346</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -8575,7 +8800,7 @@
         <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -8619,7 +8844,7 @@
         <v>350</v>
       </c>
       <c r="D151" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -8663,7 +8888,7 @@
         <v>351</v>
       </c>
       <c r="D152" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -8707,7 +8932,7 @@
         <v>352</v>
       </c>
       <c r="D153" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -8751,7 +8976,7 @@
         <v>354</v>
       </c>
       <c r="D154" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -8795,7 +9020,7 @@
         <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -8839,7 +9064,7 @@
         <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -8883,7 +9108,7 @@
         <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -8927,7 +9152,7 @@
         <v>360</v>
       </c>
       <c r="D158" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -8971,7 +9196,7 @@
         <v>362</v>
       </c>
       <c r="D159" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -9015,7 +9240,7 @@
         <v>364</v>
       </c>
       <c r="D160" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -9059,7 +9284,7 @@
         <v>365</v>
       </c>
       <c r="D161" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -9103,7 +9328,7 @@
         <v>366</v>
       </c>
       <c r="D162" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -9147,7 +9372,7 @@
         <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -9191,7 +9416,7 @@
         <v>368</v>
       </c>
       <c r="D164" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -9235,7 +9460,7 @@
         <v>370</v>
       </c>
       <c r="D165" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -9279,7 +9504,7 @@
         <v>372</v>
       </c>
       <c r="D166" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -9323,7 +9548,7 @@
         <v>374</v>
       </c>
       <c r="D167" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -9367,7 +9592,7 @@
         <v>377</v>
       </c>
       <c r="D168" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -9411,7 +9636,7 @@
         <v>379</v>
       </c>
       <c r="D169" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -9455,7 +9680,7 @@
         <v>381</v>
       </c>
       <c r="D170" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -9499,7 +9724,7 @@
         <v>383</v>
       </c>
       <c r="D171" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -9543,7 +9768,7 @@
         <v>384</v>
       </c>
       <c r="D172" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -9587,7 +9812,7 @@
         <v>386</v>
       </c>
       <c r="D173" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Arachas Behemoth.png</t>
-  </si>
-  <si>
-    <t>Seige</t>
   </si>
   <si>
     <t>Botchling</t>
@@ -2219,7 +2216,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2242,13 +2239,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2260,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2281,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2289,37 +2286,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>212</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" t="s">
         <v>214</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>215</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>216</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>217</v>
-      </c>
-      <c r="M2" t="s">
-        <v>218</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -2470,7 +2467,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -2485,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2508,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2541,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4" t="b">
         <v>0</v>
@@ -2552,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -2573,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -2585,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="4" t="b">
         <v>0</v>
@@ -2596,13 +2593,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2617,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -2629,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4" t="b">
         <v>0</v>
@@ -2640,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2684,13 +2681,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2728,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2772,13 +2769,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2796,7 +2793,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -2805,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="4" t="b">
         <v>0</v>
@@ -2816,13 +2813,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2837,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2849,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="4" t="b">
         <v>0</v>
@@ -2860,13 +2857,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2881,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -2893,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="4" t="b">
         <v>0</v>
@@ -2904,13 +2901,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2937,7 +2934,7 @@
         <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N16" s="4" t="b">
         <v>0</v>
@@ -2948,13 +2945,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2969,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -2981,7 +2978,7 @@
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="4" t="b">
         <v>0</v>
@@ -2992,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -3025,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" s="4" t="b">
         <v>0</v>
@@ -3036,13 +3033,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -3069,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="4" t="b">
         <v>0</v>
@@ -3080,13 +3077,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -3113,7 +3110,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="4" t="b">
         <v>0</v>
@@ -3124,13 +3121,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -3145,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -3157,7 +3154,7 @@
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21" s="4" t="b">
         <v>0</v>
@@ -3168,13 +3165,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -3212,13 +3209,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -3256,13 +3253,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -3300,13 +3297,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -3333,7 +3330,7 @@
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" s="4" t="b">
         <v>0</v>
@@ -3344,13 +3341,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3377,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26" s="4" t="b">
         <v>0</v>
@@ -3388,13 +3385,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -3409,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -3421,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" s="4" t="b">
         <v>0</v>
@@ -3432,13 +3429,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -3453,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -3465,7 +3462,7 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N28" s="4" t="b">
         <v>0</v>
@@ -3476,13 +3473,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -3500,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -3509,7 +3506,7 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="4" t="b">
         <v>0</v>
@@ -3520,13 +3517,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -3541,10 +3538,10 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -3553,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -3564,13 +3561,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -3585,10 +3582,10 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -3597,7 +3594,7 @@
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N31" s="4" t="b">
         <v>0</v>
@@ -3608,13 +3605,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -3641,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -3652,13 +3649,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -3685,7 +3682,7 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -3696,13 +3693,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -3729,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -3740,13 +3737,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -3767,13 +3764,13 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" s="4" t="b">
         <v>0</v>
@@ -3784,13 +3781,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -3817,7 +3814,7 @@
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -3828,13 +3825,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -3861,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -3872,13 +3869,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
         <v>105</v>
       </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -3905,7 +3902,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -3916,13 +3913,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>109</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3949,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -3960,13 +3957,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -3984,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -3993,7 +3990,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -4004,13 +4001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -4037,7 +4034,7 @@
         <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N41" s="4" t="b">
         <v>0</v>
@@ -4048,13 +4045,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -4069,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -4081,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N42" s="4" t="b">
         <v>0</v>
@@ -4092,22 +4089,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
         <v>119</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>120</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>121</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>122</v>
       </c>
       <c r="H43" s="2">
         <v>15</v>
@@ -4116,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -4125,7 +4122,7 @@
         <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N43" s="4" t="b">
         <v>0</v>
@@ -4136,22 +4133,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>125</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>126</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>127</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -4180,14 +4177,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>129</v>
       </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="2">
         <v>5</v>
@@ -4210,10 +4207,10 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N45" s="4" t="b">
         <v>0</v>
@@ -4224,13 +4221,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
         <v>131</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>132</v>
-      </c>
-      <c r="D46" t="s">
-        <v>133</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -4239,13 +4236,13 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -4257,7 +4254,7 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -4268,14 +4265,14 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
         <v>134</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>135</v>
       </c>
-      <c r="D47" t="s">
-        <v>136</v>
-      </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47" s="2">
         <v>15</v>
@@ -4292,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -4301,7 +4298,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N47" s="4" t="b">
         <v>0</v>
@@ -4312,14 +4309,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="s">
-        <v>140</v>
-      </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
@@ -4327,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -4336,7 +4333,7 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -4345,7 +4342,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -4356,14 +4353,14 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
         <v>142</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>143</v>
       </c>
-      <c r="D49" t="s">
-        <v>144</v>
-      </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" s="2">
         <v>7</v>
@@ -4380,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -4389,7 +4386,7 @@
         <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N49" s="4" t="b">
         <v>0</v>
@@ -4400,14 +4397,14 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
         <v>145</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>146</v>
       </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
@@ -4424,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -4433,7 +4430,7 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N50" s="4" t="b">
         <v>0</v>
@@ -4444,14 +4441,14 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>150</v>
       </c>
-      <c r="D51" t="s">
-        <v>151</v>
-      </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H51" s="2">
         <v>7</v>
@@ -4468,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -4477,7 +4474,7 @@
         <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -4488,14 +4485,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
         <v>152</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -4503,16 +4500,16 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="2">
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -4521,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -4532,14 +4529,14 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>157</v>
       </c>
-      <c r="D53" t="s">
-        <v>158</v>
-      </c>
       <c r="E53" s="4">
         <v>1</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H53" s="2">
         <v>5</v>
@@ -4556,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -4565,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N53" s="4" t="b">
         <v>0</v>
@@ -4576,40 +4573,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
       </c>
       <c r="E54" s="4">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K54" t="s">
         <v>165</v>
       </c>
-      <c r="J54" t="s">
-        <v>160</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>166</v>
       </c>
-      <c r="L54" t="s">
-        <v>167</v>
-      </c>
       <c r="M54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -4620,40 +4617,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
         <v>168</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
       </c>
       <c r="E55" s="4">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" t="s">
         <v>165</v>
       </c>
-      <c r="J55" t="s">
-        <v>160</v>
-      </c>
-      <c r="K55" t="s">
-        <v>166</v>
-      </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -4664,40 +4661,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
         <v>172</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>173</v>
-      </c>
-      <c r="D56" t="s">
-        <v>174</v>
       </c>
       <c r="E56" s="4">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" t="s">
         <v>165</v>
       </c>
-      <c r="J56" t="s">
-        <v>160</v>
-      </c>
-      <c r="K56" t="s">
-        <v>166</v>
-      </c>
       <c r="L56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -4708,40 +4705,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
         <v>176</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>177</v>
-      </c>
-      <c r="D57" t="s">
-        <v>178</v>
       </c>
       <c r="E57" s="4">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
+        <v>164</v>
+      </c>
+      <c r="J57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K57" t="s">
         <v>165</v>
       </c>
-      <c r="J57" t="s">
-        <v>160</v>
-      </c>
-      <c r="K57" t="s">
-        <v>166</v>
-      </c>
       <c r="L57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -4752,40 +4749,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
         <v>180</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>181</v>
-      </c>
-      <c r="D58" t="s">
-        <v>182</v>
       </c>
       <c r="E58" s="4">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -4796,40 +4793,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
         <v>184</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>185</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
       </c>
       <c r="E59" s="4">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -4840,40 +4837,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>189</v>
-      </c>
-      <c r="D60" t="s">
-        <v>190</v>
       </c>
       <c r="E60" s="4">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -4884,40 +4881,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" t="s">
+        <v>461</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" t="s">
-        <v>462</v>
-      </c>
-      <c r="E61" s="7">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="H61" s="6">
         <v>2</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N61" s="4" t="b">
         <v>0</v>
@@ -4928,13 +4925,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4943,25 +4940,25 @@
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N62" s="4" t="b">
         <v>0</v>
@@ -4972,13 +4969,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -4987,25 +4984,25 @@
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H63" s="6">
         <v>10</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N63" s="4" t="b">
         <v>0</v>
@@ -5016,13 +5013,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -5031,25 +5028,25 @@
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H64" s="6">
         <v>10</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N64" s="4" t="b">
         <v>0</v>
@@ -5060,13 +5057,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -5075,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H65" s="6">
         <v>6</v>
@@ -5084,16 +5081,16 @@
         <v>15</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N65" s="4" t="b">
         <v>0</v>
@@ -5104,13 +5101,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -5119,25 +5116,25 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H66" s="6">
         <v>4</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N66" s="4" t="b">
         <v>0</v>
@@ -5148,13 +5145,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -5163,25 +5160,25 @@
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="6">
-        <v>1</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="K67" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N67" s="4" t="b">
         <v>0</v>
@@ -5192,40 +5189,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" t="s">
+        <v>466</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M68" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D68" t="s">
-        <v>467</v>
-      </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H68" s="6">
-        <v>1</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="N68" s="4" t="b">
         <v>0</v>
@@ -5236,13 +5233,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -5251,25 +5248,25 @@
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H69" s="6">
         <v>6</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N69" s="4" t="b">
         <v>0</v>
@@ -5280,13 +5277,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5295,25 +5292,25 @@
         <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H70" s="6">
         <v>10</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N70" s="4" t="b">
         <v>0</v>
@@ -5324,13 +5321,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -5339,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H71" s="6">
         <v>3</v>
@@ -5348,16 +5345,16 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N71" s="4" t="b">
         <v>0</v>
@@ -5368,13 +5365,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -5383,7 +5380,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H72" s="6">
         <v>3</v>
@@ -5392,16 +5389,16 @@
         <v>15</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N72" s="4" t="b">
         <v>0</v>
@@ -5412,13 +5409,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -5427,7 +5424,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H73" s="6">
         <v>3</v>
@@ -5436,16 +5433,16 @@
         <v>15</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N73" s="4" t="b">
         <v>0</v>
@@ -5456,13 +5453,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -5471,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H74" s="6">
         <v>3</v>
@@ -5480,16 +5477,16 @@
         <v>15</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N74" s="4" t="b">
         <v>0</v>
@@ -5500,22 +5497,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -5524,16 +5521,16 @@
         <v>15</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N75" s="4" t="b">
         <v>0</v>
@@ -5544,22 +5541,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H76" s="6">
         <v>10</v>
@@ -5568,16 +5565,16 @@
         <v>15</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N76" s="4" t="b">
         <v>0</v>
@@ -5588,13 +5585,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -5603,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H77" s="6">
         <v>3</v>
@@ -5612,16 +5609,16 @@
         <v>15</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N77" s="4" t="b">
         <v>0</v>
@@ -5632,40 +5629,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N78" s="4" t="b">
         <v>0</v>
@@ -5676,13 +5673,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -5691,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H79" s="6">
         <v>2</v>
@@ -5700,16 +5697,16 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N79" s="4" t="b">
         <v>0</v>
@@ -5720,13 +5717,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -5735,7 +5732,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H80" s="6">
         <v>2</v>
@@ -5744,16 +5741,16 @@
         <v>15</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N80" s="4" t="b">
         <v>0</v>
@@ -5764,22 +5761,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" t="s">
+        <v>474</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D81" t="s">
-        <v>475</v>
-      </c>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="H81" s="6">
         <v>2</v>
@@ -5788,16 +5785,16 @@
         <v>15</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N81" s="4" t="b">
         <v>0</v>
@@ -5808,13 +5805,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -5823,25 +5820,25 @@
         <v>13</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H82" s="6">
         <v>3</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N82" s="4" t="b">
         <v>0</v>
@@ -5852,13 +5849,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -5867,7 +5864,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H83" s="6">
         <v>4</v>
@@ -5876,16 +5873,16 @@
         <v>15</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N83" s="4" t="b">
         <v>0</v>
@@ -5896,13 +5893,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -5911,25 +5908,25 @@
         <v>13</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H84" s="6">
         <v>5</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N84" s="4" t="b">
         <v>0</v>
@@ -5940,13 +5937,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -5955,25 +5952,25 @@
         <v>13</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H85" s="6">
         <v>3</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N85" s="4" t="b">
         <v>0</v>
@@ -5984,13 +5981,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -5999,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H86" s="6">
         <v>7</v>
@@ -6008,16 +6005,16 @@
         <v>15</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N86" s="4" t="b">
         <v>0</v>
@@ -6028,13 +6025,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -6043,25 +6040,25 @@
         <v>13</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H87" s="6">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N87" s="4" t="b">
         <v>0</v>
@@ -6072,13 +6069,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -6087,25 +6084,25 @@
         <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="K88" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N88" s="4" t="b">
         <v>0</v>
@@ -6116,13 +6113,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -6131,7 +6128,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H89" s="6">
         <v>9</v>
@@ -6140,16 +6137,16 @@
         <v>15</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N89" s="4" t="b">
         <v>0</v>
@@ -6160,13 +6157,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -6175,25 +6172,25 @@
         <v>13</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H90" s="6">
         <v>2</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N90" s="4" t="b">
         <v>0</v>
@@ -6204,40 +6201,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H91" s="6">
         <v>10</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N91" s="4" t="b">
         <v>0</v>
@@ -6248,13 +6245,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -6263,25 +6260,25 @@
         <v>13</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H92" s="6">
         <v>4</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N92" s="4" t="b">
         <v>0</v>
@@ -6292,13 +6289,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -6307,7 +6304,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H93" s="6">
         <v>4</v>
@@ -6316,16 +6313,16 @@
         <v>15</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N93" s="4" t="b">
         <v>0</v>
@@ -6336,13 +6333,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -6351,7 +6348,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H94" s="6">
         <v>2</v>
@@ -6360,16 +6357,16 @@
         <v>15</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N94" s="4" t="b">
         <v>0</v>
@@ -6380,13 +6377,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -6395,25 +6392,25 @@
         <v>13</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H95" s="6">
         <v>5</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N95" s="4" t="b">
         <v>0</v>
@@ -6424,13 +6421,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D96" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -6439,25 +6436,25 @@
         <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N96" s="4" t="b">
         <v>0</v>
@@ -6468,13 +6465,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D97" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6483,25 +6480,25 @@
         <v>13</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N97" s="4" t="b">
         <v>0</v>
@@ -6512,22 +6509,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" t="s">
+        <v>490</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D98" t="s">
-        <v>491</v>
-      </c>
-      <c r="E98" s="7">
-        <v>1</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H98" s="6">
         <v>6</v>
@@ -6535,10 +6532,10 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="4" t="b">
@@ -6550,40 +6547,40 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D99" t="s">
+        <v>490</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D99" t="s">
-        <v>491</v>
-      </c>
-      <c r="E99" s="7">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H99" s="6">
         <v>6</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N99" s="4" t="b">
         <v>0</v>
@@ -6594,13 +6591,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6609,7 +6606,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H100" s="6">
         <v>4</v>
@@ -6618,16 +6615,16 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N100" s="4" t="b">
         <v>0</v>
@@ -6638,13 +6635,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D101" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6653,7 +6650,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H101" s="6">
         <v>4</v>
@@ -6662,16 +6659,16 @@
         <v>15</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N101" s="4" t="b">
         <v>0</v>
@@ -6682,13 +6679,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E102" s="7">
         <v>2</v>
@@ -6697,7 +6694,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H102" s="6">
         <v>4</v>
@@ -6706,16 +6703,16 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N102" s="4" t="b">
         <v>0</v>
@@ -6726,13 +6723,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6741,25 +6738,25 @@
         <v>13</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H103" s="6">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N103" s="4" t="b">
         <v>0</v>
@@ -6770,13 +6767,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6785,25 +6782,25 @@
         <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H104" s="6">
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N104" s="4" t="b">
         <v>0</v>
@@ -6814,13 +6811,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6829,25 +6826,25 @@
         <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H105" s="6">
         <v>5</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N105" s="4" t="b">
         <v>0</v>
@@ -6858,13 +6855,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6873,25 +6870,25 @@
         <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N106" s="4" t="b">
         <v>0</v>
@@ -6902,13 +6899,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6917,25 +6914,25 @@
         <v>13</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N107" s="4" t="b">
         <v>0</v>
@@ -6946,13 +6943,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6961,25 +6958,25 @@
         <v>13</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="6">
         <v>6</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N108" s="4" t="b">
         <v>0</v>
@@ -6990,13 +6987,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D109" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -7005,25 +7002,25 @@
         <v>13</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" s="6">
         <v>5</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N109" s="4" t="b">
         <v>0</v>
@@ -7034,13 +7031,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -7049,7 +7046,7 @@
         <v>13</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H110" s="6">
         <v>10</v>
@@ -7058,16 +7055,16 @@
         <v>15</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N110" s="4" t="b">
         <v>0</v>
@@ -7078,13 +7075,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H111" s="6">
         <v>10</v>
@@ -7102,16 +7099,16 @@
         <v>15</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N111" s="4" t="b">
         <v>0</v>
@@ -7122,40 +7119,40 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M112" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D112" t="s">
-        <v>499</v>
-      </c>
-      <c r="E112" s="7">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H112" s="6">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M112" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="N112" s="4" t="b">
         <v>0</v>
@@ -7166,40 +7163,40 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" t="s">
+        <v>498</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M113" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D113" t="s">
-        <v>499</v>
-      </c>
-      <c r="E113" s="7">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H113" s="6">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M113" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="N113" s="4" t="b">
         <v>0</v>
@@ -7210,40 +7207,40 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" t="s">
+        <v>498</v>
+      </c>
+      <c r="E114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M114" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D114" t="s">
-        <v>499</v>
-      </c>
-      <c r="E114" s="7">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H114" s="6">
-        <v>1</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L114" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M114" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="N114" s="4" t="b">
         <v>0</v>
@@ -7254,13 +7251,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -7269,25 +7266,25 @@
         <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H115" s="6">
         <v>5</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N115" s="4" t="b">
         <v>0</v>
@@ -7298,13 +7295,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -7313,25 +7310,25 @@
         <v>13</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H116" s="6">
         <v>10</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N116" s="4" t="b">
         <v>0</v>
@@ -7342,13 +7339,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -7357,7 +7354,7 @@
         <v>13</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -7366,16 +7363,16 @@
         <v>15</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N117" s="4" t="b">
         <v>0</v>
@@ -7386,13 +7383,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D118" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -7401,7 +7398,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -7410,16 +7407,16 @@
         <v>15</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N118" s="4" t="b">
         <v>0</v>
@@ -7430,13 +7427,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E119" s="7">
         <v>2</v>
@@ -7445,7 +7442,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -7454,16 +7451,16 @@
         <v>15</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N119" s="4" t="b">
         <v>0</v>
@@ -7474,13 +7471,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -7489,7 +7486,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H120" s="6">
         <v>5</v>
@@ -7498,16 +7495,16 @@
         <v>15</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N120" s="4" t="b">
         <v>0</v>
@@ -7518,13 +7515,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -7533,7 +7530,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -7542,16 +7539,16 @@
         <v>15</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N121" s="4" t="b">
         <v>0</v>
@@ -7562,13 +7559,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -7577,7 +7574,7 @@
         <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -7586,16 +7583,16 @@
         <v>15</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N122" s="4" t="b">
         <v>0</v>
@@ -7606,13 +7603,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -7621,25 +7618,25 @@
         <v>13</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H123" s="6">
         <v>4</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N123" s="4" t="b">
         <v>0</v>
@@ -7650,13 +7647,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D124" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -7665,25 +7662,25 @@
         <v>13</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H124" s="6">
         <v>4</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N124" s="4" t="b">
         <v>0</v>
@@ -7694,13 +7691,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D125" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -7709,25 +7706,25 @@
         <v>13</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H125" s="6">
         <v>6</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N125" s="4" t="b">
         <v>0</v>
@@ -7738,13 +7735,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -7753,25 +7750,25 @@
         <v>13</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H126" s="6">
         <v>6</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N126" s="4" t="b">
         <v>0</v>
@@ -7782,13 +7779,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -7797,7 +7794,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H127" s="6">
         <v>5</v>
@@ -7806,16 +7803,16 @@
         <v>15</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N127" s="4" t="b">
         <v>0</v>
@@ -7826,13 +7823,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -7841,7 +7838,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H128" s="6">
         <v>4</v>
@@ -7850,16 +7847,16 @@
         <v>15</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N128" s="4" t="b">
         <v>0</v>
@@ -7870,13 +7867,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D129" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -7885,25 +7882,25 @@
         <v>13</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H129" s="6">
         <v>5</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N129" s="4" t="b">
         <v>0</v>
@@ -7914,13 +7911,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -7929,25 +7926,25 @@
         <v>13</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N130" s="4" t="b">
         <v>0</v>
@@ -7958,13 +7955,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D131" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -7973,25 +7970,25 @@
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H131" s="6">
         <v>6</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N131" s="4" t="b">
         <v>0</v>
@@ -8002,13 +7999,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -8017,25 +8014,25 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H132" s="6">
         <v>6</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N132" s="4" t="b">
         <v>0</v>
@@ -8046,22 +8043,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H133" s="6">
         <v>10</v>
@@ -8070,16 +8067,16 @@
         <v>15</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N133" s="4" t="b">
         <v>0</v>
@@ -8090,13 +8087,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D134" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -8105,7 +8102,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H134" s="6">
         <v>5</v>
@@ -8114,16 +8111,16 @@
         <v>15</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N134" s="4" t="b">
         <v>0</v>
@@ -8134,13 +8131,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D135" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -8149,7 +8146,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
@@ -8158,16 +8155,16 @@
         <v>15</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N135" s="4" t="b">
         <v>0</v>
@@ -8178,40 +8175,40 @@
         <v>134</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" t="s">
+        <v>515</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="D136" t="s">
-        <v>516</v>
-      </c>
-      <c r="E136" s="7">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="H136" s="6">
         <v>6</v>
       </c>
       <c r="I136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M136" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N136" s="4" t="b">
         <v>0</v>
@@ -8222,13 +8219,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="D137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -8237,25 +8234,25 @@
         <v>13</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H137" s="6">
         <v>3</v>
       </c>
       <c r="I137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M137" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K137" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L137" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N137" s="4" t="b">
         <v>0</v>
@@ -8266,13 +8263,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D138" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -8281,7 +8278,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H138" s="6">
         <v>6</v>
@@ -8290,16 +8287,16 @@
         <v>15</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N138" s="4" t="b">
         <v>0</v>
@@ -8310,13 +8307,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="D139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -8325,25 +8322,25 @@
         <v>13</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H139" s="6">
         <v>4</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N139" s="4" t="b">
         <v>0</v>
@@ -8354,13 +8351,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="D140" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -8369,25 +8366,25 @@
         <v>13</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H140" s="6">
         <v>6</v>
       </c>
       <c r="I140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M140" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N140" s="4" t="b">
         <v>0</v>
@@ -8398,13 +8395,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D141" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -8413,25 +8410,25 @@
         <v>13</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H141" s="6">
         <v>6</v>
       </c>
       <c r="I141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M141" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N141" s="4" t="b">
         <v>0</v>
@@ -8442,13 +8439,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D142" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -8457,25 +8454,25 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H142" s="6">
         <v>6</v>
       </c>
       <c r="I142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M142" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L142" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N142" s="4" t="b">
         <v>0</v>
@@ -8486,13 +8483,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="D143" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -8501,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H143" s="6">
         <v>3</v>
@@ -8510,16 +8507,16 @@
         <v>15</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N143" s="4" t="b">
         <v>0</v>
@@ -8530,13 +8527,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D144" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -8545,7 +8542,7 @@
         <v>13</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H144" s="6">
         <v>3</v>
@@ -8554,16 +8551,16 @@
         <v>15</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N144" s="4" t="b">
         <v>0</v>
@@ -8574,13 +8571,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D145" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -8589,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H145" s="6">
         <v>3</v>
@@ -8598,16 +8595,16 @@
         <v>15</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N145" s="4" t="b">
         <v>0</v>
@@ -8618,13 +8615,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="D146" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -8633,25 +8630,25 @@
         <v>13</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H146" s="6">
         <v>10</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N146" s="4" t="b">
         <v>0</v>
@@ -8662,13 +8659,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="D147" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -8677,25 +8674,25 @@
         <v>13</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H147" s="6">
         <v>2</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N147" s="4" t="b">
         <v>0</v>
@@ -8706,13 +8703,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -8721,25 +8718,25 @@
         <v>13</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H148" s="6">
         <v>2</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N148" s="4" t="b">
         <v>0</v>
@@ -8750,13 +8747,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -8765,25 +8762,25 @@
         <v>13</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H149" s="6">
         <v>2</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N149" s="4" t="b">
         <v>0</v>
@@ -8794,13 +8791,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="D150" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -8809,25 +8806,25 @@
         <v>13</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H150" s="6">
         <v>6</v>
       </c>
       <c r="I150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M150" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L150" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M150" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N150" s="4" t="b">
         <v>0</v>
@@ -8838,13 +8835,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="D151" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -8853,25 +8850,25 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H151" s="6">
         <v>0</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N151" s="4" t="b">
         <v>0</v>
@@ -8882,13 +8879,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D152" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -8897,25 +8894,25 @@
         <v>13</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H152" s="6">
         <v>0</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N152" s="4" t="b">
         <v>0</v>
@@ -8926,13 +8923,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -8941,25 +8938,25 @@
         <v>13</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H153" s="6">
         <v>0</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N153" s="4" t="b">
         <v>0</v>
@@ -8970,13 +8967,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="D154" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -8985,7 +8982,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H154" s="6">
         <v>5</v>
@@ -8994,16 +8991,16 @@
         <v>15</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N154" s="4" t="b">
         <v>0</v>
@@ -9014,13 +9011,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D155" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -9029,7 +9026,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H155" s="6">
         <v>5</v>
@@ -9038,16 +9035,16 @@
         <v>15</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N155" s="4" t="b">
         <v>0</v>
@@ -9058,13 +9055,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -9073,7 +9070,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H156" s="6">
         <v>5</v>
@@ -9082,16 +9079,16 @@
         <v>15</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N156" s="4" t="b">
         <v>0</v>
@@ -9102,13 +9099,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="D157" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -9117,25 +9114,25 @@
         <v>13</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H157" s="6">
         <v>6</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N157" s="4" t="b">
         <v>0</v>
@@ -9146,13 +9143,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="D158" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -9161,25 +9158,25 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H158" s="6">
         <v>10</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N158" s="4" t="b">
         <v>0</v>
@@ -9190,13 +9187,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="D159" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -9205,7 +9202,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H159" s="6">
         <v>10</v>
@@ -9214,16 +9211,16 @@
         <v>15</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N159" s="4" t="b">
         <v>0</v>
@@ -9234,13 +9231,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="D160" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -9249,7 +9246,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H160" s="6">
         <v>5</v>
@@ -9258,16 +9255,16 @@
         <v>15</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N160" s="4" t="b">
         <v>0</v>
@@ -9278,13 +9275,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D161" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -9293,7 +9290,7 @@
         <v>13</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H161" s="6">
         <v>5</v>
@@ -9302,16 +9299,16 @@
         <v>15</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N161" s="4" t="b">
         <v>0</v>
@@ -9322,13 +9319,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D162" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -9337,7 +9334,7 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H162" s="6">
         <v>5</v>
@@ -9346,16 +9343,16 @@
         <v>15</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N162" s="4" t="b">
         <v>0</v>
@@ -9366,13 +9363,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D163" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -9381,7 +9378,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H163" s="6">
         <v>5</v>
@@ -9390,16 +9387,16 @@
         <v>15</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N163" s="4" t="b">
         <v>0</v>
@@ -9410,13 +9407,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D164" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -9425,7 +9422,7 @@
         <v>13</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H164" s="6">
         <v>5</v>
@@ -9434,16 +9431,16 @@
         <v>15</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N164" s="4" t="b">
         <v>0</v>
@@ -9454,13 +9451,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="D165" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -9469,25 +9466,25 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H165" s="6">
         <v>10</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N165" s="4" t="b">
         <v>0</v>
@@ -9498,13 +9495,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -9513,25 +9510,25 @@
         <v>13</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H166" s="6">
         <v>1</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N166" s="4" t="b">
         <v>0</v>
@@ -9542,13 +9539,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="D167" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -9557,25 +9554,25 @@
         <v>13</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H167" s="6">
         <v>8</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N167" s="4" t="b">
         <v>0</v>
@@ -9586,13 +9583,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -9601,25 +9598,25 @@
         <v>13</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H168" s="6">
         <v>10</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N168" s="4" t="b">
         <v>0</v>
@@ -9630,13 +9627,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="D169" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -9645,25 +9642,25 @@
         <v>13</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H169" s="6">
         <v>2</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N169" s="4" t="b">
         <v>0</v>
@@ -9674,13 +9671,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="D170" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -9689,25 +9686,25 @@
         <v>13</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H170" s="6">
         <v>4</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N170" s="4" t="b">
         <v>0</v>
@@ -9718,13 +9715,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="D171" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -9733,25 +9730,25 @@
         <v>13</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H171" s="6">
         <v>5</v>
       </c>
       <c r="I171" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M171" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L171" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M171" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N171" s="4" t="b">
         <v>0</v>
@@ -9762,13 +9759,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D172" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -9777,25 +9774,25 @@
         <v>13</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H172" s="6">
         <v>5</v>
       </c>
       <c r="I172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M172" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L172" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M172" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N172" s="4" t="b">
         <v>0</v>
@@ -9806,13 +9803,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="D173" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -9821,25 +9818,25 @@
         <v>13</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H173" s="6">
         <v>6</v>
       </c>
       <c r="I173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M173" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L173" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M173" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N173" s="4" t="b">
         <v>0</v>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\GwentCore\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junce\Source\Repos\GwentCore\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6529,15 +6529,21 @@
       <c r="H98" s="6">
         <v>6</v>
       </c>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="K98" s="6" t="s">
         <v>306</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="M98" s="6"/>
+      <c r="M98" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N98" s="4" t="b">
         <v>0</v>
       </c>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junce\Source\Repos\GwentCore\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\GwentCore\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -405,14 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cirilla Finoa Elen Riannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cirilla Finoa Elen Riannon 2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Know when fairy tales cease to be tales?  When people start believing in them.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +434,6 @@
   </si>
   <si>
     <t>Emiel Regis Rohellec Terzieff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emiel Regis Rohellec Terzieff 2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1823,6 +1811,18 @@
   </si>
   <si>
     <t>We are the drops of rain that together make a ferocious storm.</t>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Fiona Elen Riannon 2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cirilla Fiona Elen Riannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2257,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2286,37 +2286,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" t="s">
-        <v>212</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
         <v>213</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>214</v>
-      </c>
-      <c r="K2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M2" t="s">
-        <v>217</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2834,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2860,7 +2860,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
@@ -2904,7 +2904,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
         <v>93</v>
@@ -2948,7 +2948,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -2966,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -2992,7 +2992,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -3036,7 +3036,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -3080,7 +3080,7 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
@@ -3124,7 +3124,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
@@ -3300,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -3344,7 +3344,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -3388,7 +3388,7 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
@@ -3432,7 +3432,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -3450,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -3476,7 +3476,7 @@
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
@@ -3520,7 +3520,7 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
         <v>76</v>
@@ -3538,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
@@ -3638,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
@@ -3764,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
@@ -3814,7 +3814,7 @@
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -3990,7 +3990,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -4048,7 +4048,7 @@
         <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
@@ -4089,22 +4089,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>536</v>
+      </c>
+      <c r="C43" t="s">
+        <v>535</v>
+      </c>
+      <c r="D43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
       </c>
       <c r="H43" s="2">
         <v>15</v>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -4133,22 +4133,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>124</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>126</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>534</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H45" s="2">
         <v>5</v>
@@ -4207,7 +4207,7 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s">
         <v>99</v>
@@ -4221,13 +4221,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -4236,7 +4236,7 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
@@ -4254,7 +4254,7 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -4265,13 +4265,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -4280,7 +4280,7 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H47" s="2">
         <v>15</v>
@@ -4289,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -4309,13 +4309,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -4342,7 +4342,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -4353,13 +4353,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H49" s="2">
         <v>7</v>
@@ -4377,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -4397,13 +4397,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
@@ -4421,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -4441,13 +4441,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H51" s="2">
         <v>7</v>
@@ -4465,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -4474,7 +4474,7 @@
         <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -4485,13 +4485,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H52" s="2">
         <v>7</v>
@@ -4509,7 +4509,7 @@
         <v>36</v>
       </c>
       <c r="J52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -4518,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -4529,13 +4529,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H53" s="2">
         <v>5</v>
@@ -4553,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -4573,40 +4573,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E54" s="4">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -4617,40 +4617,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E55" s="4">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -4661,40 +4661,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E56" s="4">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -4705,40 +4705,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E57" s="4">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -4749,40 +4749,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E58" s="4">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -4793,40 +4793,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E59" s="4">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -4837,40 +4837,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E60" s="4">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D61" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E61" s="7">
         <v>1</v>
@@ -4896,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H61" s="6">
         <v>2</v>
@@ -4905,13 +4905,13 @@
         <v>36</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>27</v>
@@ -4925,13 +4925,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4940,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -4949,13 +4949,13 @@
         <v>36</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>27</v>
@@ -4969,13 +4969,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -4984,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H63" s="6">
         <v>10</v>
@@ -4993,13 +4993,13 @@
         <v>36</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>27</v>
@@ -5013,13 +5013,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D64" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H64" s="6">
         <v>10</v>
@@ -5037,13 +5037,13 @@
         <v>36</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>27</v>
@@ -5057,13 +5057,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H65" s="6">
         <v>6</v>
@@ -5081,13 +5081,13 @@
         <v>15</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>27</v>
@@ -5101,13 +5101,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -5116,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H66" s="6">
         <v>4</v>
@@ -5125,13 +5125,13 @@
         <v>36</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>27</v>
@@ -5145,13 +5145,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -5160,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -5169,16 +5169,16 @@
         <v>36</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N67" s="4" t="b">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
@@ -5204,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H68" s="6">
         <v>1</v>
@@ -5213,16 +5213,16 @@
         <v>36</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N68" s="4" t="b">
         <v>0</v>
@@ -5233,13 +5233,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D69" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -5248,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H69" s="6">
         <v>6</v>
@@ -5257,16 +5257,16 @@
         <v>36</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N69" s="4" t="b">
         <v>0</v>
@@ -5277,13 +5277,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5292,22 +5292,22 @@
         <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H70" s="6">
         <v>10</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>27</v>
@@ -5321,13 +5321,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D71" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H71" s="6">
         <v>3</v>
@@ -5345,16 +5345,16 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N71" s="4" t="b">
         <v>0</v>
@@ -5365,13 +5365,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D72" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H72" s="6">
         <v>3</v>
@@ -5389,16 +5389,16 @@
         <v>15</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N72" s="4" t="b">
         <v>0</v>
@@ -5409,13 +5409,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D73" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H73" s="6">
         <v>3</v>
@@ -5433,16 +5433,16 @@
         <v>15</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N73" s="4" t="b">
         <v>0</v>
@@ -5453,13 +5453,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -5468,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H74" s="6">
         <v>3</v>
@@ -5477,16 +5477,16 @@
         <v>15</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N74" s="4" t="b">
         <v>0</v>
@@ -5497,22 +5497,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -5521,16 +5521,16 @@
         <v>15</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N75" s="4" t="b">
         <v>0</v>
@@ -5541,22 +5541,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H76" s="6">
         <v>10</v>
@@ -5565,16 +5565,16 @@
         <v>15</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N76" s="4" t="b">
         <v>0</v>
@@ -5585,13 +5585,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H77" s="6">
         <v>3</v>
@@ -5609,13 +5609,13 @@
         <v>15</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>27</v>
@@ -5629,40 +5629,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D78" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N78" s="4" t="b">
         <v>0</v>
@@ -5673,13 +5673,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -5688,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H79" s="6">
         <v>2</v>
@@ -5697,16 +5697,16 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N79" s="4" t="b">
         <v>0</v>
@@ -5717,13 +5717,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H80" s="6">
         <v>2</v>
@@ -5741,16 +5741,16 @@
         <v>15</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N80" s="4" t="b">
         <v>0</v>
@@ -5761,13 +5761,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D81" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
@@ -5776,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H81" s="6">
         <v>2</v>
@@ -5785,16 +5785,16 @@
         <v>15</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N81" s="4" t="b">
         <v>0</v>
@@ -5805,13 +5805,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -5820,7 +5820,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H82" s="6">
         <v>3</v>
@@ -5829,13 +5829,13 @@
         <v>36</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>27</v>
@@ -5849,13 +5849,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -5864,7 +5864,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H83" s="6">
         <v>4</v>
@@ -5873,13 +5873,13 @@
         <v>15</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>27</v>
@@ -5893,13 +5893,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D84" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>13</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H84" s="6">
         <v>5</v>
@@ -5917,13 +5917,13 @@
         <v>36</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>27</v>
@@ -5937,13 +5937,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D85" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -5952,22 +5952,22 @@
         <v>13</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H85" s="6">
         <v>3</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>27</v>
@@ -5981,13 +5981,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H86" s="6">
         <v>7</v>
@@ -6005,16 +6005,16 @@
         <v>15</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N86" s="4" t="b">
         <v>0</v>
@@ -6025,13 +6025,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -6040,22 +6040,22 @@
         <v>13</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H87" s="6">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>27</v>
@@ -6069,13 +6069,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -6084,25 +6084,25 @@
         <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H88" s="6">
         <v>0</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N88" s="4" t="b">
         <v>0</v>
@@ -6113,13 +6113,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H89" s="6">
         <v>9</v>
@@ -6137,16 +6137,16 @@
         <v>15</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N89" s="4" t="b">
         <v>0</v>
@@ -6157,13 +6157,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -6172,7 +6172,7 @@
         <v>13</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H90" s="6">
         <v>2</v>
@@ -6181,13 +6181,13 @@
         <v>36</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>27</v>
@@ -6201,22 +6201,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D91" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H91" s="6">
         <v>10</v>
@@ -6225,16 +6225,16 @@
         <v>36</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N91" s="4" t="b">
         <v>0</v>
@@ -6245,13 +6245,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D92" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -6260,7 +6260,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H92" s="6">
         <v>4</v>
@@ -6269,13 +6269,13 @@
         <v>36</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>27</v>
@@ -6289,13 +6289,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D93" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H93" s="6">
         <v>4</v>
@@ -6313,16 +6313,16 @@
         <v>15</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N93" s="4" t="b">
         <v>0</v>
@@ -6333,13 +6333,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D94" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H94" s="6">
         <v>2</v>
@@ -6357,13 +6357,13 @@
         <v>15</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M94" s="6" t="s">
         <v>27</v>
@@ -6377,13 +6377,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D95" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -6392,25 +6392,25 @@
         <v>13</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H95" s="6">
         <v>5</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N95" s="4" t="b">
         <v>0</v>
@@ -6421,13 +6421,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -6436,25 +6436,25 @@
         <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N96" s="4" t="b">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D97" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6480,22 +6480,22 @@
         <v>13</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>27</v>
@@ -6509,13 +6509,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6524,22 +6524,22 @@
         <v>13</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H98" s="6">
         <v>6</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>27</v>
@@ -6553,13 +6553,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D99" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6568,22 +6568,22 @@
         <v>13</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H99" s="6">
         <v>6</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>27</v>
@@ -6597,13 +6597,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D100" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H100" s="6">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N100" s="4" t="b">
         <v>0</v>
@@ -6641,13 +6641,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D101" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H101" s="6">
         <v>4</v>
@@ -6665,16 +6665,16 @@
         <v>15</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N101" s="4" t="b">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D102" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E102" s="7">
         <v>2</v>
@@ -6700,7 +6700,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H102" s="6">
         <v>4</v>
@@ -6709,16 +6709,16 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N102" s="4" t="b">
         <v>0</v>
@@ -6729,13 +6729,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D103" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6744,25 +6744,25 @@
         <v>13</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H103" s="6">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N103" s="4" t="b">
         <v>0</v>
@@ -6773,13 +6773,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D104" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6788,25 +6788,25 @@
         <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H104" s="6">
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N104" s="4" t="b">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H105" s="6">
         <v>5</v>
@@ -6841,16 +6841,16 @@
         <v>36</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N105" s="4" t="b">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D106" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
@@ -6885,16 +6885,16 @@
         <v>36</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N106" s="4" t="b">
         <v>0</v>
@@ -6905,13 +6905,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6920,7 +6920,7 @@
         <v>13</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
@@ -6929,16 +6929,16 @@
         <v>36</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N107" s="4" t="b">
         <v>0</v>
@@ -6949,13 +6949,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D108" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>13</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H108" s="6">
         <v>6</v>
@@ -6973,16 +6973,16 @@
         <v>36</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N108" s="4" t="b">
         <v>0</v>
@@ -6993,13 +6993,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D109" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -7008,25 +7008,25 @@
         <v>13</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H109" s="6">
         <v>5</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N109" s="4" t="b">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D110" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -7052,7 +7052,7 @@
         <v>13</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H110" s="6">
         <v>10</v>
@@ -7061,16 +7061,16 @@
         <v>15</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N110" s="4" t="b">
         <v>0</v>
@@ -7081,13 +7081,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D111" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H111" s="6">
         <v>10</v>
@@ -7105,16 +7105,16 @@
         <v>15</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N111" s="4" t="b">
         <v>0</v>
@@ -7125,13 +7125,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -7140,25 +7140,25 @@
         <v>13</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H112" s="6">
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N112" s="4" t="b">
         <v>0</v>
@@ -7169,13 +7169,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -7184,25 +7184,25 @@
         <v>13</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N113" s="4" t="b">
         <v>0</v>
@@ -7213,13 +7213,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D114" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -7228,25 +7228,25 @@
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N114" s="4" t="b">
         <v>0</v>
@@ -7257,13 +7257,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D115" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H115" s="6">
         <v>5</v>
@@ -7281,13 +7281,13 @@
         <v>36</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M115" s="6" t="s">
         <v>27</v>
@@ -7301,13 +7301,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D116" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>13</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H116" s="6">
         <v>10</v>
@@ -7325,16 +7325,16 @@
         <v>36</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N116" s="4" t="b">
         <v>0</v>
@@ -7345,13 +7345,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D117" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>13</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -7369,16 +7369,16 @@
         <v>15</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N117" s="4" t="b">
         <v>0</v>
@@ -7389,13 +7389,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D118" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -7413,16 +7413,16 @@
         <v>15</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N118" s="4" t="b">
         <v>0</v>
@@ -7433,13 +7433,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D119" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E119" s="7">
         <v>2</v>
@@ -7448,7 +7448,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -7457,16 +7457,16 @@
         <v>15</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N119" s="4" t="b">
         <v>0</v>
@@ -7477,13 +7477,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H120" s="6">
         <v>5</v>
@@ -7501,16 +7501,16 @@
         <v>15</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N120" s="4" t="b">
         <v>0</v>
@@ -7521,13 +7521,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D121" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -7536,7 +7536,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -7545,13 +7545,13 @@
         <v>15</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M121" s="6" t="s">
         <v>27</v>
@@ -7565,13 +7565,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D122" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -7580,7 +7580,7 @@
         <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -7589,16 +7589,16 @@
         <v>15</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N122" s="4" t="b">
         <v>0</v>
@@ -7609,13 +7609,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D123" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>13</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H123" s="6">
         <v>4</v>
@@ -7633,13 +7633,13 @@
         <v>36</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M123" s="6" t="s">
         <v>27</v>
@@ -7653,13 +7653,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D124" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H124" s="6">
         <v>4</v>
@@ -7677,13 +7677,13 @@
         <v>36</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M124" s="6" t="s">
         <v>27</v>
@@ -7697,13 +7697,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -7712,22 +7712,22 @@
         <v>13</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H125" s="6">
         <v>6</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>27</v>
@@ -7741,13 +7741,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -7756,25 +7756,25 @@
         <v>13</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H126" s="6">
         <v>6</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N126" s="4" t="b">
         <v>0</v>
@@ -7785,13 +7785,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D127" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H127" s="6">
         <v>5</v>
@@ -7809,13 +7809,13 @@
         <v>15</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>27</v>
@@ -7829,13 +7829,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D128" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H128" s="6">
         <v>4</v>
@@ -7853,16 +7853,16 @@
         <v>15</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N128" s="4" t="b">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D129" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -7888,7 +7888,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H129" s="6">
         <v>5</v>
@@ -7897,13 +7897,13 @@
         <v>36</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>27</v>
@@ -7917,13 +7917,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D130" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -7932,25 +7932,25 @@
         <v>13</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N130" s="4" t="b">
         <v>0</v>
@@ -7961,13 +7961,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D131" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -7976,22 +7976,22 @@
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H131" s="6">
         <v>6</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M131" s="6" t="s">
         <v>27</v>
@@ -8005,13 +8005,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -8020,25 +8020,25 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H132" s="6">
         <v>6</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N132" s="4" t="b">
         <v>0</v>
@@ -8049,22 +8049,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D133" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H133" s="6">
         <v>10</v>
@@ -8073,16 +8073,16 @@
         <v>15</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N133" s="4" t="b">
         <v>0</v>
@@ -8093,13 +8093,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D134" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -8108,7 +8108,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H134" s="6">
         <v>5</v>
@@ -8117,13 +8117,13 @@
         <v>15</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M134" s="6" t="s">
         <v>27</v>
@@ -8137,13 +8137,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D135" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
@@ -8161,13 +8161,13 @@
         <v>15</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M135" s="6" t="s">
         <v>27</v>
@@ -8181,13 +8181,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D136" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E136" s="7">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>13</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H136" s="6">
         <v>6</v>
@@ -8205,13 +8205,13 @@
         <v>31</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>32</v>
@@ -8225,13 +8225,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>13</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H137" s="6">
         <v>3</v>
@@ -8249,13 +8249,13 @@
         <v>31</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M137" s="6" t="s">
         <v>32</v>
@@ -8269,13 +8269,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D138" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H138" s="6">
         <v>6</v>
@@ -8293,13 +8293,13 @@
         <v>15</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M138" s="6" t="s">
         <v>27</v>
@@ -8313,13 +8313,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D139" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>13</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H139" s="6">
         <v>4</v>
@@ -8337,13 +8337,13 @@
         <v>36</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M139" s="6" t="s">
         <v>27</v>
@@ -8357,13 +8357,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D140" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -8372,7 +8372,7 @@
         <v>13</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H140" s="6">
         <v>6</v>
@@ -8381,13 +8381,13 @@
         <v>31</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>32</v>
@@ -8401,13 +8401,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D141" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -8416,7 +8416,7 @@
         <v>13</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H141" s="6">
         <v>6</v>
@@ -8425,13 +8425,13 @@
         <v>31</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>32</v>
@@ -8445,13 +8445,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D142" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H142" s="6">
         <v>6</v>
@@ -8469,13 +8469,13 @@
         <v>31</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>32</v>
@@ -8489,13 +8489,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D143" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -8504,7 +8504,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H143" s="6">
         <v>3</v>
@@ -8513,16 +8513,16 @@
         <v>15</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L143" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M143" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N143" s="4" t="b">
         <v>0</v>
@@ -8533,13 +8533,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D144" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -8548,7 +8548,7 @@
         <v>13</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H144" s="6">
         <v>3</v>
@@ -8557,16 +8557,16 @@
         <v>15</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L144" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M144" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M144" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N144" s="4" t="b">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D145" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>13</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H145" s="6">
         <v>3</v>
@@ -8601,16 +8601,16 @@
         <v>15</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L145" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M145" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M145" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N145" s="4" t="b">
         <v>0</v>
@@ -8621,13 +8621,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D146" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>13</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H146" s="6">
         <v>10</v>
@@ -8645,16 +8645,16 @@
         <v>36</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L146" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M146" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M146" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N146" s="4" t="b">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D147" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -8680,7 +8680,7 @@
         <v>13</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H147" s="6">
         <v>2</v>
@@ -8689,16 +8689,16 @@
         <v>36</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L147" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M147" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M147" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N147" s="4" t="b">
         <v>0</v>
@@ -8709,13 +8709,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D148" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>13</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H148" s="6">
         <v>2</v>
@@ -8733,16 +8733,16 @@
         <v>36</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L148" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M148" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M148" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N148" s="4" t="b">
         <v>0</v>
@@ -8753,13 +8753,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D149" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H149" s="6">
         <v>2</v>
@@ -8777,16 +8777,16 @@
         <v>36</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L149" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M149" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M149" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N149" s="4" t="b">
         <v>0</v>
@@ -8797,13 +8797,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D150" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -8812,7 +8812,7 @@
         <v>13</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H150" s="6">
         <v>6</v>
@@ -8821,13 +8821,13 @@
         <v>31</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>32</v>
@@ -8841,13 +8841,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D151" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -8856,7 +8856,7 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H151" s="6">
         <v>0</v>
@@ -8865,16 +8865,16 @@
         <v>36</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N151" s="4" t="b">
         <v>0</v>
@@ -8885,13 +8885,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D152" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -8900,7 +8900,7 @@
         <v>13</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H152" s="6">
         <v>0</v>
@@ -8909,16 +8909,16 @@
         <v>36</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N152" s="4" t="b">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="D153" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -8944,7 +8944,7 @@
         <v>13</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H153" s="6">
         <v>0</v>
@@ -8953,16 +8953,16 @@
         <v>36</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N153" s="4" t="b">
         <v>0</v>
@@ -8973,13 +8973,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D154" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H154" s="6">
         <v>5</v>
@@ -8997,16 +8997,16 @@
         <v>15</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L154" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M154" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M154" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N154" s="4" t="b">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D155" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -9032,7 +9032,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H155" s="6">
         <v>5</v>
@@ -9041,16 +9041,16 @@
         <v>15</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L155" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M155" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M155" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N155" s="4" t="b">
         <v>0</v>
@@ -9061,13 +9061,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="D156" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H156" s="6">
         <v>5</v>
@@ -9085,16 +9085,16 @@
         <v>15</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L156" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M156" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="M156" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="N156" s="4" t="b">
         <v>0</v>
@@ -9105,13 +9105,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D157" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -9120,7 +9120,7 @@
         <v>13</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H157" s="6">
         <v>6</v>
@@ -9129,13 +9129,13 @@
         <v>36</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M157" s="6" t="s">
         <v>27</v>
@@ -9149,13 +9149,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D158" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -9164,7 +9164,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H158" s="6">
         <v>10</v>
@@ -9173,13 +9173,13 @@
         <v>36</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M158" s="6" t="s">
         <v>27</v>
@@ -9193,13 +9193,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D159" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H159" s="6">
         <v>10</v>
@@ -9217,16 +9217,16 @@
         <v>15</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N159" s="4" t="b">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D160" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H160" s="6">
         <v>5</v>
@@ -9261,13 +9261,13 @@
         <v>15</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M160" s="6" t="s">
         <v>27</v>
@@ -9281,13 +9281,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D161" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -9296,7 +9296,7 @@
         <v>13</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H161" s="6">
         <v>5</v>
@@ -9305,13 +9305,13 @@
         <v>15</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>27</v>
@@ -9325,13 +9325,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="D162" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H162" s="6">
         <v>5</v>
@@ -9349,13 +9349,13 @@
         <v>15</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M162" s="6" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D163" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H163" s="6">
         <v>5</v>
@@ -9393,13 +9393,13 @@
         <v>15</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M163" s="6" t="s">
         <v>27</v>
@@ -9413,13 +9413,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D164" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>13</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H164" s="6">
         <v>5</v>
@@ -9437,13 +9437,13 @@
         <v>15</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>27</v>
@@ -9457,13 +9457,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D165" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H165" s="6">
         <v>10</v>
@@ -9481,16 +9481,16 @@
         <v>36</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N165" s="4" t="b">
         <v>0</v>
@@ -9501,13 +9501,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>13</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H166" s="6">
         <v>1</v>
@@ -9525,13 +9525,13 @@
         <v>36</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M166" s="6" t="s">
         <v>27</v>
@@ -9545,13 +9545,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D167" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -9560,25 +9560,25 @@
         <v>13</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H167" s="6">
         <v>8</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N167" s="4" t="b">
         <v>0</v>
@@ -9589,13 +9589,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D168" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -9604,7 +9604,7 @@
         <v>13</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H168" s="6">
         <v>10</v>
@@ -9613,13 +9613,13 @@
         <v>36</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M168" s="6" t="s">
         <v>27</v>
@@ -9633,13 +9633,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D169" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>13</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H169" s="6">
         <v>2</v>
@@ -9657,13 +9657,13 @@
         <v>36</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M169" s="6" t="s">
         <v>27</v>
@@ -9677,13 +9677,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D170" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>13</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H170" s="6">
         <v>4</v>
@@ -9701,13 +9701,13 @@
         <v>36</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M170" s="6" t="s">
         <v>27</v>
@@ -9721,13 +9721,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D171" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>13</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H171" s="6">
         <v>5</v>
@@ -9745,13 +9745,13 @@
         <v>31</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M171" s="6" t="s">
         <v>32</v>
@@ -9765,13 +9765,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D172" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -9780,7 +9780,7 @@
         <v>13</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H172" s="6">
         <v>5</v>
@@ -9789,13 +9789,13 @@
         <v>31</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M172" s="6" t="s">
         <v>32</v>
@@ -9809,13 +9809,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -9824,7 +9824,7 @@
         <v>13</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H173" s="6">
         <v>6</v>
@@ -9833,13 +9833,13 @@
         <v>31</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>32</v>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="536">
   <si>
     <t>Name</t>
   </si>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>Albrich</t>
-  </si>
-  <si>
-    <t>Nilfgaarian</t>
   </si>
   <si>
     <t>Ordinary</t>
@@ -964,10 +961,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nilfgaarian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ordinary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1823,6 +1816,9 @@
   <si>
     <t>Cirilla Fiona Elen Riannon</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nilfgaardian</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2834,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2966,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -3450,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -3538,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
@@ -3550,7 +3546,7 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -3638,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -3682,7 +3678,7 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -3726,7 +3722,7 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -3764,7 +3760,7 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
@@ -3814,7 +3810,7 @@
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -3858,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -3902,7 +3898,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -3946,7 +3942,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -3990,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -4089,10 +4085,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D43" t="s">
         <v>118</v>
@@ -4166,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -4180,7 +4176,7 @@
         <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
@@ -4207,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s">
         <v>99</v>
@@ -4254,7 +4250,7 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -4342,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -4474,7 +4470,7 @@
         <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -4606,7 +4602,7 @@
         <v>163</v>
       </c>
       <c r="M54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -4650,7 +4646,7 @@
         <v>167</v>
       </c>
       <c r="M55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -4694,7 +4690,7 @@
         <v>171</v>
       </c>
       <c r="M56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -4738,7 +4734,7 @@
         <v>175</v>
       </c>
       <c r="M57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -4782,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -4826,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -4870,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -4884,10 +4880,10 @@
         <v>217</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E61" s="7">
         <v>1</v>
@@ -4896,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H61" s="6">
         <v>2</v>
@@ -4905,13 +4901,13 @@
         <v>36</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>27</v>
@@ -4925,13 +4921,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D62" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4940,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -4949,13 +4945,13 @@
         <v>36</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>27</v>
@@ -4969,13 +4965,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -4984,7 +4980,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H63" s="6">
         <v>10</v>
@@ -4993,13 +4989,13 @@
         <v>36</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>27</v>
@@ -5013,13 +5009,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D64" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -5028,7 +5024,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H64" s="6">
         <v>10</v>
@@ -5037,13 +5033,13 @@
         <v>36</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>27</v>
@@ -5057,13 +5053,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D65" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -5072,7 +5068,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H65" s="6">
         <v>6</v>
@@ -5081,13 +5077,13 @@
         <v>15</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>27</v>
@@ -5101,13 +5097,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D66" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -5116,7 +5112,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H66" s="6">
         <v>4</v>
@@ -5125,13 +5121,13 @@
         <v>36</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>27</v>
@@ -5145,13 +5141,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -5160,7 +5156,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -5169,16 +5165,16 @@
         <v>36</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N67" s="4" t="b">
         <v>0</v>
@@ -5189,13 +5185,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D68" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
@@ -5204,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H68" s="6">
         <v>1</v>
@@ -5213,16 +5209,16 @@
         <v>36</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N68" s="4" t="b">
         <v>0</v>
@@ -5233,13 +5229,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -5248,7 +5244,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H69" s="6">
         <v>6</v>
@@ -5257,16 +5253,16 @@
         <v>36</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N69" s="4" t="b">
         <v>0</v>
@@ -5277,13 +5273,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D70" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5292,22 +5288,22 @@
         <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H70" s="6">
         <v>10</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>27</v>
@@ -5321,13 +5317,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -5336,7 +5332,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H71" s="6">
         <v>3</v>
@@ -5345,16 +5341,16 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N71" s="4" t="b">
         <v>0</v>
@@ -5365,13 +5361,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -5380,7 +5376,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H72" s="6">
         <v>3</v>
@@ -5389,16 +5385,16 @@
         <v>15</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N72" s="4" t="b">
         <v>0</v>
@@ -5409,13 +5405,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D73" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -5424,7 +5420,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H73" s="6">
         <v>3</v>
@@ -5433,16 +5429,16 @@
         <v>15</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N73" s="4" t="b">
         <v>0</v>
@@ -5453,13 +5449,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -5468,7 +5464,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H74" s="6">
         <v>3</v>
@@ -5477,16 +5473,16 @@
         <v>15</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N74" s="4" t="b">
         <v>0</v>
@@ -5497,22 +5493,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -5521,16 +5517,16 @@
         <v>15</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N75" s="4" t="b">
         <v>0</v>
@@ -5541,22 +5537,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H76" s="6">
         <v>10</v>
@@ -5565,16 +5561,16 @@
         <v>15</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N76" s="4" t="b">
         <v>0</v>
@@ -5585,13 +5581,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -5600,7 +5596,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H77" s="6">
         <v>3</v>
@@ -5609,13 +5605,13 @@
         <v>15</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>27</v>
@@ -5629,40 +5625,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N78" s="4" t="b">
         <v>0</v>
@@ -5673,13 +5669,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -5688,7 +5684,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H79" s="6">
         <v>2</v>
@@ -5697,16 +5693,16 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N79" s="4" t="b">
         <v>0</v>
@@ -5717,13 +5713,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -5732,7 +5728,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H80" s="6">
         <v>2</v>
@@ -5741,16 +5737,16 @@
         <v>15</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N80" s="4" t="b">
         <v>0</v>
@@ -5761,13 +5757,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
@@ -5776,7 +5772,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>268</v>
+        <v>535</v>
       </c>
       <c r="H81" s="6">
         <v>2</v>
@@ -5785,16 +5781,16 @@
         <v>15</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N81" s="4" t="b">
         <v>0</v>
@@ -5805,13 +5801,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D82" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -5820,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H82" s="6">
         <v>3</v>
@@ -5829,13 +5825,13 @@
         <v>36</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>27</v>
@@ -5849,13 +5845,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -5864,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H83" s="6">
         <v>4</v>
@@ -5873,13 +5869,13 @@
         <v>15</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>27</v>
@@ -5893,13 +5889,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -5908,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H84" s="6">
         <v>5</v>
@@ -5917,13 +5913,13 @@
         <v>36</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>27</v>
@@ -5937,13 +5933,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -5952,22 +5948,22 @@
         <v>13</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H85" s="6">
         <v>3</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>27</v>
@@ -5981,13 +5977,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D86" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -5996,7 +5992,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H86" s="6">
         <v>7</v>
@@ -6005,16 +6001,16 @@
         <v>15</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N86" s="4" t="b">
         <v>0</v>
@@ -6025,13 +6021,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -6040,22 +6036,22 @@
         <v>13</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H87" s="6">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>27</v>
@@ -6069,13 +6065,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D88" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -6084,25 +6080,25 @@
         <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="K88" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N88" s="4" t="b">
         <v>0</v>
@@ -6113,13 +6109,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D89" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -6128,7 +6124,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H89" s="6">
         <v>9</v>
@@ -6137,16 +6133,16 @@
         <v>15</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N89" s="4" t="b">
         <v>0</v>
@@ -6157,13 +6153,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D90" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -6172,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H90" s="6">
         <v>2</v>
@@ -6181,13 +6177,13 @@
         <v>36</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>27</v>
@@ -6201,22 +6197,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H91" s="6">
         <v>10</v>
@@ -6225,16 +6221,16 @@
         <v>36</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N91" s="4" t="b">
         <v>0</v>
@@ -6245,13 +6241,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -6260,7 +6256,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H92" s="6">
         <v>4</v>
@@ -6269,13 +6265,13 @@
         <v>36</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>27</v>
@@ -6289,13 +6285,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -6304,7 +6300,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H93" s="6">
         <v>4</v>
@@ -6313,16 +6309,16 @@
         <v>15</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N93" s="4" t="b">
         <v>0</v>
@@ -6333,13 +6329,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -6348,7 +6344,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H94" s="6">
         <v>2</v>
@@ -6357,13 +6353,13 @@
         <v>15</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M94" s="6" t="s">
         <v>27</v>
@@ -6377,13 +6373,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D95" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -6392,25 +6388,25 @@
         <v>13</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H95" s="6">
         <v>5</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N95" s="4" t="b">
         <v>0</v>
@@ -6421,13 +6417,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -6436,25 +6432,25 @@
         <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N96" s="4" t="b">
         <v>0</v>
@@ -6465,13 +6461,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D97" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6480,22 +6476,22 @@
         <v>13</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>27</v>
@@ -6509,13 +6505,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D98" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6524,22 +6520,22 @@
         <v>13</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H98" s="6">
         <v>6</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>27</v>
@@ -6553,13 +6549,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D99" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6568,22 +6564,22 @@
         <v>13</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H99" s="6">
         <v>6</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>27</v>
@@ -6597,13 +6593,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D100" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6612,7 +6608,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H100" s="6">
         <v>4</v>
@@ -6621,16 +6617,16 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N100" s="4" t="b">
         <v>0</v>
@@ -6641,13 +6637,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D101" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6656,7 +6652,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H101" s="6">
         <v>4</v>
@@ -6665,16 +6661,16 @@
         <v>15</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N101" s="4" t="b">
         <v>0</v>
@@ -6685,13 +6681,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D102" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E102" s="7">
         <v>2</v>
@@ -6700,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H102" s="6">
         <v>4</v>
@@ -6709,16 +6705,16 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N102" s="4" t="b">
         <v>0</v>
@@ -6729,13 +6725,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D103" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6744,25 +6740,25 @@
         <v>13</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H103" s="6">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N103" s="4" t="b">
         <v>0</v>
@@ -6773,13 +6769,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6788,25 +6784,25 @@
         <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="6">
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N104" s="4" t="b">
         <v>0</v>
@@ -6817,13 +6813,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D105" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6832,7 +6828,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H105" s="6">
         <v>5</v>
@@ -6841,16 +6837,16 @@
         <v>36</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N105" s="4" t="b">
         <v>0</v>
@@ -6861,13 +6857,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D106" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6876,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
@@ -6885,16 +6881,16 @@
         <v>36</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N106" s="4" t="b">
         <v>0</v>
@@ -6905,13 +6901,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6920,7 +6916,7 @@
         <v>13</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
@@ -6929,16 +6925,16 @@
         <v>36</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N107" s="4" t="b">
         <v>0</v>
@@ -6949,13 +6945,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D108" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6964,7 +6960,7 @@
         <v>13</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H108" s="6">
         <v>6</v>
@@ -6973,16 +6969,16 @@
         <v>36</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N108" s="4" t="b">
         <v>0</v>
@@ -6993,13 +6989,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -7008,25 +7004,25 @@
         <v>13</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H109" s="6">
         <v>5</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N109" s="4" t="b">
         <v>0</v>
@@ -7037,13 +7033,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -7052,7 +7048,7 @@
         <v>13</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H110" s="6">
         <v>10</v>
@@ -7061,16 +7057,16 @@
         <v>15</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N110" s="4" t="b">
         <v>0</v>
@@ -7081,13 +7077,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -7096,7 +7092,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H111" s="6">
         <v>10</v>
@@ -7105,16 +7101,16 @@
         <v>15</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N111" s="4" t="b">
         <v>0</v>
@@ -7125,13 +7121,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D112" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -7140,25 +7136,25 @@
         <v>13</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H112" s="6">
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N112" s="4" t="b">
         <v>0</v>
@@ -7169,13 +7165,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D113" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -7184,25 +7180,25 @@
         <v>13</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N113" s="4" t="b">
         <v>0</v>
@@ -7213,13 +7209,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D114" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -7228,25 +7224,25 @@
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N114" s="4" t="b">
         <v>0</v>
@@ -7257,13 +7253,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D115" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -7272,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H115" s="6">
         <v>5</v>
@@ -7281,13 +7277,13 @@
         <v>36</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M115" s="6" t="s">
         <v>27</v>
@@ -7301,13 +7297,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D116" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -7316,7 +7312,7 @@
         <v>13</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H116" s="6">
         <v>10</v>
@@ -7325,16 +7321,16 @@
         <v>36</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N116" s="4" t="b">
         <v>0</v>
@@ -7345,13 +7341,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -7360,7 +7356,7 @@
         <v>13</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -7369,16 +7365,16 @@
         <v>15</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N117" s="4" t="b">
         <v>0</v>
@@ -7389,13 +7385,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -7404,7 +7400,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -7413,16 +7409,16 @@
         <v>15</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N118" s="4" t="b">
         <v>0</v>
@@ -7433,13 +7429,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D119" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E119" s="7">
         <v>2</v>
@@ -7448,7 +7444,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -7457,16 +7453,16 @@
         <v>15</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N119" s="4" t="b">
         <v>0</v>
@@ -7477,13 +7473,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D120" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -7492,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H120" s="6">
         <v>5</v>
@@ -7501,16 +7497,16 @@
         <v>15</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N120" s="4" t="b">
         <v>0</v>
@@ -7521,13 +7517,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D121" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -7536,7 +7532,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -7545,13 +7541,13 @@
         <v>15</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M121" s="6" t="s">
         <v>27</v>
@@ -7565,13 +7561,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -7580,7 +7576,7 @@
         <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -7589,16 +7585,16 @@
         <v>15</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N122" s="4" t="b">
         <v>0</v>
@@ -7609,13 +7605,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D123" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -7624,7 +7620,7 @@
         <v>13</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H123" s="6">
         <v>4</v>
@@ -7633,13 +7629,13 @@
         <v>36</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M123" s="6" t="s">
         <v>27</v>
@@ -7653,13 +7649,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -7668,7 +7664,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H124" s="6">
         <v>4</v>
@@ -7677,13 +7673,13 @@
         <v>36</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M124" s="6" t="s">
         <v>27</v>
@@ -7697,13 +7693,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D125" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -7712,22 +7708,22 @@
         <v>13</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H125" s="6">
         <v>6</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>27</v>
@@ -7741,13 +7737,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -7756,25 +7752,25 @@
         <v>13</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H126" s="6">
         <v>6</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N126" s="4" t="b">
         <v>0</v>
@@ -7785,13 +7781,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D127" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -7800,7 +7796,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H127" s="6">
         <v>5</v>
@@ -7809,13 +7805,13 @@
         <v>15</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>27</v>
@@ -7829,13 +7825,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D128" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -7844,7 +7840,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H128" s="6">
         <v>4</v>
@@ -7853,16 +7849,16 @@
         <v>15</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N128" s="4" t="b">
         <v>0</v>
@@ -7873,13 +7869,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D129" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -7888,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H129" s="6">
         <v>5</v>
@@ -7897,13 +7893,13 @@
         <v>36</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>27</v>
@@ -7917,13 +7913,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D130" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -7932,25 +7928,25 @@
         <v>13</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N130" s="4" t="b">
         <v>0</v>
@@ -7961,13 +7957,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D131" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -7976,22 +7972,22 @@
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H131" s="6">
         <v>6</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M131" s="6" t="s">
         <v>27</v>
@@ -8005,13 +8001,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -8020,25 +8016,25 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H132" s="6">
         <v>6</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N132" s="4" t="b">
         <v>0</v>
@@ -8049,22 +8045,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D133" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H133" s="6">
         <v>10</v>
@@ -8073,16 +8069,16 @@
         <v>15</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N133" s="4" t="b">
         <v>0</v>
@@ -8093,13 +8089,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D134" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -8108,7 +8104,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H134" s="6">
         <v>5</v>
@@ -8117,13 +8113,13 @@
         <v>15</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M134" s="6" t="s">
         <v>27</v>
@@ -8137,13 +8133,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D135" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -8152,7 +8148,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
@@ -8161,13 +8157,13 @@
         <v>15</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M135" s="6" t="s">
         <v>27</v>
@@ -8181,22 +8177,22 @@
         <v>134</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" t="s">
+        <v>510</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D136" t="s">
-        <v>512</v>
-      </c>
-      <c r="E136" s="7">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H136" s="6">
         <v>6</v>
@@ -8205,13 +8201,13 @@
         <v>31</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>32</v>
@@ -8225,13 +8221,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D137" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -8240,7 +8236,7 @@
         <v>13</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H137" s="6">
         <v>3</v>
@@ -8249,13 +8245,13 @@
         <v>31</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M137" s="6" t="s">
         <v>32</v>
@@ -8269,13 +8265,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D138" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -8284,7 +8280,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H138" s="6">
         <v>6</v>
@@ -8293,13 +8289,13 @@
         <v>15</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M138" s="6" t="s">
         <v>27</v>
@@ -8313,13 +8309,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D139" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -8328,7 +8324,7 @@
         <v>13</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H139" s="6">
         <v>4</v>
@@ -8337,13 +8333,13 @@
         <v>36</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M139" s="6" t="s">
         <v>27</v>
@@ -8357,13 +8353,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D140" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -8372,7 +8368,7 @@
         <v>13</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H140" s="6">
         <v>6</v>
@@ -8381,13 +8377,13 @@
         <v>31</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>32</v>
@@ -8401,13 +8397,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="D141" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -8416,7 +8412,7 @@
         <v>13</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H141" s="6">
         <v>6</v>
@@ -8425,13 +8421,13 @@
         <v>31</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>32</v>
@@ -8445,13 +8441,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D142" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -8460,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H142" s="6">
         <v>6</v>
@@ -8469,13 +8465,13 @@
         <v>31</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>32</v>
@@ -8489,13 +8485,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D143" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -8504,7 +8500,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H143" s="6">
         <v>3</v>
@@ -8513,16 +8509,16 @@
         <v>15</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N143" s="4" t="b">
         <v>0</v>
@@ -8533,13 +8529,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D144" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -8548,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H144" s="6">
         <v>3</v>
@@ -8557,16 +8553,16 @@
         <v>15</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N144" s="4" t="b">
         <v>0</v>
@@ -8577,13 +8573,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -8592,7 +8588,7 @@
         <v>13</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H145" s="6">
         <v>3</v>
@@ -8601,16 +8597,16 @@
         <v>15</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N145" s="4" t="b">
         <v>0</v>
@@ -8621,13 +8617,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D146" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -8636,7 +8632,7 @@
         <v>13</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H146" s="6">
         <v>10</v>
@@ -8645,16 +8641,16 @@
         <v>36</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N146" s="4" t="b">
         <v>0</v>
@@ -8665,13 +8661,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D147" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -8680,7 +8676,7 @@
         <v>13</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H147" s="6">
         <v>2</v>
@@ -8689,16 +8685,16 @@
         <v>36</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N147" s="4" t="b">
         <v>0</v>
@@ -8709,13 +8705,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="D148" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -8724,7 +8720,7 @@
         <v>13</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H148" s="6">
         <v>2</v>
@@ -8733,16 +8729,16 @@
         <v>36</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N148" s="4" t="b">
         <v>0</v>
@@ -8753,13 +8749,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D149" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -8768,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H149" s="6">
         <v>2</v>
@@ -8777,16 +8773,16 @@
         <v>36</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N149" s="4" t="b">
         <v>0</v>
@@ -8797,13 +8793,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D150" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -8812,7 +8808,7 @@
         <v>13</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H150" s="6">
         <v>6</v>
@@ -8821,13 +8817,13 @@
         <v>31</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>32</v>
@@ -8841,13 +8837,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D151" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -8856,7 +8852,7 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H151" s="6">
         <v>0</v>
@@ -8865,16 +8861,16 @@
         <v>36</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N151" s="4" t="b">
         <v>0</v>
@@ -8885,13 +8881,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="D152" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -8900,7 +8896,7 @@
         <v>13</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H152" s="6">
         <v>0</v>
@@ -8909,16 +8905,16 @@
         <v>36</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N152" s="4" t="b">
         <v>0</v>
@@ -8929,13 +8925,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D153" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -8944,7 +8940,7 @@
         <v>13</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H153" s="6">
         <v>0</v>
@@ -8953,16 +8949,16 @@
         <v>36</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N153" s="4" t="b">
         <v>0</v>
@@ -8973,13 +8969,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D154" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -8988,7 +8984,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H154" s="6">
         <v>5</v>
@@ -8997,16 +8993,16 @@
         <v>15</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N154" s="4" t="b">
         <v>0</v>
@@ -9017,13 +9013,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="D155" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -9032,7 +9028,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H155" s="6">
         <v>5</v>
@@ -9041,16 +9037,16 @@
         <v>15</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N155" s="4" t="b">
         <v>0</v>
@@ -9061,13 +9057,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D156" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -9076,7 +9072,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H156" s="6">
         <v>5</v>
@@ -9085,16 +9081,16 @@
         <v>15</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N156" s="4" t="b">
         <v>0</v>
@@ -9105,13 +9101,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D157" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -9120,7 +9116,7 @@
         <v>13</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H157" s="6">
         <v>6</v>
@@ -9129,13 +9125,13 @@
         <v>36</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M157" s="6" t="s">
         <v>27</v>
@@ -9149,13 +9145,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D158" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -9164,7 +9160,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H158" s="6">
         <v>10</v>
@@ -9173,13 +9169,13 @@
         <v>36</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M158" s="6" t="s">
         <v>27</v>
@@ -9193,13 +9189,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D159" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -9208,7 +9204,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H159" s="6">
         <v>10</v>
@@ -9217,16 +9213,16 @@
         <v>15</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N159" s="4" t="b">
         <v>0</v>
@@ -9237,13 +9233,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -9252,7 +9248,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H160" s="6">
         <v>5</v>
@@ -9261,13 +9257,13 @@
         <v>15</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M160" s="6" t="s">
         <v>27</v>
@@ -9281,13 +9277,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="D161" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -9296,7 +9292,7 @@
         <v>13</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H161" s="6">
         <v>5</v>
@@ -9305,13 +9301,13 @@
         <v>15</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>27</v>
@@ -9325,13 +9321,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D162" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -9340,7 +9336,7 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H162" s="6">
         <v>5</v>
@@ -9349,13 +9345,13 @@
         <v>15</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M162" s="6" t="s">
         <v>27</v>
@@ -9369,13 +9365,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D163" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -9384,7 +9380,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H163" s="6">
         <v>5</v>
@@ -9393,13 +9389,13 @@
         <v>15</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M163" s="6" t="s">
         <v>27</v>
@@ -9413,13 +9409,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D164" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -9428,7 +9424,7 @@
         <v>13</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H164" s="6">
         <v>5</v>
@@ -9437,13 +9433,13 @@
         <v>15</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>27</v>
@@ -9457,13 +9453,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D165" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -9472,7 +9468,7 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H165" s="6">
         <v>10</v>
@@ -9481,16 +9477,16 @@
         <v>36</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N165" s="4" t="b">
         <v>0</v>
@@ -9501,13 +9497,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D166" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -9516,7 +9512,7 @@
         <v>13</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H166" s="6">
         <v>1</v>
@@ -9525,13 +9521,13 @@
         <v>36</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M166" s="6" t="s">
         <v>27</v>
@@ -9545,13 +9541,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D167" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -9560,25 +9556,25 @@
         <v>13</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H167" s="6">
         <v>8</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N167" s="4" t="b">
         <v>0</v>
@@ -9589,13 +9585,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -9604,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H168" s="6">
         <v>10</v>
@@ -9613,13 +9609,13 @@
         <v>36</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M168" s="6" t="s">
         <v>27</v>
@@ -9633,13 +9629,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D169" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -9648,7 +9644,7 @@
         <v>13</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H169" s="6">
         <v>2</v>
@@ -9657,13 +9653,13 @@
         <v>36</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M169" s="6" t="s">
         <v>27</v>
@@ -9677,13 +9673,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D170" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -9692,7 +9688,7 @@
         <v>13</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H170" s="6">
         <v>4</v>
@@ -9701,13 +9697,13 @@
         <v>36</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M170" s="6" t="s">
         <v>27</v>
@@ -9721,13 +9717,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D171" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -9736,7 +9732,7 @@
         <v>13</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H171" s="6">
         <v>5</v>
@@ -9745,13 +9741,13 @@
         <v>31</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M171" s="6" t="s">
         <v>32</v>
@@ -9765,13 +9761,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="D172" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -9780,7 +9776,7 @@
         <v>13</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H172" s="6">
         <v>5</v>
@@ -9789,13 +9785,13 @@
         <v>31</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M172" s="6" t="s">
         <v>32</v>
@@ -9809,13 +9805,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D173" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -9824,7 +9820,7 @@
         <v>13</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H173" s="6">
         <v>6</v>
@@ -9833,13 +9829,13 @@
         <v>31</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>32</v>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Resources/CardPoolDatabase.xlsx
+++ b/Resources/CardPoolDatabase.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$173</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -86,9 +86,6 @@
     <t>NullWType</t>
   </si>
   <si>
-    <t>Muster</t>
-  </si>
-  <si>
     <t>Arachas 2.png</t>
   </si>
   <si>
@@ -534,10 +531,6 @@
   </si>
   <si>
     <t>Magic is Chaos, Art and Science.  It is a curse, ablessing and a progression.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1819,6 +1812,14 @@
   </si>
   <si>
     <t>Nilfgaardian</t>
+  </si>
+  <si>
+    <t>Medice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mustere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2211,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,13 +2236,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2253,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2274,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2282,37 +2283,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" t="s">
-        <v>209</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
         <v>210</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>211</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>212</v>
-      </c>
-      <c r="L2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" t="s">
-        <v>214</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -2356,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N3" s="4" t="b">
         <v>0</v>
@@ -2370,7 +2371,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2400,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N4" s="4" t="b">
         <v>0</v>
@@ -2414,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2444,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N5" s="4" t="b">
         <v>0</v>
@@ -2457,13 +2458,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -2478,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2489,8 +2490,8 @@
       <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
+      <c r="M6" t="s">
+        <v>535</v>
       </c>
       <c r="N6" s="5" t="b">
         <v>0</v>
@@ -2501,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2534,7 +2535,7 @@
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="4" t="b">
         <v>0</v>
@@ -2545,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -2566,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -2578,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="4" t="b">
         <v>0</v>
@@ -2589,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2610,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -2622,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" s="4" t="b">
         <v>0</v>
@@ -2633,13 +2634,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2666,7 +2667,7 @@
         <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N10" s="4" t="b">
         <v>0</v>
@@ -2677,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2710,7 +2711,7 @@
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N11" s="4" t="b">
         <v>0</v>
@@ -2721,13 +2722,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2754,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N12" s="4" t="b">
         <v>0</v>
@@ -2765,13 +2766,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2789,7 +2790,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -2798,7 +2799,7 @@
         <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="4" t="b">
         <v>0</v>
@@ -2809,13 +2810,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2830,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2842,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="4" t="b">
         <v>0</v>
@@ -2853,13 +2854,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2874,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -2886,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15" s="4" t="b">
         <v>0</v>
@@ -2897,13 +2898,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2930,7 +2931,7 @@
         <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" s="4" t="b">
         <v>0</v>
@@ -2941,13 +2942,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2962,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -2974,7 +2975,7 @@
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" s="4" t="b">
         <v>0</v>
@@ -2985,13 +2986,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -3018,7 +3019,7 @@
         <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18" s="4" t="b">
         <v>0</v>
@@ -3029,13 +3030,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -3062,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19" s="4" t="b">
         <v>0</v>
@@ -3073,13 +3074,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -3106,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" s="4" t="b">
         <v>0</v>
@@ -3117,13 +3118,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -3138,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -3150,7 +3151,7 @@
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" s="4" t="b">
         <v>0</v>
@@ -3161,13 +3162,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -3194,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N22" s="4" t="b">
         <v>0</v>
@@ -3205,13 +3206,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -3238,7 +3239,7 @@
         <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N23" s="4" t="b">
         <v>0</v>
@@ -3249,13 +3250,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -3282,7 +3283,7 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="N24" s="4" t="b">
         <v>0</v>
@@ -3293,13 +3294,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3314,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -3326,7 +3327,7 @@
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="4" t="b">
         <v>0</v>
@@ -3337,13 +3338,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3370,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="4" t="b">
         <v>0</v>
@@ -3381,13 +3382,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -3402,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -3414,7 +3415,7 @@
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27" s="4" t="b">
         <v>0</v>
@@ -3425,13 +3426,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -3446,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -3458,7 +3459,7 @@
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="4" t="b">
         <v>0</v>
@@ -3469,13 +3470,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -3493,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -3502,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" s="4" t="b">
         <v>0</v>
@@ -3513,13 +3514,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -3534,10 +3535,10 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -3546,7 +3547,7 @@
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N30" s="4" t="b">
         <v>0</v>
@@ -3557,13 +3558,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -3578,10 +3579,10 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -3590,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31" s="4" t="b">
         <v>0</v>
@@ -3601,13 +3602,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -3634,7 +3635,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N32" s="4" t="b">
         <v>0</v>
@@ -3645,13 +3646,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -3678,7 +3679,7 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>0</v>
@@ -3689,13 +3690,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -3722,7 +3723,7 @@
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N34" s="4" t="b">
         <v>0</v>
@@ -3733,13 +3734,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -3760,13 +3761,13 @@
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" s="4" t="b">
         <v>0</v>
@@ -3777,13 +3778,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -3810,7 +3811,7 @@
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N36" s="4" t="b">
         <v>0</v>
@@ -3821,13 +3822,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -3854,7 +3855,7 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N37" s="4" t="b">
         <v>0</v>
@@ -3865,13 +3866,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>104</v>
       </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -3898,7 +3899,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N38" s="4" t="b">
         <v>0</v>
@@ -3909,13 +3910,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3942,7 +3943,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N39" s="4" t="b">
         <v>0</v>
@@ -3953,13 +3954,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -3977,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -3986,7 +3987,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N40" s="4" t="b">
         <v>0</v>
@@ -3997,13 +3998,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
         <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -4030,7 +4031,7 @@
         <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N41" s="4" t="b">
         <v>0</v>
@@ -4041,13 +4042,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -4062,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -4074,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N42" s="4" t="b">
         <v>0</v>
@@ -4085,22 +4086,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>118</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
       </c>
       <c r="H43" s="2">
         <v>15</v>
@@ -4109,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -4118,7 +4119,7 @@
         <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N43" s="4" t="b">
         <v>0</v>
@@ -4129,22 +4130,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
         <v>121</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>122</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>123</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>124</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -4162,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N44" s="4" t="b">
         <v>0</v>
@@ -4173,14 +4174,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>530</v>
+      </c>
+      <c r="D45" t="s">
         <v>125</v>
       </c>
-      <c r="C45" t="s">
-        <v>532</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
-      </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="2">
         <v>5</v>
@@ -4203,10 +4204,10 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N45" s="4" t="b">
         <v>0</v>
@@ -4217,13 +4218,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
         <v>127</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -4232,13 +4233,13 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -4250,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N46" s="4" t="b">
         <v>0</v>
@@ -4261,14 +4262,14 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" s="2">
         <v>15</v>
@@ -4285,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -4294,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N47" s="4" t="b">
         <v>0</v>
@@ -4305,14 +4306,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
         <v>134</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
-        <v>136</v>
-      </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -4329,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -4338,7 +4339,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N48" s="4" t="b">
         <v>0</v>
@@ -4349,14 +4350,14 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>139</v>
       </c>
-      <c r="D49" t="s">
-        <v>140</v>
-      </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" s="2">
         <v>7</v>
@@ -4373,7 +4374,7 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -4382,7 +4383,7 @@
         <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N49" s="4" t="b">
         <v>0</v>
@@ -4393,14 +4394,14 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>142</v>
       </c>
-      <c r="D50" t="s">
-        <v>143</v>
-      </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="2">
         <v>6</v>
@@ -4417,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -4426,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N50" s="4" t="b">
         <v>0</v>
@@ -4437,14 +4438,14 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>146</v>
       </c>
-      <c r="D51" t="s">
-        <v>147</v>
-      </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="2">
         <v>7</v>
@@ -4461,7 +4462,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -4470,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N51" s="4" t="b">
         <v>0</v>
@@ -4481,14 +4482,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -4496,16 +4497,16 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H52" s="2">
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -4514,7 +4515,7 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>151</v>
+        <v>534</v>
       </c>
       <c r="N52" s="4" t="b">
         <v>0</v>
@@ -4525,14 +4526,14 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
         <v>152</v>
       </c>
-      <c r="C53" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" t="s">
-        <v>154</v>
-      </c>
       <c r="E53" s="4">
         <v>1</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="2">
         <v>5</v>
@@ -4549,7 +4550,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -4558,7 +4559,7 @@
         <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N53" s="4" t="b">
         <v>0</v>
@@ -4569,40 +4570,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
         <v>158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
       </c>
       <c r="E54" s="4">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54" s="2">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
+        <v>159</v>
+      </c>
+      <c r="J54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" t="s">
         <v>161</v>
       </c>
-      <c r="J54" t="s">
-        <v>156</v>
-      </c>
-      <c r="K54" t="s">
-        <v>162</v>
-      </c>
-      <c r="L54" t="s">
-        <v>163</v>
-      </c>
       <c r="M54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N54" s="4" t="b">
         <v>0</v>
@@ -4613,40 +4614,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" t="s">
-        <v>166</v>
       </c>
       <c r="E55" s="4">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="2">
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N55" s="4" t="b">
         <v>0</v>
@@ -4657,40 +4658,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
         <v>168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
       </c>
       <c r="E56" s="4">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N56" s="4" t="b">
         <v>0</v>
@@ -4701,40 +4702,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
         <v>172</v>
-      </c>
-      <c r="C57" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" t="s">
-        <v>174</v>
       </c>
       <c r="E57" s="4">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H57" s="2">
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N57" s="4" t="b">
         <v>0</v>
@@ -4745,40 +4746,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
         <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" t="s">
-        <v>178</v>
       </c>
       <c r="E58" s="4">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H58" s="2">
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N58" s="4" t="b">
         <v>0</v>
@@ -4789,40 +4790,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" t="s">
-        <v>182</v>
       </c>
       <c r="E59" s="4">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N59" s="4" t="b">
         <v>0</v>
@@ -4833,40 +4834,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
         <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" t="s">
-        <v>186</v>
       </c>
       <c r="E60" s="4">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H60" s="2">
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N60" s="4" t="b">
         <v>0</v>
@@ -4877,13 +4878,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E61" s="7">
         <v>1</v>
@@ -4892,25 +4893,25 @@
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H61" s="6">
         <v>2</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N61" s="4" t="b">
         <v>0</v>
@@ -4921,13 +4922,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -4936,25 +4937,25 @@
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N62" s="4" t="b">
         <v>0</v>
@@ -4965,13 +4966,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -4980,25 +4981,25 @@
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H63" s="6">
         <v>10</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N63" s="4" t="b">
         <v>0</v>
@@ -5009,13 +5010,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D64" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E64" s="7">
         <v>1</v>
@@ -5024,25 +5025,25 @@
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H64" s="6">
         <v>10</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N64" s="4" t="b">
         <v>0</v>
@@ -5053,13 +5054,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D65" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -5068,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H65" s="6">
         <v>6</v>
@@ -5077,16 +5078,16 @@
         <v>15</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" s="4" t="b">
         <v>0</v>
@@ -5097,13 +5098,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
@@ -5112,25 +5113,25 @@
         <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H66" s="6">
         <v>4</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N66" s="4" t="b">
         <v>0</v>
@@ -5141,13 +5142,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -5156,25 +5157,25 @@
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N67" s="4" t="b">
         <v>0</v>
@@ -5185,13 +5186,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D68" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
@@ -5200,25 +5201,25 @@
         <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H68" s="6">
         <v>1</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N68" s="4" t="b">
         <v>0</v>
@@ -5229,13 +5230,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
@@ -5244,25 +5245,25 @@
         <v>13</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H69" s="6">
         <v>6</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N69" s="4" t="b">
         <v>0</v>
@@ -5273,13 +5274,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D70" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
@@ -5288,25 +5289,25 @@
         <v>13</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H70" s="6">
         <v>10</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N70" s="4" t="b">
         <v>0</v>
@@ -5317,13 +5318,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D71" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
@@ -5332,7 +5333,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H71" s="6">
         <v>3</v>
@@ -5341,16 +5342,16 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N71" s="4" t="b">
         <v>0</v>
@@ -5361,13 +5362,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -5376,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H72" s="6">
         <v>3</v>
@@ -5385,16 +5386,16 @@
         <v>15</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N72" s="4" t="b">
         <v>0</v>
@@ -5405,13 +5406,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D73" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -5420,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H73" s="6">
         <v>3</v>
@@ -5429,16 +5430,16 @@
         <v>15</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N73" s="4" t="b">
         <v>0</v>
@@ -5449,13 +5450,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E74" s="7">
         <v>1</v>
@@ -5464,7 +5465,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H74" s="6">
         <v>3</v>
@@ -5473,16 +5474,16 @@
         <v>15</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N74" s="4" t="b">
         <v>0</v>
@@ -5493,22 +5494,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -5517,16 +5518,16 @@
         <v>15</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N75" s="4" t="b">
         <v>0</v>
@@ -5537,22 +5538,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H76" s="6">
         <v>10</v>
@@ -5561,16 +5562,16 @@
         <v>15</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N76" s="4" t="b">
         <v>0</v>
@@ -5581,13 +5582,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D77" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -5596,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H77" s="6">
         <v>3</v>
@@ -5605,16 +5606,16 @@
         <v>15</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N77" s="4" t="b">
         <v>0</v>
@@ -5625,40 +5626,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N78" s="4" t="b">
         <v>0</v>
@@ -5669,13 +5670,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -5684,7 +5685,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H79" s="6">
         <v>2</v>
@@ -5693,16 +5694,16 @@
         <v>15</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N79" s="4" t="b">
         <v>0</v>
@@ -5713,13 +5714,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -5728,7 +5729,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H80" s="6">
         <v>2</v>
@@ -5737,16 +5738,16 @@
         <v>15</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N80" s="4" t="b">
         <v>0</v>
@@ -5757,13 +5758,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
@@ -5772,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H81" s="6">
         <v>2</v>
@@ -5781,16 +5782,16 @@
         <v>15</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N81" s="4" t="b">
         <v>0</v>
@@ -5801,13 +5802,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -5816,25 +5817,25 @@
         <v>13</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H82" s="6">
         <v>3</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N82" s="4" t="b">
         <v>0</v>
@@ -5845,13 +5846,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -5860,7 +5861,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H83" s="6">
         <v>4</v>
@@ -5869,16 +5870,16 @@
         <v>15</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N83" s="4" t="b">
         <v>0</v>
@@ -5889,13 +5890,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D84" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E84" s="7">
         <v>1</v>
@@ -5904,25 +5905,25 @@
         <v>13</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H84" s="6">
         <v>5</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" s="4" t="b">
         <v>0</v>
@@ -5933,13 +5934,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D85" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
@@ -5948,25 +5949,25 @@
         <v>13</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H85" s="6">
         <v>3</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N85" s="4" t="b">
         <v>0</v>
@@ -5977,13 +5978,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D86" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -5992,7 +5993,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H86" s="6">
         <v>7</v>
@@ -6001,16 +6002,16 @@
         <v>15</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N86" s="4" t="b">
         <v>0</v>
@@ -6021,13 +6022,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D87" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
@@ -6036,25 +6037,25 @@
         <v>13</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H87" s="6">
         <v>6</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N87" s="4" t="b">
         <v>0</v>
@@ -6065,13 +6066,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E88" s="7">
         <v>1</v>
@@ -6080,25 +6081,25 @@
         <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H88" s="6">
         <v>0</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N88" s="4" t="b">
         <v>0</v>
@@ -6109,13 +6110,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D89" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
@@ -6124,7 +6125,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H89" s="6">
         <v>9</v>
@@ -6133,16 +6134,16 @@
         <v>15</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N89" s="4" t="b">
         <v>0</v>
@@ -6153,13 +6154,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D90" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
@@ -6168,25 +6169,25 @@
         <v>13</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H90" s="6">
         <v>2</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N90" s="4" t="b">
         <v>0</v>
@@ -6197,40 +6198,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D91" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H91" s="6">
         <v>10</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N91" s="4" t="b">
         <v>0</v>
@@ -6241,13 +6242,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D92" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
@@ -6256,25 +6257,25 @@
         <v>13</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H92" s="6">
         <v>4</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" s="4" t="b">
         <v>0</v>
@@ -6285,13 +6286,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E93" s="7">
         <v>1</v>
@@ -6300,7 +6301,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H93" s="6">
         <v>4</v>
@@ -6309,16 +6310,16 @@
         <v>15</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N93" s="4" t="b">
         <v>0</v>
@@ -6329,13 +6330,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -6344,7 +6345,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H94" s="6">
         <v>2</v>
@@ -6353,16 +6354,16 @@
         <v>15</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N94" s="4" t="b">
         <v>0</v>
@@ -6373,13 +6374,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -6388,25 +6389,25 @@
         <v>13</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H95" s="6">
         <v>5</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N95" s="4" t="b">
         <v>0</v>
@@ -6417,13 +6418,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -6432,25 +6433,25 @@
         <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N96" s="4" t="b">
         <v>0</v>
@@ -6461,13 +6462,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -6476,25 +6477,25 @@
         <v>13</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N97" s="4" t="b">
         <v>0</v>
@@ -6505,13 +6506,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -6520,25 +6521,25 @@
         <v>13</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H98" s="6">
         <v>6</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" s="4" t="b">
         <v>0</v>
@@ -6549,13 +6550,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -6564,25 +6565,25 @@
         <v>13</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H99" s="6">
         <v>6</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N99" s="4" t="b">
         <v>0</v>
@@ -6593,13 +6594,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D100" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -6608,7 +6609,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H100" s="6">
         <v>4</v>
@@ -6617,16 +6618,16 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N100" s="4" t="b">
         <v>0</v>
@@ -6637,13 +6638,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -6652,7 +6653,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H101" s="6">
         <v>4</v>
@@ -6661,16 +6662,16 @@
         <v>15</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N101" s="4" t="b">
         <v>0</v>
@@ -6681,13 +6682,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E102" s="7">
         <v>2</v>
@@ -6696,7 +6697,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H102" s="6">
         <v>4</v>
@@ -6705,16 +6706,16 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N102" s="4" t="b">
         <v>0</v>
@@ -6725,13 +6726,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D103" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -6740,25 +6741,25 @@
         <v>13</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H103" s="6">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M103" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="N103" s="4" t="b">
         <v>0</v>
@@ -6769,13 +6770,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D104" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6784,25 +6785,25 @@
         <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H104" s="6">
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M104" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="N104" s="4" t="b">
         <v>0</v>
@@ -6813,13 +6814,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -6828,25 +6829,25 @@
         <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H105" s="6">
         <v>5</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N105" s="4" t="b">
         <v>0</v>
@@ -6857,13 +6858,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -6872,25 +6873,25 @@
         <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N106" s="4" t="b">
         <v>0</v>
@@ -6901,13 +6902,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D107" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -6916,25 +6917,25 @@
         <v>13</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N107" s="4" t="b">
         <v>0</v>
@@ -6945,13 +6946,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -6960,25 +6961,25 @@
         <v>13</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H108" s="6">
         <v>6</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N108" s="4" t="b">
         <v>0</v>
@@ -6989,13 +6990,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D109" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -7004,25 +7005,25 @@
         <v>13</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H109" s="6">
         <v>5</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N109" s="4" t="b">
         <v>0</v>
@@ -7033,13 +7034,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D110" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -7048,7 +7049,7 @@
         <v>13</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H110" s="6">
         <v>10</v>
@@ -7057,16 +7058,16 @@
         <v>15</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N110" s="4" t="b">
         <v>0</v>
@@ -7077,13 +7078,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E111" s="7">
         <v>1</v>
@@ -7092,7 +7093,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H111" s="6">
         <v>10</v>
@@ -7101,16 +7102,16 @@
         <v>15</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N111" s="4" t="b">
         <v>0</v>
@@ -7121,13 +7122,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D112" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -7136,25 +7137,25 @@
         <v>13</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H112" s="6">
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N112" s="4" t="b">
         <v>0</v>
@@ -7165,13 +7166,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -7180,25 +7181,25 @@
         <v>13</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N113" s="4" t="b">
         <v>0</v>
@@ -7209,13 +7210,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D114" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -7224,25 +7225,25 @@
         <v>13</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N114" s="4" t="b">
         <v>0</v>
@@ -7253,13 +7254,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -7268,25 +7269,25 @@
         <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H115" s="6">
         <v>5</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N115" s="4" t="b">
         <v>0</v>
@@ -7297,13 +7298,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D116" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -7312,25 +7313,25 @@
         <v>13</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H116" s="6">
         <v>10</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N116" s="4" t="b">
         <v>0</v>
@@ -7341,13 +7342,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D117" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -7356,7 +7357,7 @@
         <v>13</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -7365,16 +7366,16 @@
         <v>15</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N117" s="4" t="b">
         <v>0</v>
@@ -7385,13 +7386,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D118" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -7400,7 +7401,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -7409,16 +7410,16 @@
         <v>15</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N118" s="4" t="b">
         <v>0</v>
@@ -7429,13 +7430,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E119" s="7">
         <v>2</v>
@@ -7444,7 +7445,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -7453,16 +7454,16 @@
         <v>15</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N119" s="4" t="b">
         <v>0</v>
@@ -7473,13 +7474,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D120" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -7488,7 +7489,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H120" s="6">
         <v>5</v>
@@ -7497,16 +7498,16 @@
         <v>15</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N120" s="4" t="b">
         <v>0</v>
@@ -7517,13 +7518,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D121" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -7532,7 +7533,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -7541,16 +7542,16 @@
         <v>15</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N121" s="4" t="b">
         <v>0</v>
@@ -7561,13 +7562,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D122" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -7576,7 +7577,7 @@
         <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -7585,16 +7586,16 @@
         <v>15</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N122" s="4" t="b">
         <v>0</v>
@@ -7605,13 +7606,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -7620,25 +7621,25 @@
         <v>13</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H123" s="6">
         <v>4</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N123" s="4" t="b">
         <v>0</v>
@@ -7649,13 +7650,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D124" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -7664,25 +7665,25 @@
         <v>13</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H124" s="6">
         <v>4</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N124" s="4" t="b">
         <v>0</v>
@@ -7693,13 +7694,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D125" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E125" s="7">
         <v>1</v>
@@ -7708,25 +7709,25 @@
         <v>13</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H125" s="6">
         <v>6</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N125" s="4" t="b">
         <v>0</v>
@@ -7737,13 +7738,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D126" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E126" s="7">
         <v>1</v>
@@ -7752,25 +7753,25 @@
         <v>13</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H126" s="6">
         <v>6</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N126" s="4" t="b">
         <v>0</v>
@@ -7781,13 +7782,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D127" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -7796,7 +7797,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H127" s="6">
         <v>5</v>
@@ -7805,16 +7806,16 @@
         <v>15</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N127" s="4" t="b">
         <v>0</v>
@@ -7825,13 +7826,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D128" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -7840,7 +7841,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H128" s="6">
         <v>4</v>
@@ -7849,16 +7850,16 @@
         <v>15</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N128" s="4" t="b">
         <v>0</v>
@@ -7869,13 +7870,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D129" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -7884,25 +7885,25 @@
         <v>13</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H129" s="6">
         <v>5</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N129" s="4" t="b">
         <v>0</v>
@@ -7913,13 +7914,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D130" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -7928,25 +7929,25 @@
         <v>13</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N130" s="4" t="b">
         <v>0</v>
@@ -7957,13 +7958,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D131" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E131" s="7">
         <v>1</v>
@@ -7972,25 +7973,25 @@
         <v>13</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H131" s="6">
         <v>6</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N131" s="4" t="b">
         <v>0</v>
@@ -8001,13 +8002,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D132" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
@@ -8016,25 +8017,25 @@
         <v>13</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H132" s="6">
         <v>6</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N132" s="4" t="b">
         <v>0</v>
@@ -8045,22 +8046,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D133" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E133" s="7">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H133" s="6">
         <v>10</v>
@@ -8069,16 +8070,16 @@
         <v>15</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N133" s="4" t="b">
         <v>0</v>
@@ -8089,13 +8090,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D134" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E134" s="7">
         <v>1</v>
@@ -8104,7 +8105,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H134" s="6">
         <v>5</v>
@@ -8113,16 +8114,16 @@
         <v>15</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N134" s="4" t="b">
         <v>0</v>
@@ -8133,13 +8134,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D135" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -8148,7 +8149,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H135" s="6">
         <v>2</v>
@@ -8157,16 +8158,16 @@
         <v>15</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N135" s="4" t="b">
         <v>0</v>
@@ -8177,40 +8178,40 @@
         <v>134</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D136" t="s">
-        <v>510</v>
-      </c>
-      <c r="E136" s="7">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="H136" s="6">
         <v>6</v>
       </c>
       <c r="I136" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M136" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N136" s="4" t="b">
         <v>0</v>
@@ -8221,13 +8222,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D137" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -8236,25 +8237,25 @@
         <v>13</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H137" s="6">
         <v>3</v>
       </c>
       <c r="I137" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M137" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K137" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L137" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N137" s="4" t="b">
         <v>0</v>
@@ -8265,13 +8266,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D138" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E138" s="7">
         <v>1</v>
@@ -8280,7 +8281,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H138" s="6">
         <v>6</v>
@@ -8289,16 +8290,16 @@
         <v>15</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N138" s="4" t="b">
         <v>0</v>
@@ -8309,13 +8310,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D139" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -8324,25 +8325,25 @@
         <v>13</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H139" s="6">
         <v>4</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N139" s="4" t="b">
         <v>0</v>
@@ -8353,13 +8354,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D140" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -8368,25 +8369,25 @@
         <v>13</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H140" s="6">
         <v>6</v>
       </c>
       <c r="I140" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M140" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N140" s="4" t="b">
         <v>0</v>
@@ -8397,13 +8398,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D141" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -8412,25 +8413,25 @@
         <v>13</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H141" s="6">
         <v>6</v>
       </c>
       <c r="I141" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M141" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N141" s="4" t="b">
         <v>0</v>
@@ -8441,13 +8442,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D142" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -8456,25 +8457,25 @@
         <v>13</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H142" s="6">
         <v>6</v>
       </c>
       <c r="I142" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M142" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L142" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N142" s="4" t="b">
         <v>0</v>
@@ -8485,13 +8486,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -8500,7 +8501,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H143" s="6">
         <v>3</v>
@@ -8509,16 +8510,16 @@
         <v>15</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N143" s="4" t="b">
         <v>0</v>
@@ -8529,13 +8530,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="D144" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -8544,7 +8545,7 @@
         <v>13</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H144" s="6">
         <v>3</v>
@@ -8553,16 +8554,16 @@
         <v>15</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N144" s="4" t="b">
         <v>0</v>
@@ -8573,13 +8574,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D145" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -8588,7 +8589,7 @@
         <v>13</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H145" s="6">
         <v>3</v>
@@ -8597,16 +8598,16 @@
         <v>15</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N145" s="4" t="b">
         <v>0</v>
@@ -8617,13 +8618,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D146" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -8632,25 +8633,25 @@
         <v>13</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H146" s="6">
         <v>10</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N146" s="4" t="b">
         <v>0</v>
@@ -8661,13 +8662,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D147" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -8676,25 +8677,25 @@
         <v>13</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H147" s="6">
         <v>2</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N147" s="4" t="b">
         <v>0</v>
@@ -8705,13 +8706,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -8720,25 +8721,25 @@
         <v>13</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H148" s="6">
         <v>2</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N148" s="4" t="b">
         <v>0</v>
@@ -8749,13 +8750,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D149" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -8764,25 +8765,25 @@
         <v>13</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H149" s="6">
         <v>2</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N149" s="4" t="b">
         <v>0</v>
@@ -8793,13 +8794,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D150" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -8808,25 +8809,25 @@
         <v>13</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H150" s="6">
         <v>6</v>
       </c>
       <c r="I150" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M150" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L150" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M150" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N150" s="4" t="b">
         <v>0</v>
@@ -8837,13 +8838,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D151" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -8852,25 +8853,25 @@
         <v>13</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H151" s="6">
         <v>0</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N151" s="4" t="b">
         <v>0</v>
@@ -8881,13 +8882,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D152" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -8896,25 +8897,25 @@
         <v>13</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H152" s="6">
         <v>0</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N152" s="4" t="b">
         <v>0</v>
@@ -8925,13 +8926,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D153" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -8940,25 +8941,25 @@
         <v>13</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H153" s="6">
         <v>0</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N153" s="4" t="b">
         <v>0</v>
@@ -8969,13 +8970,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D154" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -8984,7 +8985,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H154" s="6">
         <v>5</v>
@@ -8993,16 +8994,16 @@
         <v>15</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N154" s="4" t="b">
         <v>0</v>
@@ -9013,13 +9014,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="D155" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -9028,7 +9029,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H155" s="6">
         <v>5</v>
@@ -9037,16 +9038,16 @@
         <v>15</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M155" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N155" s="4" t="b">
         <v>0</v>
@@ -9057,13 +9058,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D156" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -9072,7 +9073,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H156" s="6">
         <v>5</v>
@@ -9081,16 +9082,16 @@
         <v>15</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N156" s="4" t="b">
         <v>0</v>
@@ -9101,13 +9102,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D157" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -9116,25 +9117,25 @@
         <v>13</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H157" s="6">
         <v>6</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N157" s="4" t="b">
         <v>0</v>
@@ -9145,13 +9146,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D158" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -9160,25 +9161,25 @@
         <v>13</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H158" s="6">
         <v>10</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N158" s="4" t="b">
         <v>0</v>
@@ -9189,13 +9190,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -9204,7 +9205,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H159" s="6">
         <v>10</v>
@@ -9213,16 +9214,16 @@
         <v>15</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N159" s="4" t="b">
         <v>0</v>
@@ -9233,13 +9234,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -9248,7 +9249,7 @@
         <v>13</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H160" s="6">
         <v>5</v>
@@ -9257,16 +9258,16 @@
         <v>15</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N160" s="4" t="b">
         <v>0</v>
@@ -9277,13 +9278,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="D161" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -9292,7 +9293,7 @@
         <v>13</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H161" s="6">
         <v>5</v>
@@ -9301,16 +9302,16 @@
         <v>15</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N161" s="4" t="b">
         <v>0</v>
@@ -9321,13 +9322,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D162" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -9336,7 +9337,7 @@
         <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H162" s="6">
         <v>5</v>
@@ -9345,16 +9346,16 @@
         <v>15</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N162" s="4" t="b">
         <v>0</v>
@@ -9365,13 +9366,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -9380,7 +9381,7 @@
         <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H163" s="6">
         <v>5</v>
@@ -9389,16 +9390,16 @@
         <v>15</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N163" s="4" t="b">
         <v>0</v>
@@ -9409,13 +9410,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D164" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -9424,7 +9425,7 @@
         <v>13</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H164" s="6">
         <v>5</v>
@@ -9433,16 +9434,16 @@
         <v>15</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N164" s="4" t="b">
         <v>0</v>
@@ -9453,13 +9454,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D165" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -9468,25 +9469,25 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H165" s="6">
         <v>10</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N165" s="4" t="b">
         <v>0</v>
@@ -9497,13 +9498,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -9512,25 +9513,25 @@
         <v>13</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H166" s="6">
         <v>1</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N166" s="4" t="b">
         <v>0</v>
@@ -9541,13 +9542,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D167" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -9556,25 +9557,25 @@
         <v>13</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H167" s="6">
         <v>8</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N167" s="4" t="b">
         <v>0</v>
@@ -9585,13 +9586,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D168" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -9600,25 +9601,25 @@
         <v>13</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H168" s="6">
         <v>10</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N168" s="4" t="b">
         <v>0</v>
@@ -9629,13 +9630,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D169" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -9644,25 +9645,25 @@
         <v>13</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H169" s="6">
         <v>2</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N169" s="4" t="b">
         <v>0</v>
@@ -9673,13 +9674,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D170" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -9688,25 +9689,25 @@
         <v>13</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H170" s="6">
         <v>4</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N170" s="4" t="b">
         <v>0</v>
@@ -9717,13 +9718,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D171" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -9732,25 +9733,25 @@
         <v>13</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H171" s="6">
         <v>5</v>
       </c>
       <c r="I171" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M171" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L171" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M171" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N171" s="4" t="b">
         <v>0</v>
@@ -9761,13 +9762,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="D172" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -9776,25 +9777,25 @@
         <v>13</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H172" s="6">
         <v>5</v>
       </c>
       <c r="I172" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M172" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L172" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M172" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N172" s="4" t="b">
         <v>0</v>
@@ -9805,13 +9806,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -9820,31 +9821,32 @@
         <v>13</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H173" s="6">
         <v>6</v>
       </c>
       <c r="I173" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M173" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J173" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L173" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="M173" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="N173" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N173"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
